--- a/TCs/Sơn_Testcase.xlsx
+++ b/TCs/Sơn_Testcase.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Son\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KCPM\Project\Test Document\KCPM-Reports\TCs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B604D4-003D-4C8C-9301-B87A621A5B2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E2DED8-6365-47BB-85D4-98FFCEF0B4DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="427">
   <si>
     <t>No.</t>
   </si>
@@ -1185,9 +1185,6 @@
 5. Click Đăng ký</t>
   </si>
   <si>
-    <t>1. Các ký tự nhập vào trường "Mật khẩu" và "Nhập lại mật khẩu" đều bị ẩn đi</t>
-  </si>
-  <si>
     <t>F015-T017</t>
   </si>
   <si>
@@ -1272,9 +1269,6 @@
   <si>
     <t>1. Allows the user to proceed and
 2. The error message is not displayed</t>
-  </si>
-  <si>
-    <t>F011-T052</t>
   </si>
   <si>
     <t>Skipped</t>
@@ -1531,15 +1525,294 @@
   <si>
     <t>F014-T001</t>
   </si>
+  <si>
+    <t>F015-T021</t>
+  </si>
+  <si>
+    <t>Kiểm tra responsive của trang Đăng Ký với độ phân giải màn hình: 1024 x 768, 600x800, 640 x 480 pixel</t>
+  </si>
+  <si>
+    <t>F017-T001</t>
+  </si>
+  <si>
+    <t>1. Click vào "Đăng nhập/Đăng ký" trên thanh navbar
+2. Ở form đăng nhập, nhập email: "sonnt@gmail.com"
+3. Nhập mật khẩu: "123456Sh"</t>
+  </si>
+  <si>
+    <t>1. Đã đăng ký một tài khoản user hợp lệ trước đó</t>
+  </si>
+  <si>
+    <t>Đăng nhập bằng email và mật khẩu hợp lệ của user</t>
+  </si>
+  <si>
+    <t>1. DĐăng nhập thành công
+2. Trang web chuyển tới trang chủ</t>
+  </si>
+  <si>
+    <t>Kiểm tra xem người dùng có dễ dàng biết rằng mình đã đăng nhập thành công không</t>
+  </si>
+  <si>
+    <t>1. Trang web thông báo đã đăng nhập thành công
+2. Hiển thị icon User trên thanh navbar, liên kết tới trang profile của người dùng
+3. Trên thanh navbar không còn chứa liên kết Đăng nhập/Đăng ký</t>
+  </si>
+  <si>
+    <t>Kiểm tra khi mở trang đăng nhập, trường nhập liệu đầu tiên của form đăng nhập có được focus không?</t>
+  </si>
+  <si>
+    <t>1. Click vào "Đăng nhập/Đăng ký" trên thanh navbar
+2. Kiểm tra trường Email của form đăng nhập</t>
+  </si>
+  <si>
+    <t>1. Trường Email của form đăng nhập được tự động focus</t>
+  </si>
+  <si>
+    <t>1. Trường Email của form đăng nhập KHÔNG được tự động focus</t>
+  </si>
+  <si>
+    <t>F017-T002</t>
+  </si>
+  <si>
+    <t>F017-T003</t>
+  </si>
+  <si>
+    <t>F017-T004</t>
+  </si>
+  <si>
+    <t>F017-T005</t>
+  </si>
+  <si>
+    <t>F017-T006</t>
+  </si>
+  <si>
+    <t>F017-T007</t>
+  </si>
+  <si>
+    <t>F017-T008</t>
+  </si>
+  <si>
+    <t>F017-T009</t>
+  </si>
+  <si>
+    <t>F017-T010</t>
+  </si>
+  <si>
+    <t>Kiểm tra khi nhập liệu ở trường Mật khẩu, thông tin có được ẩn đi hay không</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Các ký tự trong chuỗi "123456Sh" khi nhập vào ô Mật khẩu đều bị ẩn đi dưới dạng "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>●●●●●●●●</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Các ký tự nhập vào trường "Mật khẩu" và "Nhập lại mật khẩu" đều bị ẩn đi dưới dạng "●●●●●●●●"</t>
+  </si>
+  <si>
+    <t>Người dùng đăng nhập bằng email chưa được đăng ký trước đó</t>
+  </si>
+  <si>
+    <t>1. Sử dụng email chưa từng được đăng ký tài khoản</t>
+  </si>
+  <si>
+    <t>1. Click vào "Đăng nhập/Đăng ký" trên thanh navbar
+2. Ở form đăng nhập, nhập email: "sonnt-newemail@gmail.com"
+3. Nhập mật khẩu: "1234567"</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập không thành công
+2. Thông báo lỗi "This email is not registered"</t>
+  </si>
+  <si>
+    <t>Người dùng đăng nhập với email hợp lệ nhưng sai mật khẩu</t>
+  </si>
+  <si>
+    <t>1. Click vào "Đăng nhập/Đăng ký" trên thanh navbar
+2. Ở form đăng nhập, nhập email: "sonnt@gmail.com"
+3. Nhập mật khẩu: "abcdefg"</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập không thành công
+2. Thông báo lỗi "Password incorrect"</t>
+  </si>
+  <si>
+    <t>Người dùng đăng nhập với email hợp lệ nhưng nhập dư một dấu cách ở cuối</t>
+  </si>
+  <si>
+    <t>1. Click vào "Đăng nhập/Đăng ký" trên thanh navbar
+2. Ở form đăng nhập, nhập email: "sonnt@gmail.com "
+3. Nhập mật khẩu: "123456Sh"</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập thành công
+2. Trang web đi đến trang chủ</t>
+  </si>
+  <si>
+    <t>1. Click vào "Đăng nhập/Đăng ký" trên thanh navbar
+2. Ở form đăng nhập, nhập email: 
+" sonnt@gmail.com"
+3. Nhập mật khẩu: "123456Sh"</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập không thành công
+2. Thông báo lỗi "Incorect Email"</t>
+  </si>
+  <si>
+    <t>Kiểm tra khi người dùng đăng nhập thất bại và trang web thông báo lỗi, form đăng nhập có tự động focus vào trường bị lỗi đầu tiên không</t>
+  </si>
+  <si>
+    <t>1. Click vào "Đăng nhập/Đăng ký" trên thanh navbar
+2. Ở form đăng nhập, nhập email: "sonnt@gmail.com "
+3. Nhập mật khẩu sai: "abcdefg"</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập không thành công
+2. Thông báo lỗi "Password incorrect"
+3. Form đăng nhập tự động focus vào trường Mật Khẩu</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập không thành công
+2. Thông báo lỗi "Password incorrect"
+3. Form đăng nhập KHÔNG tự động focus vào trường Mật Khẩu</t>
+  </si>
+  <si>
+    <t>Funtional</t>
+  </si>
+  <si>
+    <t>Người dùng đăng nhập chỉ nhập email, để trống mật khẩu</t>
+  </si>
+  <si>
+    <t>1. Click vào "Đăng nhập/Đăng ký" trên thanh navbar
+2. Ở form đăng nhập, nhập email: "sonnt@gmail.com "
+3. Bỏ trống trường Mật khẩu</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập không thành công
+2. Thông báo lỗi "Missing credentials"</t>
+  </si>
+  <si>
+    <t>Người dùng đăng nhập chỉ nhập mật khẩu, để trống email</t>
+  </si>
+  <si>
+    <t>1. Click vào "Đăng nhập/Đăng ký" trên thanh navbar
+2. Ở form đăng nhập, bỏ trống trường Email
+3. Nhập mật khẩu: "1234567"</t>
+  </si>
+  <si>
+    <t>Chuyển tới trang đăng nhập dành cho quản trị viên (Admin)</t>
+  </si>
+  <si>
+    <t>1. Click vào "Đăng nhập/Đăng ký" trên thanh navbar
+2. Ở trang Đăng nhập, click vào liên kêt "Đăng nhập với tài khoản quản trị"</t>
+  </si>
+  <si>
+    <t>1. Đi tới trang đăng nhập riêng dành cho Admin</t>
+  </si>
+  <si>
+    <t>Đăng nhập vào trang Admin bằng email và mật khẩu hợp lệ</t>
+  </si>
+  <si>
+    <t>1. Click vào "Đăng nhập/Đăng ký" trên thanh navbar
+2. Ở trang Đăng nhập, click vào liên kêt "Đăng nhập với tài khoản quản trị"
+3. Nhập email admin: "toanhuuvuong.com@gmail.com"
+4. Nhập mật khẩu admin: "1234567"</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập thành công
+2. Đi đến trang quản lý của Admin</t>
+  </si>
+  <si>
+    <t>Đăng nhập vào trang Admin bằng tài khoản của người dùng (user)</t>
+  </si>
+  <si>
+    <t>1. Click vào "Đăng nhập/Đăng ký" trên thanh navbar
+2. Ở trang Đăng nhập, click vào liên kêt "Đăng nhập với tài khoản quản trị"
+3. Nhập email của user: "sonnt@gmail.com"
+4. Nhập mật khẩu user: "123456Sh"</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập không thành công
+2. Thông báo lối "Your account is not allowed for this login"</t>
+  </si>
+  <si>
+    <t>Người dùng đăng nhập với email hợp lệ nhưng nhập dư một dấu cách ở đầu</t>
+  </si>
+  <si>
+    <t>Đăng nhập vào trang admin với email hợp lệ nhưng mật khẩu không chính xác</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập không thành công
+2. Thông báo lỗi "Your account is not allowed for this login"</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập không thành công
+2. Thông báo lỗi "Password Incorrect"</t>
+  </si>
+  <si>
+    <t>Kiểm tra khi mở trang đăng nhập của Admin, trường nhập liệu đầu tiên của form đăng nhập có được focus không?</t>
+  </si>
+  <si>
+    <t>1. Click vào "Đăng nhập/Đăng ký" trên thanh navbar
+2. Ở trang Đăng nhập, click vào liên kêt "Đăng nhập với tài khoản quản trị"
+3. Kiểm tra form đăng nhập của Admin</t>
+  </si>
+  <si>
+    <t>Kiểm tra khi đăng nhập thất bại ở trang Admin, form đăng nhập có tự động focus vào trường bị lỗi đầu tiên không</t>
+  </si>
+  <si>
+    <t>1. Click vào "Đăng nhập/Đăng ký" trên thanh navbar
+2. Ở trang Đăng nhập, click vào liên kêt "Đăng nhập với tài khoản quản trị"
+3. Nhập email của user: "toanhuuvuong.com@gmail.com"
+4. Nhập mật khẩu sai: "abcdefg"</t>
+  </si>
+  <si>
+    <t>F017-T011</t>
+  </si>
+  <si>
+    <t>F017-T012</t>
+  </si>
+  <si>
+    <t>F017-T013</t>
+  </si>
+  <si>
+    <t>F017-T014</t>
+  </si>
+  <si>
+    <t>F017-T015</t>
+  </si>
+  <si>
+    <t>F017-T016</t>
+  </si>
+  <si>
+    <t>F017-T017</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-1010000]d/m/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1678,8 +1951,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.35"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1738,18 +2029,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE7F6EF"/>
         <bgColor rgb="FFE7F6EF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor theme="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -2039,7 +2318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2206,8 +2485,41 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2215,9 +2527,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2227,68 +2541,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="48">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2651,6 +2911,15 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFDBE5F1"/>
@@ -2852,35 +3121,35 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_2" displayName="Table_2" ref="A2:AA104" headerRowCount="0" headerRowDxfId="2" dataDxfId="0" totalsRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_2" displayName="Table_2" ref="A2:AA104" headerRowCount="0" headerRowDxfId="29" dataDxfId="28" totalsRowDxfId="27">
   <tableColumns count="27">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Column1" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Column2" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Column3" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Column4" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Column5" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Column6" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Column7" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Column8" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Column9" dataDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Column10" dataDxfId="20"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Column11" dataDxfId="19"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Column12" dataDxfId="18"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Column13" dataDxfId="17"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Column14" dataDxfId="16"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Column15" dataDxfId="15"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="Column16" dataDxfId="14"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="Column17" dataDxfId="13"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="Column18" dataDxfId="12"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="Column19" dataDxfId="11"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" name="Column20" dataDxfId="10"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0100-000015000000}" name="Column21" dataDxfId="9"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0100-000016000000}" name="Column22" dataDxfId="8"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0100-000017000000}" name="Column23" dataDxfId="7"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0100-000018000000}" name="Column24" dataDxfId="6"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0100-000019000000}" name="Column25" dataDxfId="5"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0100-00001A000000}" name="Column26" dataDxfId="4"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0100-00001B000000}" name="Column27" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Column1" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Column2" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Column3" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Column4" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Column5" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Column6" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Column7" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Column8" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Column9" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Column10" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Column11" dataDxfId="16"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Column12" dataDxfId="15"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Column13" dataDxfId="14"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Column14" dataDxfId="13"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Column15" dataDxfId="12"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="Column16" dataDxfId="11"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="Column17" dataDxfId="10"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="Column18" dataDxfId="9"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="Column19" dataDxfId="8"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" name="Column20" dataDxfId="7"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0100-000015000000}" name="Column21" dataDxfId="6"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0100-000016000000}" name="Column22" dataDxfId="5"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0100-000017000000}" name="Column23" dataDxfId="4"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0100-000018000000}" name="Column24" dataDxfId="3"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0100-000019000000}" name="Column25" dataDxfId="2"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0100-00001A000000}" name="Column26" dataDxfId="1"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0100-00001B000000}" name="Column27" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Function list-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3150,7 +3419,7 @@
   <dimension ref="A1:E998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7273,8 +7542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:A56"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7284,7 +7553,7 @@
     <col min="3" max="3" width="6.75" customWidth="1"/>
     <col min="4" max="4" width="11.625" customWidth="1"/>
     <col min="5" max="5" width="18.375" customWidth="1"/>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="11.25" customWidth="1"/>
     <col min="7" max="7" width="35.125" customWidth="1"/>
     <col min="8" max="8" width="33.75" customWidth="1"/>
     <col min="9" max="9" width="33.125" customWidth="1"/>
@@ -7297,14 +7566,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="77"/>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
+      <c r="A1" s="68"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
       <c r="I1" s="79" t="s">
         <v>26</v>
       </c>
@@ -7323,64 +7592,64 @@
       <c r="T1" s="81"/>
     </row>
     <row r="2" spans="1:27" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="84" t="s">
+      <c r="D2" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="84" t="s">
+      <c r="E2" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="84" t="s">
+      <c r="F2" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="84" t="s">
+      <c r="G2" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="84" t="s">
+      <c r="H2" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="84" t="s">
+      <c r="I2" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="84" t="s">
+      <c r="J2" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="84" t="s">
+      <c r="K2" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="84" t="s">
+      <c r="L2" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="84" t="s">
+      <c r="M2" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="84" t="s">
+      <c r="N2" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="84" t="s">
+      <c r="O2" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="84" t="s">
+      <c r="P2" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" s="84" t="s">
+      <c r="Q2" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="84" t="s">
+      <c r="R2" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="S2" s="84" t="s">
+      <c r="S2" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="T2" s="84" t="s">
+      <c r="T2" s="71" t="s">
         <v>45</v>
       </c>
       <c r="U2" s="14"/>
@@ -7392,48 +7661,48 @@
       <c r="AA2" s="14"/>
     </row>
     <row r="3" spans="1:27" ht="72" x14ac:dyDescent="0.25">
-      <c r="A3" s="84">
+      <c r="A3" s="71">
         <v>1</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="84" t="s">
+      <c r="D3" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84" t="s">
+      <c r="F3" s="71"/>
+      <c r="G3" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="84" t="s">
+      <c r="H3" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="84" t="s">
+      <c r="I3" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="84" t="s">
+      <c r="J3" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84" t="s">
+      <c r="K3" s="71"/>
+      <c r="L3" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M3" s="86">
+      <c r="M3" s="73">
         <v>44195</v>
       </c>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
       <c r="U3" s="15"/>
       <c r="V3" s="15"/>
       <c r="W3" s="15"/>
@@ -7443,48 +7712,48 @@
       <c r="AA3" s="15"/>
     </row>
     <row r="4" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="84">
+      <c r="A4" s="71">
         <v>2</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="84" t="s">
+      <c r="E4" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84" t="s">
+      <c r="F4" s="71"/>
+      <c r="G4" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="84" t="s">
+      <c r="I4" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="84" t="s">
+      <c r="J4" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84" t="s">
+      <c r="K4" s="71"/>
+      <c r="L4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M4" s="86">
+      <c r="M4" s="73">
         <v>44195</v>
       </c>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="84"/>
-      <c r="T4" s="84"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="71"/>
+      <c r="T4" s="71"/>
       <c r="U4" s="15"/>
       <c r="V4" s="15"/>
       <c r="W4" s="15"/>
@@ -7494,48 +7763,48 @@
       <c r="AA4" s="15"/>
     </row>
     <row r="5" spans="1:27" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="84">
+      <c r="A5" s="71">
         <v>3</v>
       </c>
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="84" t="s">
+      <c r="D5" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="84" t="s">
+      <c r="E5" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84" t="s">
+      <c r="F5" s="71"/>
+      <c r="G5" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="84" t="s">
+      <c r="H5" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="I5" s="84" t="s">
+      <c r="I5" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="J5" s="84" t="s">
+      <c r="J5" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84" t="s">
+      <c r="K5" s="71"/>
+      <c r="L5" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M5" s="86">
+      <c r="M5" s="73">
         <v>44195</v>
       </c>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="84"/>
-      <c r="T5" s="84"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="71"/>
+      <c r="T5" s="71"/>
       <c r="U5" s="15"/>
       <c r="V5" s="15"/>
       <c r="W5" s="15"/>
@@ -7545,48 +7814,48 @@
       <c r="AA5" s="15"/>
     </row>
     <row r="6" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="84">
+      <c r="A6" s="71">
         <v>4</v>
       </c>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="84" t="s">
+      <c r="D6" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="84" t="s">
+      <c r="E6" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84" t="s">
+      <c r="F6" s="71"/>
+      <c r="G6" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="84" t="s">
+      <c r="H6" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="84" t="s">
+      <c r="I6" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="J6" s="84" t="s">
+      <c r="J6" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84" t="s">
+      <c r="K6" s="71"/>
+      <c r="L6" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="86">
+      <c r="M6" s="73">
         <v>44195</v>
       </c>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="84"/>
-      <c r="S6" s="84"/>
-      <c r="T6" s="84"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="71"/>
       <c r="U6" s="15"/>
       <c r="V6" s="15"/>
       <c r="W6" s="15"/>
@@ -7596,48 +7865,48 @@
       <c r="AA6" s="15"/>
     </row>
     <row r="7" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="84">
+      <c r="A7" s="71">
         <v>5</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="84" t="s">
+      <c r="E7" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84" t="s">
+      <c r="F7" s="71"/>
+      <c r="G7" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="H7" s="84" t="s">
+      <c r="H7" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="I7" s="84" t="s">
+      <c r="I7" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="J7" s="84" t="s">
+      <c r="J7" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84" t="s">
+      <c r="K7" s="71"/>
+      <c r="L7" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M7" s="86">
+      <c r="M7" s="73">
         <v>44195</v>
       </c>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="84"/>
-      <c r="S7" s="84"/>
-      <c r="T7" s="84"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="71"/>
+      <c r="T7" s="71"/>
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
       <c r="W7" s="15"/>
@@ -7647,48 +7916,48 @@
       <c r="AA7" s="15"/>
     </row>
     <row r="8" spans="1:27" ht="57.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="84">
+      <c r="A8" s="71">
         <v>6</v>
       </c>
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="84" t="s">
+      <c r="E8" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84" t="s">
+      <c r="F8" s="71"/>
+      <c r="G8" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="84" t="s">
+      <c r="H8" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="I8" s="84" t="s">
+      <c r="I8" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="J8" s="84" t="s">
+      <c r="J8" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84" t="s">
+      <c r="K8" s="71"/>
+      <c r="L8" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M8" s="86">
+      <c r="M8" s="73">
         <v>44195</v>
       </c>
-      <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="84"/>
-      <c r="R8" s="84"/>
-      <c r="S8" s="84"/>
-      <c r="T8" s="84"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="71"/>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
       <c r="W8" s="15"/>
@@ -7698,48 +7967,48 @@
       <c r="AA8" s="15"/>
     </row>
     <row r="9" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="84">
+      <c r="A9" s="71">
         <v>7</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="84" t="s">
+      <c r="D9" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="84" t="s">
+      <c r="E9" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84" t="s">
+      <c r="F9" s="71"/>
+      <c r="G9" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="H9" s="84" t="s">
+      <c r="H9" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="I9" s="84" t="s">
+      <c r="I9" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="J9" s="84" t="s">
+      <c r="J9" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84" t="s">
+      <c r="K9" s="71"/>
+      <c r="L9" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M9" s="86">
+      <c r="M9" s="73">
         <v>44196</v>
       </c>
-      <c r="N9" s="84"/>
-      <c r="O9" s="84"/>
-      <c r="P9" s="84"/>
-      <c r="Q9" s="84"/>
-      <c r="R9" s="84"/>
-      <c r="S9" s="84"/>
-      <c r="T9" s="84"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="71"/>
       <c r="U9" s="15"/>
       <c r="V9" s="15"/>
       <c r="W9" s="15"/>
@@ -7749,50 +8018,50 @@
       <c r="AA9" s="15"/>
     </row>
     <row r="10" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="84">
+      <c r="A10" s="71">
         <v>8</v>
       </c>
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="84" t="s">
+      <c r="D10" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="84" t="s">
+      <c r="E10" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="84" t="s">
+      <c r="F10" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="84" t="s">
+      <c r="G10" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="H10" s="84" t="s">
+      <c r="H10" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="I10" s="84" t="s">
+      <c r="I10" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="J10" s="84" t="s">
+      <c r="J10" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84" t="s">
+      <c r="K10" s="71"/>
+      <c r="L10" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M10" s="86">
+      <c r="M10" s="73">
         <v>44196</v>
       </c>
-      <c r="N10" s="84"/>
-      <c r="O10" s="84"/>
-      <c r="P10" s="84"/>
-      <c r="Q10" s="84"/>
-      <c r="R10" s="84"/>
-      <c r="S10" s="84"/>
-      <c r="T10" s="84"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="71"/>
+      <c r="T10" s="71"/>
       <c r="U10" s="15"/>
       <c r="V10" s="15"/>
       <c r="W10" s="15"/>
@@ -7802,50 +8071,50 @@
       <c r="AA10" s="15"/>
     </row>
     <row r="11" spans="1:27" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="84">
+      <c r="A11" s="71">
         <v>9</v>
       </c>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="84" t="s">
+      <c r="C11" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="84" t="s">
+      <c r="D11" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="84" t="s">
+      <c r="E11" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="84" t="s">
+      <c r="F11" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="G11" s="84" t="s">
+      <c r="G11" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="H11" s="84" t="s">
+      <c r="H11" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="I11" s="84" t="s">
+      <c r="I11" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="J11" s="84" t="s">
+      <c r="J11" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84" t="s">
+      <c r="K11" s="71"/>
+      <c r="L11" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M11" s="86">
+      <c r="M11" s="73">
         <v>44196</v>
       </c>
-      <c r="N11" s="84"/>
-      <c r="O11" s="84"/>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="84"/>
-      <c r="R11" s="84"/>
-      <c r="S11" s="84"/>
-      <c r="T11" s="84"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="71"/>
+      <c r="R11" s="71"/>
+      <c r="S11" s="71"/>
+      <c r="T11" s="71"/>
       <c r="U11" s="15"/>
       <c r="V11" s="15"/>
       <c r="W11" s="15"/>
@@ -7855,50 +8124,50 @@
       <c r="AA11" s="15"/>
     </row>
     <row r="12" spans="1:27" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="84">
+      <c r="A12" s="71">
         <v>10</v>
       </c>
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="84" t="s">
+      <c r="C12" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="84" t="s">
+      <c r="D12" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="84" t="s">
+      <c r="E12" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="84" t="s">
+      <c r="F12" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="84" t="s">
+      <c r="G12" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="H12" s="84" t="s">
+      <c r="H12" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="I12" s="84" t="s">
+      <c r="I12" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="J12" s="84" t="s">
+      <c r="J12" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K12" s="84"/>
-      <c r="L12" s="84" t="s">
+      <c r="K12" s="71"/>
+      <c r="L12" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M12" s="86">
+      <c r="M12" s="73">
         <v>44196</v>
       </c>
-      <c r="N12" s="84"/>
-      <c r="O12" s="84"/>
-      <c r="P12" s="84"/>
-      <c r="Q12" s="84"/>
-      <c r="R12" s="84"/>
-      <c r="S12" s="84"/>
-      <c r="T12" s="84"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="71"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="71"/>
+      <c r="S12" s="71"/>
+      <c r="T12" s="71"/>
       <c r="U12" s="15"/>
       <c r="V12" s="15"/>
       <c r="W12" s="15"/>
@@ -7908,50 +8177,50 @@
       <c r="AA12" s="15"/>
     </row>
     <row r="13" spans="1:27" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="84">
+      <c r="A13" s="71">
         <v>11</v>
       </c>
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="84" t="s">
+      <c r="C13" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="84" t="s">
+      <c r="D13" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="84" t="s">
+      <c r="E13" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="F13" s="84" t="s">
+      <c r="F13" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="84" t="s">
+      <c r="G13" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="H13" s="84" t="s">
+      <c r="H13" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="I13" s="84" t="s">
+      <c r="I13" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="J13" s="84" t="s">
+      <c r="J13" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84" t="s">
+      <c r="K13" s="71"/>
+      <c r="L13" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M13" s="86">
+      <c r="M13" s="73">
         <v>44196</v>
       </c>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="84"/>
-      <c r="R13" s="84"/>
-      <c r="S13" s="84"/>
-      <c r="T13" s="84"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="71"/>
+      <c r="T13" s="71"/>
       <c r="U13" s="15"/>
       <c r="V13" s="15"/>
       <c r="W13" s="15"/>
@@ -7961,50 +8230,50 @@
       <c r="AA13" s="15"/>
     </row>
     <row r="14" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="84">
+      <c r="A14" s="71">
         <v>12</v>
       </c>
-      <c r="B14" s="84" t="s">
+      <c r="B14" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="C14" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="84" t="s">
+      <c r="D14" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="E14" s="84" t="s">
+      <c r="E14" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="84" t="s">
+      <c r="F14" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="84" t="s">
+      <c r="G14" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="H14" s="84" t="s">
+      <c r="H14" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="I14" s="84" t="s">
+      <c r="I14" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="J14" s="84" t="s">
+      <c r="J14" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84" t="s">
+      <c r="K14" s="71"/>
+      <c r="L14" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M14" s="86">
+      <c r="M14" s="73">
         <v>44196</v>
       </c>
-      <c r="N14" s="84"/>
-      <c r="O14" s="84"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="84"/>
-      <c r="T14" s="84"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="71"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="71"/>
+      <c r="S14" s="71"/>
+      <c r="T14" s="71"/>
       <c r="U14" s="15"/>
       <c r="V14" s="15"/>
       <c r="W14" s="15"/>
@@ -8014,50 +8283,50 @@
       <c r="AA14" s="15"/>
     </row>
     <row r="15" spans="1:27" ht="72" x14ac:dyDescent="0.25">
-      <c r="A15" s="84">
+      <c r="A15" s="71">
         <v>13</v>
       </c>
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="84" t="s">
+      <c r="C15" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="84" t="s">
+      <c r="D15" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="84" t="s">
+      <c r="E15" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="F15" s="84" t="s">
+      <c r="F15" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="G15" s="84" t="s">
+      <c r="G15" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="H15" s="84" t="s">
+      <c r="H15" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="I15" s="84" t="s">
+      <c r="I15" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="J15" s="84" t="s">
+      <c r="J15" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84" t="s">
+      <c r="K15" s="71"/>
+      <c r="L15" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M15" s="86">
+      <c r="M15" s="73">
         <v>44196</v>
       </c>
-      <c r="N15" s="84"/>
-      <c r="O15" s="84"/>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="84"/>
-      <c r="R15" s="84"/>
-      <c r="S15" s="84"/>
-      <c r="T15" s="84"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="71"/>
+      <c r="S15" s="71"/>
+      <c r="T15" s="71"/>
       <c r="U15" s="16"/>
       <c r="V15" s="16"/>
       <c r="W15" s="16"/>
@@ -8067,50 +8336,50 @@
       <c r="AA15" s="16"/>
     </row>
     <row r="16" spans="1:27" ht="57.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="84">
+      <c r="A16" s="71">
         <v>14</v>
       </c>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="84" t="s">
+      <c r="C16" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="84" t="s">
+      <c r="D16" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="84" t="s">
+      <c r="E16" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="F16" s="84" t="s">
+      <c r="F16" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="G16" s="84" t="s">
+      <c r="G16" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="H16" s="84" t="s">
+      <c r="H16" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="I16" s="84" t="s">
+      <c r="I16" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="J16" s="84" t="s">
+      <c r="J16" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84" t="s">
+      <c r="K16" s="71"/>
+      <c r="L16" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M16" s="86">
+      <c r="M16" s="73">
         <v>44200</v>
       </c>
-      <c r="N16" s="84"/>
-      <c r="O16" s="84"/>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="84"/>
-      <c r="R16" s="84"/>
-      <c r="S16" s="84"/>
-      <c r="T16" s="84"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="71"/>
+      <c r="S16" s="71"/>
+      <c r="T16" s="71"/>
       <c r="U16" s="19"/>
       <c r="V16" s="19"/>
       <c r="W16" s="19"/>
@@ -8120,50 +8389,50 @@
       <c r="AA16" s="19"/>
     </row>
     <row r="17" spans="1:27" ht="100.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="84">
+      <c r="A17" s="71">
         <v>15</v>
       </c>
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="84" t="s">
+      <c r="C17" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="84" t="s">
+      <c r="D17" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="84" t="s">
+      <c r="E17" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="F17" s="84" t="s">
+      <c r="F17" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="G17" s="84" t="s">
+      <c r="G17" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="H17" s="84" t="s">
+      <c r="H17" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="I17" s="84" t="s">
+      <c r="I17" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="J17" s="84" t="s">
+      <c r="J17" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84" t="s">
+      <c r="K17" s="71"/>
+      <c r="L17" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M17" s="86">
+      <c r="M17" s="73">
         <v>44200</v>
       </c>
-      <c r="N17" s="84"/>
-      <c r="O17" s="84"/>
-      <c r="P17" s="84"/>
-      <c r="Q17" s="84"/>
-      <c r="R17" s="84"/>
-      <c r="S17" s="84"/>
-      <c r="T17" s="84"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="71"/>
+      <c r="T17" s="71"/>
       <c r="U17" s="17"/>
       <c r="V17" s="17"/>
       <c r="W17" s="17"/>
@@ -8173,50 +8442,50 @@
       <c r="AA17" s="17"/>
     </row>
     <row r="18" spans="1:27" ht="100.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="84">
+      <c r="A18" s="71">
         <v>16</v>
       </c>
-      <c r="B18" s="84" t="s">
+      <c r="B18" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="C18" s="84" t="s">
+      <c r="C18" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="84" t="s">
+      <c r="D18" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="84" t="s">
+      <c r="E18" s="71" t="s">
         <v>130</v>
       </c>
-      <c r="F18" s="84" t="s">
+      <c r="F18" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="G18" s="84" t="s">
+      <c r="G18" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="H18" s="84" t="s">
+      <c r="H18" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="I18" s="84" t="s">
+      <c r="I18" s="71" t="s">
         <v>134</v>
       </c>
-      <c r="J18" s="84" t="s">
+      <c r="J18" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84" t="s">
+      <c r="K18" s="71"/>
+      <c r="L18" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M18" s="86">
+      <c r="M18" s="73">
         <v>44200</v>
       </c>
-      <c r="N18" s="84"/>
-      <c r="O18" s="84"/>
-      <c r="P18" s="84"/>
-      <c r="Q18" s="84"/>
-      <c r="R18" s="84"/>
-      <c r="S18" s="84"/>
-      <c r="T18" s="84"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="71"/>
+      <c r="T18" s="71"/>
       <c r="U18" s="17"/>
       <c r="V18" s="17"/>
       <c r="W18" s="17"/>
@@ -8226,50 +8495,50 @@
       <c r="AA18" s="17"/>
     </row>
     <row r="19" spans="1:27" ht="100.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="84">
+      <c r="A19" s="71">
         <v>17</v>
       </c>
-      <c r="B19" s="84" t="s">
+      <c r="B19" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="84" t="s">
+      <c r="C19" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="84" t="s">
+      <c r="D19" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="E19" s="84" t="s">
+      <c r="E19" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="F19" s="84" t="s">
+      <c r="F19" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="G19" s="84" t="s">
+      <c r="G19" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="H19" s="84" t="s">
+      <c r="H19" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="I19" s="84" t="s">
+      <c r="I19" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="J19" s="84" t="s">
+      <c r="J19" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K19" s="84"/>
-      <c r="L19" s="84" t="s">
+      <c r="K19" s="71"/>
+      <c r="L19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M19" s="86">
+      <c r="M19" s="73">
         <v>44200</v>
       </c>
-      <c r="N19" s="84"/>
-      <c r="O19" s="84"/>
-      <c r="P19" s="84"/>
-      <c r="Q19" s="84"/>
-      <c r="R19" s="84"/>
-      <c r="S19" s="84"/>
-      <c r="T19" s="84"/>
+      <c r="N19" s="71"/>
+      <c r="O19" s="71"/>
+      <c r="P19" s="71"/>
+      <c r="Q19" s="71"/>
+      <c r="R19" s="71"/>
+      <c r="S19" s="71"/>
+      <c r="T19" s="71"/>
       <c r="U19" s="17"/>
       <c r="V19" s="17"/>
       <c r="W19" s="17"/>
@@ -8279,50 +8548,50 @@
       <c r="AA19" s="17"/>
     </row>
     <row r="20" spans="1:27" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="84">
+      <c r="A20" s="71">
         <v>18</v>
       </c>
-      <c r="B20" s="84" t="s">
+      <c r="B20" s="71" t="s">
         <v>140</v>
       </c>
-      <c r="C20" s="84" t="s">
+      <c r="C20" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="84" t="s">
+      <c r="D20" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="84" t="s">
+      <c r="E20" s="71" t="s">
         <v>141</v>
       </c>
-      <c r="F20" s="84" t="s">
+      <c r="F20" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="G20" s="84" t="s">
+      <c r="G20" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="H20" s="84" t="s">
+      <c r="H20" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="I20" s="84" t="s">
+      <c r="I20" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="J20" s="84" t="s">
+      <c r="J20" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84" t="s">
+      <c r="K20" s="71"/>
+      <c r="L20" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M20" s="86">
+      <c r="M20" s="73">
         <v>44200</v>
       </c>
-      <c r="N20" s="84"/>
-      <c r="O20" s="84"/>
-      <c r="P20" s="84"/>
-      <c r="Q20" s="84"/>
-      <c r="R20" s="84"/>
-      <c r="S20" s="84"/>
-      <c r="T20" s="84"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="71"/>
+      <c r="T20" s="71"/>
       <c r="U20" s="15"/>
       <c r="V20" s="15"/>
       <c r="W20" s="15"/>
@@ -8332,50 +8601,50 @@
       <c r="AA20" s="15"/>
     </row>
     <row r="21" spans="1:27" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="84">
+      <c r="A21" s="71">
         <v>19</v>
       </c>
-      <c r="B21" s="84" t="s">
+      <c r="B21" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="C21" s="84" t="s">
+      <c r="C21" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="84" t="s">
+      <c r="D21" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="84" t="s">
+      <c r="E21" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="F21" s="84" t="s">
+      <c r="F21" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="G21" s="84" t="s">
+      <c r="G21" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="H21" s="84" t="s">
+      <c r="H21" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="I21" s="84" t="s">
+      <c r="I21" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="J21" s="84" t="s">
+      <c r="J21" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="K21" s="84"/>
-      <c r="L21" s="84" t="s">
+      <c r="K21" s="71"/>
+      <c r="L21" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M21" s="86">
+      <c r="M21" s="73">
         <v>44200</v>
       </c>
-      <c r="N21" s="84"/>
-      <c r="O21" s="84"/>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="84"/>
-      <c r="R21" s="84"/>
-      <c r="S21" s="84"/>
-      <c r="T21" s="84"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="71"/>
+      <c r="T21" s="71"/>
       <c r="U21" s="15"/>
       <c r="V21" s="15"/>
       <c r="W21" s="15"/>
@@ -8385,50 +8654,50 @@
       <c r="AA21" s="15"/>
     </row>
     <row r="22" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="84">
+      <c r="A22" s="71">
         <v>20</v>
       </c>
-      <c r="B22" s="84" t="s">
+      <c r="B22" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="C22" s="84" t="s">
+      <c r="C22" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="84" t="s">
+      <c r="D22" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="84" t="s">
+      <c r="E22" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="84" t="s">
+      <c r="F22" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="G22" s="84" t="s">
+      <c r="G22" s="71" t="s">
         <v>151</v>
       </c>
-      <c r="H22" s="84" t="s">
+      <c r="H22" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="I22" s="84" t="s">
+      <c r="I22" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="J22" s="84" t="s">
+      <c r="J22" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K22" s="84"/>
-      <c r="L22" s="84" t="s">
+      <c r="K22" s="71"/>
+      <c r="L22" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M22" s="86">
+      <c r="M22" s="73">
         <v>44200</v>
       </c>
-      <c r="N22" s="84"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="84"/>
-      <c r="S22" s="84"/>
-      <c r="T22" s="84"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="71"/>
+      <c r="S22" s="71"/>
+      <c r="T22" s="71"/>
       <c r="U22" s="15"/>
       <c r="V22" s="15"/>
       <c r="W22" s="15"/>
@@ -8438,50 +8707,50 @@
       <c r="AA22" s="15"/>
     </row>
     <row r="23" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="84">
+      <c r="A23" s="71">
         <v>21</v>
       </c>
-      <c r="B23" s="84" t="s">
+      <c r="B23" s="71" t="s">
         <v>154</v>
       </c>
-      <c r="C23" s="84" t="s">
+      <c r="C23" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="84" t="s">
+      <c r="D23" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="84" t="s">
+      <c r="E23" s="71" t="s">
         <v>155</v>
       </c>
-      <c r="F23" s="84" t="s">
+      <c r="F23" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="G23" s="84" t="s">
+      <c r="G23" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="H23" s="84" t="s">
+      <c r="H23" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="I23" s="84" t="s">
+      <c r="I23" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="J23" s="84" t="s">
+      <c r="J23" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K23" s="84"/>
-      <c r="L23" s="84" t="s">
+      <c r="K23" s="71"/>
+      <c r="L23" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M23" s="86">
+      <c r="M23" s="73">
         <v>44200</v>
       </c>
-      <c r="N23" s="84"/>
-      <c r="O23" s="84"/>
-      <c r="P23" s="84"/>
-      <c r="Q23" s="84"/>
-      <c r="R23" s="84"/>
-      <c r="S23" s="84"/>
-      <c r="T23" s="84"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="71"/>
+      <c r="S23" s="71"/>
+      <c r="T23" s="71"/>
       <c r="U23" s="15"/>
       <c r="V23" s="15"/>
       <c r="W23" s="15"/>
@@ -8491,50 +8760,50 @@
       <c r="AA23" s="15"/>
     </row>
     <row r="24" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="84">
+      <c r="A24" s="71">
         <v>22</v>
       </c>
-      <c r="B24" s="84" t="s">
+      <c r="B24" s="71" t="s">
         <v>158</v>
       </c>
-      <c r="C24" s="84" t="s">
+      <c r="C24" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="84" t="s">
+      <c r="D24" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="84" t="s">
+      <c r="E24" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="F24" s="84" t="s">
+      <c r="F24" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="G24" s="84" t="s">
+      <c r="G24" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="H24" s="84" t="s">
+      <c r="H24" s="71" t="s">
         <v>161</v>
       </c>
-      <c r="I24" s="84" t="s">
+      <c r="I24" s="71" t="s">
         <v>161</v>
       </c>
-      <c r="J24" s="84" t="s">
+      <c r="J24" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="K24" s="84"/>
-      <c r="L24" s="84" t="s">
+      <c r="K24" s="71"/>
+      <c r="L24" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M24" s="86">
+      <c r="M24" s="73">
         <v>44200</v>
       </c>
-      <c r="N24" s="84"/>
-      <c r="O24" s="84"/>
-      <c r="P24" s="84"/>
-      <c r="Q24" s="84"/>
-      <c r="R24" s="84"/>
-      <c r="S24" s="84"/>
-      <c r="T24" s="84"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="71"/>
+      <c r="S24" s="71"/>
+      <c r="T24" s="71"/>
       <c r="U24" s="15"/>
       <c r="V24" s="15"/>
       <c r="W24" s="15"/>
@@ -8544,50 +8813,50 @@
       <c r="AA24" s="15"/>
     </row>
     <row r="25" spans="1:27" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="84">
+      <c r="A25" s="71">
         <v>23</v>
       </c>
-      <c r="B25" s="84" t="s">
+      <c r="B25" s="71" t="s">
         <v>162</v>
       </c>
-      <c r="C25" s="84" t="s">
+      <c r="C25" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="84" t="s">
+      <c r="D25" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="84" t="s">
+      <c r="E25" s="71" t="s">
         <v>163</v>
       </c>
-      <c r="F25" s="84" t="s">
+      <c r="F25" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="G25" s="84" t="s">
+      <c r="G25" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="H25" s="84" t="s">
+      <c r="H25" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="I25" s="84" t="s">
+      <c r="I25" s="71" t="s">
         <v>165</v>
       </c>
-      <c r="J25" s="84" t="s">
+      <c r="J25" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K25" s="84"/>
-      <c r="L25" s="84" t="s">
+      <c r="K25" s="71"/>
+      <c r="L25" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M25" s="86">
+      <c r="M25" s="73">
         <v>44200</v>
       </c>
-      <c r="N25" s="84"/>
-      <c r="O25" s="84"/>
-      <c r="P25" s="84"/>
-      <c r="Q25" s="84"/>
-      <c r="R25" s="84"/>
-      <c r="S25" s="84"/>
-      <c r="T25" s="84"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="71"/>
+      <c r="S25" s="71"/>
+      <c r="T25" s="71"/>
       <c r="U25" s="15"/>
       <c r="V25" s="15"/>
       <c r="W25" s="15"/>
@@ -8597,50 +8866,50 @@
       <c r="AA25" s="15"/>
     </row>
     <row r="26" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="84">
+      <c r="A26" s="71">
         <v>24</v>
       </c>
-      <c r="B26" s="84" t="s">
+      <c r="B26" s="71" t="s">
         <v>166</v>
       </c>
-      <c r="C26" s="84" t="s">
+      <c r="C26" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="84" t="s">
+      <c r="D26" s="71" t="s">
         <v>167</v>
       </c>
-      <c r="E26" s="84" t="s">
+      <c r="E26" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="F26" s="84" t="s">
+      <c r="F26" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="G26" s="84" t="s">
+      <c r="G26" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="H26" s="84" t="s">
+      <c r="H26" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="I26" s="84" t="s">
+      <c r="I26" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="J26" s="84" t="s">
+      <c r="J26" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="K26" s="84"/>
-      <c r="L26" s="84" t="s">
+      <c r="K26" s="71"/>
+      <c r="L26" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M26" s="86">
+      <c r="M26" s="73">
         <v>44200</v>
       </c>
-      <c r="N26" s="84"/>
-      <c r="O26" s="84"/>
-      <c r="P26" s="84"/>
-      <c r="Q26" s="84"/>
-      <c r="R26" s="84"/>
-      <c r="S26" s="84"/>
-      <c r="T26" s="84"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="71"/>
+      <c r="P26" s="71"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="71"/>
+      <c r="S26" s="71"/>
+      <c r="T26" s="71"/>
       <c r="U26" s="15"/>
       <c r="V26" s="15"/>
       <c r="W26" s="15"/>
@@ -8650,50 +8919,50 @@
       <c r="AA26" s="15"/>
     </row>
     <row r="27" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="84">
+      <c r="A27" s="71">
         <v>25</v>
       </c>
-      <c r="B27" s="84" t="s">
+      <c r="B27" s="71" t="s">
         <v>171</v>
       </c>
-      <c r="C27" s="84" t="s">
+      <c r="C27" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="84" t="s">
+      <c r="D27" s="71" t="s">
         <v>167</v>
       </c>
-      <c r="E27" s="84" t="s">
+      <c r="E27" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="F27" s="84" t="s">
+      <c r="F27" s="71" t="s">
         <v>173</v>
       </c>
-      <c r="G27" s="84" t="s">
+      <c r="G27" s="71" t="s">
         <v>174</v>
       </c>
-      <c r="H27" s="84" t="s">
+      <c r="H27" s="71" t="s">
         <v>175</v>
       </c>
-      <c r="I27" s="84" t="s">
+      <c r="I27" s="71" t="s">
         <v>175</v>
       </c>
-      <c r="J27" s="84" t="s">
+      <c r="J27" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="K27" s="84"/>
-      <c r="L27" s="84" t="s">
+      <c r="K27" s="71"/>
+      <c r="L27" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M27" s="86">
+      <c r="M27" s="73">
         <v>44200</v>
       </c>
-      <c r="N27" s="84"/>
-      <c r="O27" s="84"/>
-      <c r="P27" s="84"/>
-      <c r="Q27" s="84"/>
-      <c r="R27" s="84"/>
-      <c r="S27" s="84"/>
-      <c r="T27" s="84"/>
+      <c r="N27" s="71"/>
+      <c r="O27" s="71"/>
+      <c r="P27" s="71"/>
+      <c r="Q27" s="71"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="71"/>
+      <c r="T27" s="71"/>
       <c r="U27" s="15"/>
       <c r="V27" s="15"/>
       <c r="W27" s="15"/>
@@ -8703,50 +8972,50 @@
       <c r="AA27" s="15"/>
     </row>
     <row r="28" spans="1:27" ht="100.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="84">
+      <c r="A28" s="71">
         <v>26</v>
       </c>
-      <c r="B28" s="84" t="s">
+      <c r="B28" s="71" t="s">
         <v>176</v>
       </c>
-      <c r="C28" s="84" t="s">
+      <c r="C28" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="84" t="s">
+      <c r="D28" s="71" t="s">
         <v>167</v>
       </c>
-      <c r="E28" s="84" t="s">
+      <c r="E28" s="71" t="s">
         <v>177</v>
       </c>
-      <c r="F28" s="84" t="s">
+      <c r="F28" s="71" t="s">
         <v>173</v>
       </c>
-      <c r="G28" s="84" t="s">
+      <c r="G28" s="71" t="s">
         <v>178</v>
       </c>
-      <c r="H28" s="84" t="s">
+      <c r="H28" s="71" t="s">
         <v>179</v>
       </c>
-      <c r="I28" s="84" t="s">
+      <c r="I28" s="71" t="s">
         <v>179</v>
       </c>
-      <c r="J28" s="84" t="s">
+      <c r="J28" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="K28" s="84"/>
-      <c r="L28" s="84" t="s">
+      <c r="K28" s="71"/>
+      <c r="L28" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M28" s="86">
+      <c r="M28" s="73">
         <v>44202</v>
       </c>
-      <c r="N28" s="84"/>
-      <c r="O28" s="84"/>
-      <c r="P28" s="84"/>
-      <c r="Q28" s="84"/>
-      <c r="R28" s="84"/>
-      <c r="S28" s="84"/>
-      <c r="T28" s="84"/>
+      <c r="N28" s="71"/>
+      <c r="O28" s="71"/>
+      <c r="P28" s="71"/>
+      <c r="Q28" s="71"/>
+      <c r="R28" s="71"/>
+      <c r="S28" s="71"/>
+      <c r="T28" s="71"/>
       <c r="U28" s="15"/>
       <c r="V28" s="15"/>
       <c r="W28" s="15"/>
@@ -8756,50 +9025,50 @@
       <c r="AA28" s="15"/>
     </row>
     <row r="29" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="84">
+      <c r="A29" s="71">
         <v>27</v>
       </c>
-      <c r="B29" s="84" t="s">
+      <c r="B29" s="71" t="s">
         <v>180</v>
       </c>
-      <c r="C29" s="84" t="s">
+      <c r="C29" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="84" t="s">
+      <c r="D29" s="71" t="s">
         <v>167</v>
       </c>
-      <c r="E29" s="84" t="s">
+      <c r="E29" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="F29" s="84" t="s">
+      <c r="F29" s="71" t="s">
         <v>173</v>
       </c>
-      <c r="G29" s="84" t="s">
+      <c r="G29" s="71" t="s">
         <v>182</v>
       </c>
-      <c r="H29" s="84" t="s">
+      <c r="H29" s="71" t="s">
         <v>183</v>
       </c>
-      <c r="I29" s="84" t="s">
+      <c r="I29" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="J29" s="84" t="s">
+      <c r="J29" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K29" s="84"/>
-      <c r="L29" s="84" t="s">
+      <c r="K29" s="71"/>
+      <c r="L29" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M29" s="86">
+      <c r="M29" s="73">
         <v>44202</v>
       </c>
-      <c r="N29" s="84"/>
-      <c r="O29" s="84"/>
-      <c r="P29" s="84"/>
-      <c r="Q29" s="84"/>
-      <c r="R29" s="84"/>
-      <c r="S29" s="84"/>
-      <c r="T29" s="84"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="71"/>
+      <c r="Q29" s="71"/>
+      <c r="R29" s="71"/>
+      <c r="S29" s="71"/>
+      <c r="T29" s="71"/>
       <c r="U29" s="15"/>
       <c r="V29" s="15"/>
       <c r="W29" s="15"/>
@@ -8809,50 +9078,50 @@
       <c r="AA29" s="15"/>
     </row>
     <row r="30" spans="1:27" ht="100.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="84">
+      <c r="A30" s="71">
         <v>28</v>
       </c>
-      <c r="B30" s="84" t="s">
+      <c r="B30" s="71" t="s">
         <v>185</v>
       </c>
-      <c r="C30" s="84" t="s">
+      <c r="C30" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="84" t="s">
+      <c r="D30" s="71" t="s">
         <v>167</v>
       </c>
-      <c r="E30" s="84" t="s">
+      <c r="E30" s="71" t="s">
         <v>186</v>
       </c>
-      <c r="F30" s="84" t="s">
+      <c r="F30" s="71" t="s">
         <v>173</v>
       </c>
-      <c r="G30" s="84" t="s">
+      <c r="G30" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="H30" s="84" t="s">
+      <c r="H30" s="71" t="s">
         <v>188</v>
       </c>
-      <c r="I30" s="84" t="s">
+      <c r="I30" s="71" t="s">
         <v>189</v>
       </c>
-      <c r="J30" s="84" t="s">
+      <c r="J30" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K30" s="84"/>
-      <c r="L30" s="84" t="s">
+      <c r="K30" s="71"/>
+      <c r="L30" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M30" s="86">
+      <c r="M30" s="73">
         <v>44202</v>
       </c>
-      <c r="N30" s="84"/>
-      <c r="O30" s="84"/>
-      <c r="P30" s="84"/>
-      <c r="Q30" s="84"/>
-      <c r="R30" s="84"/>
-      <c r="S30" s="84"/>
-      <c r="T30" s="84"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="71"/>
+      <c r="P30" s="71"/>
+      <c r="Q30" s="71"/>
+      <c r="R30" s="71"/>
+      <c r="S30" s="71"/>
+      <c r="T30" s="71"/>
       <c r="U30" s="15"/>
       <c r="V30" s="15"/>
       <c r="W30" s="15"/>
@@ -8861,51 +9130,51 @@
       <c r="Z30" s="15"/>
       <c r="AA30" s="15"/>
     </row>
-    <row r="31" spans="1:27" ht="100.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="84">
+    <row r="31" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="71">
         <v>29</v>
       </c>
-      <c r="B31" s="84" t="s">
+      <c r="B31" s="71" t="s">
         <v>190</v>
       </c>
-      <c r="C31" s="84" t="s">
+      <c r="C31" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="84" t="s">
+      <c r="D31" s="71" t="s">
         <v>167</v>
       </c>
-      <c r="E31" s="84" t="s">
+      <c r="E31" s="71" t="s">
         <v>191</v>
       </c>
-      <c r="F31" s="84" t="s">
+      <c r="F31" s="71" t="s">
         <v>192</v>
       </c>
-      <c r="G31" s="84" t="s">
+      <c r="G31" s="71" t="s">
         <v>193</v>
       </c>
-      <c r="H31" s="84" t="s">
+      <c r="H31" s="71" t="s">
         <v>194</v>
       </c>
-      <c r="I31" s="84" t="s">
+      <c r="I31" s="71" t="s">
         <v>194</v>
       </c>
-      <c r="J31" s="84" t="s">
+      <c r="J31" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="K31" s="84"/>
-      <c r="L31" s="84" t="s">
+      <c r="K31" s="71"/>
+      <c r="L31" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M31" s="86">
+      <c r="M31" s="73">
         <v>44202</v>
       </c>
-      <c r="N31" s="84"/>
-      <c r="O31" s="84"/>
-      <c r="P31" s="84"/>
-      <c r="Q31" s="84"/>
-      <c r="R31" s="84"/>
-      <c r="S31" s="84"/>
-      <c r="T31" s="84"/>
+      <c r="N31" s="71"/>
+      <c r="O31" s="71"/>
+      <c r="P31" s="71"/>
+      <c r="Q31" s="71"/>
+      <c r="R31" s="71"/>
+      <c r="S31" s="71"/>
+      <c r="T31" s="71"/>
       <c r="U31" s="15"/>
       <c r="V31" s="15"/>
       <c r="W31" s="15"/>
@@ -8915,50 +9184,50 @@
       <c r="AA31" s="15"/>
     </row>
     <row r="32" spans="1:27" ht="57.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="84">
+      <c r="A32" s="71">
         <v>30</v>
       </c>
-      <c r="B32" s="84" t="s">
+      <c r="B32" s="71" t="s">
         <v>195</v>
       </c>
-      <c r="C32" s="84" t="s">
+      <c r="C32" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="84" t="s">
+      <c r="D32" s="71" t="s">
         <v>167</v>
       </c>
-      <c r="E32" s="84" t="s">
+      <c r="E32" s="71" t="s">
         <v>196</v>
       </c>
-      <c r="F32" s="84" t="s">
+      <c r="F32" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="G32" s="84" t="s">
+      <c r="G32" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="H32" s="84" t="s">
+      <c r="H32" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="I32" s="84" t="s">
+      <c r="I32" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="J32" s="84" t="s">
+      <c r="J32" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="K32" s="84"/>
-      <c r="L32" s="84" t="s">
+      <c r="K32" s="71"/>
+      <c r="L32" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M32" s="86">
+      <c r="M32" s="73">
         <v>44202</v>
       </c>
-      <c r="N32" s="84"/>
-      <c r="O32" s="84"/>
-      <c r="P32" s="84"/>
-      <c r="Q32" s="84"/>
-      <c r="R32" s="84"/>
-      <c r="S32" s="84"/>
-      <c r="T32" s="84"/>
+      <c r="N32" s="71"/>
+      <c r="O32" s="71"/>
+      <c r="P32" s="71"/>
+      <c r="Q32" s="71"/>
+      <c r="R32" s="71"/>
+      <c r="S32" s="71"/>
+      <c r="T32" s="71"/>
       <c r="U32" s="15"/>
       <c r="V32" s="15"/>
       <c r="W32" s="15"/>
@@ -8968,50 +9237,50 @@
       <c r="AA32" s="15"/>
     </row>
     <row r="33" spans="1:27" ht="100.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="84">
+      <c r="A33" s="71">
         <v>30</v>
       </c>
-      <c r="B33" s="84" t="s">
+      <c r="B33" s="71" t="s">
         <v>199</v>
       </c>
-      <c r="C33" s="84" t="s">
+      <c r="C33" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="84" t="s">
+      <c r="D33" s="71" t="s">
         <v>200</v>
       </c>
-      <c r="E33" s="84" t="s">
+      <c r="E33" s="71" t="s">
         <v>201</v>
       </c>
-      <c r="F33" s="84" t="s">
+      <c r="F33" s="71" t="s">
         <v>192</v>
       </c>
-      <c r="G33" s="84" t="s">
+      <c r="G33" s="71" t="s">
         <v>202</v>
       </c>
-      <c r="H33" s="84" t="s">
+      <c r="H33" s="71" t="s">
         <v>203</v>
       </c>
-      <c r="I33" s="84" t="s">
+      <c r="I33" s="71" t="s">
         <v>203</v>
       </c>
-      <c r="J33" s="84" t="s">
+      <c r="J33" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="K33" s="84"/>
-      <c r="L33" s="84" t="s">
+      <c r="K33" s="71"/>
+      <c r="L33" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M33" s="86">
+      <c r="M33" s="73">
         <v>44202</v>
       </c>
-      <c r="N33" s="84"/>
-      <c r="O33" s="84"/>
-      <c r="P33" s="84"/>
-      <c r="Q33" s="84"/>
-      <c r="R33" s="84"/>
-      <c r="S33" s="84"/>
-      <c r="T33" s="84"/>
+      <c r="N33" s="71"/>
+      <c r="O33" s="71"/>
+      <c r="P33" s="71"/>
+      <c r="Q33" s="71"/>
+      <c r="R33" s="71"/>
+      <c r="S33" s="71"/>
+      <c r="T33" s="71"/>
       <c r="U33" s="15"/>
       <c r="V33" s="15"/>
       <c r="W33" s="15"/>
@@ -9020,51 +9289,51 @@
       <c r="Z33" s="15"/>
       <c r="AA33" s="15"/>
     </row>
-    <row r="34" spans="1:27" ht="100.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="84">
+    <row r="34" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="71">
         <v>31</v>
       </c>
-      <c r="B34" s="84" t="s">
+      <c r="B34" s="71" t="s">
         <v>204</v>
       </c>
-      <c r="C34" s="84" t="s">
+      <c r="C34" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="84" t="s">
+      <c r="D34" s="71" t="s">
         <v>200</v>
       </c>
-      <c r="E34" s="84" t="s">
+      <c r="E34" s="71" t="s">
         <v>205</v>
       </c>
-      <c r="F34" s="84" t="s">
+      <c r="F34" s="71" t="s">
         <v>192</v>
       </c>
-      <c r="G34" s="84" t="s">
+      <c r="G34" s="71" t="s">
         <v>206</v>
       </c>
-      <c r="H34" s="84" t="s">
+      <c r="H34" s="71" t="s">
         <v>207</v>
       </c>
-      <c r="I34" s="84" t="s">
+      <c r="I34" s="71" t="s">
         <v>207</v>
       </c>
-      <c r="J34" s="84" t="s">
+      <c r="J34" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="K34" s="84"/>
-      <c r="L34" s="84" t="s">
+      <c r="K34" s="71"/>
+      <c r="L34" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M34" s="86">
+      <c r="M34" s="73">
         <v>44202</v>
       </c>
-      <c r="N34" s="84"/>
-      <c r="O34" s="84"/>
-      <c r="P34" s="84"/>
-      <c r="Q34" s="84"/>
-      <c r="R34" s="84"/>
-      <c r="S34" s="84"/>
-      <c r="T34" s="84"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="71"/>
+      <c r="P34" s="71"/>
+      <c r="Q34" s="71"/>
+      <c r="R34" s="71"/>
+      <c r="S34" s="71"/>
+      <c r="T34" s="71"/>
       <c r="U34" s="15"/>
       <c r="V34" s="15"/>
       <c r="W34" s="15"/>
@@ -9073,102 +9342,102 @@
       <c r="Z34" s="15"/>
       <c r="AA34" s="15"/>
     </row>
-    <row r="35" spans="1:27" s="96" customFormat="1" ht="129" x14ac:dyDescent="0.25">
-      <c r="A35" s="84">
+    <row r="35" spans="1:27" s="78" customFormat="1" ht="129" x14ac:dyDescent="0.25">
+      <c r="A35" s="71">
         <v>32</v>
       </c>
-      <c r="B35" s="93" t="s">
-        <v>357</v>
-      </c>
-      <c r="C35" s="93" t="s">
+      <c r="B35" s="75" t="s">
+        <v>355</v>
+      </c>
+      <c r="C35" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="93" t="s">
+      <c r="D35" s="75" t="s">
+        <v>350</v>
+      </c>
+      <c r="E35" s="75" t="s">
+        <v>351</v>
+      </c>
+      <c r="F35" s="75" t="s">
         <v>352</v>
       </c>
-      <c r="E35" s="93" t="s">
+      <c r="G35" s="75" t="s">
         <v>353</v>
       </c>
-      <c r="F35" s="93" t="s">
+      <c r="H35" s="75" t="s">
         <v>354</v>
       </c>
-      <c r="G35" s="93" t="s">
-        <v>355</v>
-      </c>
-      <c r="H35" s="93" t="s">
-        <v>356</v>
-      </c>
-      <c r="I35" s="93" t="s">
-        <v>356</v>
-      </c>
-      <c r="J35" s="92" t="s">
+      <c r="I35" s="75" t="s">
+        <v>354</v>
+      </c>
+      <c r="J35" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="K35" s="92"/>
-      <c r="L35" s="92" t="s">
+      <c r="K35" s="74"/>
+      <c r="L35" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="M35" s="94">
+      <c r="M35" s="76">
         <v>44203</v>
       </c>
-      <c r="N35" s="92"/>
-      <c r="O35" s="92"/>
-      <c r="P35" s="92"/>
-      <c r="Q35" s="92"/>
-      <c r="R35" s="92"/>
-      <c r="S35" s="92"/>
-      <c r="T35" s="92"/>
-      <c r="U35" s="95"/>
-      <c r="V35" s="95"/>
-      <c r="W35" s="95"/>
-      <c r="X35" s="95"/>
-      <c r="Y35" s="95"/>
-      <c r="Z35" s="95"/>
-      <c r="AA35" s="95"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="74"/>
+      <c r="P35" s="74"/>
+      <c r="Q35" s="74"/>
+      <c r="R35" s="74"/>
+      <c r="S35" s="74"/>
+      <c r="T35" s="74"/>
+      <c r="U35" s="77"/>
+      <c r="V35" s="77"/>
+      <c r="W35" s="77"/>
+      <c r="X35" s="77"/>
+      <c r="Y35" s="77"/>
+      <c r="Z35" s="77"/>
+      <c r="AA35" s="77"/>
     </row>
     <row r="36" spans="1:27" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="84">
+      <c r="A36" s="71">
         <v>33</v>
       </c>
-      <c r="B36" s="84" t="s">
+      <c r="B36" s="71" t="s">
         <v>208</v>
       </c>
-      <c r="C36" s="84" t="s">
+      <c r="C36" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="84" t="s">
+      <c r="D36" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="E36" s="84" t="s">
+      <c r="E36" s="71" t="s">
         <v>209</v>
       </c>
-      <c r="F36" s="84"/>
-      <c r="G36" s="84" t="s">
+      <c r="F36" s="71"/>
+      <c r="G36" s="71" t="s">
         <v>210</v>
       </c>
-      <c r="H36" s="84" t="s">
+      <c r="H36" s="71" t="s">
         <v>211</v>
       </c>
-      <c r="I36" s="84" t="s">
+      <c r="I36" s="71" t="s">
         <v>211</v>
       </c>
-      <c r="J36" s="84" t="s">
+      <c r="J36" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="K36" s="84"/>
-      <c r="L36" s="84" t="s">
+      <c r="K36" s="71"/>
+      <c r="L36" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M36" s="86">
+      <c r="M36" s="73">
         <v>44202</v>
       </c>
-      <c r="N36" s="84"/>
-      <c r="O36" s="84"/>
-      <c r="P36" s="84"/>
-      <c r="Q36" s="84"/>
-      <c r="R36" s="84"/>
-      <c r="S36" s="84"/>
-      <c r="T36" s="84"/>
+      <c r="N36" s="71"/>
+      <c r="O36" s="71"/>
+      <c r="P36" s="71"/>
+      <c r="Q36" s="71"/>
+      <c r="R36" s="71"/>
+      <c r="S36" s="71"/>
+      <c r="T36" s="71"/>
       <c r="U36" s="15"/>
       <c r="V36" s="15"/>
       <c r="W36" s="15"/>
@@ -9178,50 +9447,50 @@
       <c r="AA36" s="15"/>
     </row>
     <row r="37" spans="1:27" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="84">
+      <c r="A37" s="71">
         <v>34</v>
       </c>
-      <c r="B37" s="84" t="s">
+      <c r="B37" s="71" t="s">
         <v>212</v>
       </c>
-      <c r="C37" s="84" t="s">
+      <c r="C37" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="84" t="s">
+      <c r="D37" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="E37" s="84" t="s">
+      <c r="E37" s="71" t="s">
         <v>213</v>
       </c>
-      <c r="F37" s="84" t="s">
+      <c r="F37" s="71" t="s">
         <v>214</v>
       </c>
-      <c r="G37" s="84" t="s">
+      <c r="G37" s="71" t="s">
         <v>215</v>
       </c>
-      <c r="H37" s="84" t="s">
+      <c r="H37" s="71" t="s">
         <v>216</v>
       </c>
-      <c r="I37" s="84" t="s">
+      <c r="I37" s="71" t="s">
         <v>216</v>
       </c>
-      <c r="J37" s="84" t="s">
+      <c r="J37" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="K37" s="84"/>
-      <c r="L37" s="84" t="s">
+      <c r="K37" s="71"/>
+      <c r="L37" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M37" s="86">
+      <c r="M37" s="73">
         <v>44202</v>
       </c>
-      <c r="N37" s="84"/>
-      <c r="O37" s="84"/>
-      <c r="P37" s="84"/>
-      <c r="Q37" s="84"/>
-      <c r="R37" s="84"/>
-      <c r="S37" s="84"/>
-      <c r="T37" s="84"/>
+      <c r="N37" s="71"/>
+      <c r="O37" s="71"/>
+      <c r="P37" s="71"/>
+      <c r="Q37" s="71"/>
+      <c r="R37" s="71"/>
+      <c r="S37" s="71"/>
+      <c r="T37" s="71"/>
       <c r="U37" s="15"/>
       <c r="V37" s="15"/>
       <c r="W37" s="15"/>
@@ -9231,50 +9500,50 @@
       <c r="AA37" s="15"/>
     </row>
     <row r="38" spans="1:27" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="84">
+      <c r="A38" s="71">
         <v>35</v>
       </c>
-      <c r="B38" s="84" t="s">
+      <c r="B38" s="71" t="s">
         <v>217</v>
       </c>
-      <c r="C38" s="84" t="s">
+      <c r="C38" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="84" t="s">
+      <c r="D38" s="71" t="s">
         <v>167</v>
       </c>
-      <c r="E38" s="84" t="s">
+      <c r="E38" s="71" t="s">
         <v>218</v>
       </c>
-      <c r="F38" s="84" t="s">
+      <c r="F38" s="71" t="s">
         <v>214</v>
       </c>
-      <c r="G38" s="84" t="s">
+      <c r="G38" s="71" t="s">
         <v>215</v>
       </c>
-      <c r="H38" s="84" t="s">
+      <c r="H38" s="71" t="s">
         <v>219</v>
       </c>
-      <c r="I38" s="84" t="s">
+      <c r="I38" s="71" t="s">
         <v>220</v>
       </c>
-      <c r="J38" s="84" t="s">
+      <c r="J38" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K38" s="84"/>
-      <c r="L38" s="84" t="s">
+      <c r="K38" s="71"/>
+      <c r="L38" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M38" s="86">
+      <c r="M38" s="73">
         <v>44202</v>
       </c>
-      <c r="N38" s="84"/>
-      <c r="O38" s="84"/>
-      <c r="P38" s="84"/>
-      <c r="Q38" s="84"/>
-      <c r="R38" s="84"/>
-      <c r="S38" s="84"/>
-      <c r="T38" s="84"/>
+      <c r="N38" s="71"/>
+      <c r="O38" s="71"/>
+      <c r="P38" s="71"/>
+      <c r="Q38" s="71"/>
+      <c r="R38" s="71"/>
+      <c r="S38" s="71"/>
+      <c r="T38" s="71"/>
       <c r="U38" s="15"/>
       <c r="V38" s="15"/>
       <c r="W38" s="15"/>
@@ -9284,48 +9553,48 @@
       <c r="AA38" s="15"/>
     </row>
     <row r="39" spans="1:27" ht="72" x14ac:dyDescent="0.25">
-      <c r="A39" s="84">
+      <c r="A39" s="71">
         <v>36</v>
       </c>
-      <c r="B39" s="84" t="s">
+      <c r="B39" s="71" t="s">
         <v>221</v>
       </c>
-      <c r="C39" s="84" t="s">
+      <c r="C39" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="84" t="s">
+      <c r="D39" s="71" t="s">
         <v>167</v>
       </c>
-      <c r="E39" s="84" t="s">
+      <c r="E39" s="71" t="s">
         <v>222</v>
       </c>
-      <c r="F39" s="84"/>
-      <c r="G39" s="84" t="s">
+      <c r="F39" s="71"/>
+      <c r="G39" s="71" t="s">
         <v>223</v>
       </c>
-      <c r="H39" s="84" t="s">
+      <c r="H39" s="71" t="s">
         <v>224</v>
       </c>
-      <c r="I39" s="84" t="s">
+      <c r="I39" s="71" t="s">
         <v>225</v>
       </c>
-      <c r="J39" s="84" t="s">
+      <c r="J39" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K39" s="84"/>
-      <c r="L39" s="84" t="s">
+      <c r="K39" s="71"/>
+      <c r="L39" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M39" s="86">
+      <c r="M39" s="73">
         <v>44202</v>
       </c>
-      <c r="N39" s="84"/>
-      <c r="O39" s="84"/>
-      <c r="P39" s="84"/>
-      <c r="Q39" s="84"/>
-      <c r="R39" s="84"/>
-      <c r="S39" s="84"/>
-      <c r="T39" s="84"/>
+      <c r="N39" s="71"/>
+      <c r="O39" s="71"/>
+      <c r="P39" s="71"/>
+      <c r="Q39" s="71"/>
+      <c r="R39" s="71"/>
+      <c r="S39" s="71"/>
+      <c r="T39" s="71"/>
       <c r="U39" s="15"/>
       <c r="V39" s="15"/>
       <c r="W39" s="15"/>
@@ -9335,48 +9604,48 @@
       <c r="AA39" s="15"/>
     </row>
     <row r="40" spans="1:27" ht="72" x14ac:dyDescent="0.25">
-      <c r="A40" s="84">
+      <c r="A40" s="71">
         <v>37</v>
       </c>
-      <c r="B40" s="84" t="s">
+      <c r="B40" s="71" t="s">
         <v>226</v>
       </c>
-      <c r="C40" s="84" t="s">
+      <c r="C40" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="84" t="s">
+      <c r="D40" s="71" t="s">
         <v>167</v>
       </c>
-      <c r="E40" s="84" t="s">
+      <c r="E40" s="71" t="s">
         <v>227</v>
       </c>
-      <c r="F40" s="84"/>
-      <c r="G40" s="84" t="s">
+      <c r="F40" s="71"/>
+      <c r="G40" s="71" t="s">
         <v>223</v>
       </c>
-      <c r="H40" s="84" t="s">
+      <c r="H40" s="71" t="s">
         <v>228</v>
       </c>
-      <c r="I40" s="84" t="s">
+      <c r="I40" s="71" t="s">
         <v>229</v>
       </c>
-      <c r="J40" s="84" t="s">
+      <c r="J40" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K40" s="84"/>
-      <c r="L40" s="84" t="s">
+      <c r="K40" s="71"/>
+      <c r="L40" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M40" s="86">
+      <c r="M40" s="73">
         <v>44202</v>
       </c>
-      <c r="N40" s="84"/>
-      <c r="O40" s="84"/>
-      <c r="P40" s="84"/>
-      <c r="Q40" s="84"/>
-      <c r="R40" s="84"/>
-      <c r="S40" s="84"/>
-      <c r="T40" s="84"/>
+      <c r="N40" s="71"/>
+      <c r="O40" s="71"/>
+      <c r="P40" s="71"/>
+      <c r="Q40" s="71"/>
+      <c r="R40" s="71"/>
+      <c r="S40" s="71"/>
+      <c r="T40" s="71"/>
       <c r="U40" s="15"/>
       <c r="V40" s="15"/>
       <c r="W40" s="15"/>
@@ -9386,48 +9655,48 @@
       <c r="AA40" s="15"/>
     </row>
     <row r="41" spans="1:27" ht="129" x14ac:dyDescent="0.25">
-      <c r="A41" s="84">
+      <c r="A41" s="71">
         <v>38</v>
       </c>
-      <c r="B41" s="84" t="s">
+      <c r="B41" s="71" t="s">
         <v>230</v>
       </c>
-      <c r="C41" s="84" t="s">
+      <c r="C41" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="84" t="s">
+      <c r="D41" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="E41" s="84" t="s">
+      <c r="E41" s="71" t="s">
         <v>231</v>
       </c>
-      <c r="F41" s="84"/>
-      <c r="G41" s="84" t="s">
+      <c r="F41" s="71"/>
+      <c r="G41" s="71" t="s">
         <v>232</v>
       </c>
-      <c r="H41" s="84" t="s">
+      <c r="H41" s="71" t="s">
         <v>233</v>
       </c>
-      <c r="I41" s="84" t="s">
+      <c r="I41" s="71" t="s">
         <v>233</v>
       </c>
-      <c r="J41" s="84" t="s">
+      <c r="J41" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="K41" s="84"/>
-      <c r="L41" s="84" t="s">
+      <c r="K41" s="71"/>
+      <c r="L41" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M41" s="86">
+      <c r="M41" s="73">
         <v>44202</v>
       </c>
-      <c r="N41" s="84"/>
-      <c r="O41" s="84"/>
-      <c r="P41" s="84"/>
-      <c r="Q41" s="84"/>
-      <c r="R41" s="84"/>
-      <c r="S41" s="84"/>
-      <c r="T41" s="84"/>
+      <c r="N41" s="71"/>
+      <c r="O41" s="71"/>
+      <c r="P41" s="71"/>
+      <c r="Q41" s="71"/>
+      <c r="R41" s="71"/>
+      <c r="S41" s="71"/>
+      <c r="T41" s="71"/>
       <c r="U41" s="15"/>
       <c r="V41" s="15"/>
       <c r="W41" s="15"/>
@@ -9437,48 +9706,48 @@
       <c r="AA41" s="15"/>
     </row>
     <row r="42" spans="1:27" ht="129" x14ac:dyDescent="0.25">
-      <c r="A42" s="84">
+      <c r="A42" s="71">
         <v>39</v>
       </c>
-      <c r="B42" s="84" t="s">
+      <c r="B42" s="71" t="s">
         <v>234</v>
       </c>
-      <c r="C42" s="84" t="s">
+      <c r="C42" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="84" t="s">
+      <c r="D42" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="E42" s="84" t="s">
+      <c r="E42" s="71" t="s">
         <v>235</v>
       </c>
-      <c r="F42" s="84"/>
-      <c r="G42" s="84" t="s">
+      <c r="F42" s="71"/>
+      <c r="G42" s="71" t="s">
         <v>236</v>
       </c>
-      <c r="H42" s="84" t="s">
+      <c r="H42" s="71" t="s">
         <v>237</v>
       </c>
-      <c r="I42" s="84" t="s">
+      <c r="I42" s="71" t="s">
         <v>237</v>
       </c>
-      <c r="J42" s="84" t="s">
+      <c r="J42" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="K42" s="84"/>
-      <c r="L42" s="84" t="s">
+      <c r="K42" s="71"/>
+      <c r="L42" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M42" s="86">
+      <c r="M42" s="73">
         <v>44202</v>
       </c>
-      <c r="N42" s="84"/>
-      <c r="O42" s="84"/>
-      <c r="P42" s="84"/>
-      <c r="Q42" s="84"/>
-      <c r="R42" s="84"/>
-      <c r="S42" s="84"/>
-      <c r="T42" s="84"/>
+      <c r="N42" s="71"/>
+      <c r="O42" s="71"/>
+      <c r="P42" s="71"/>
+      <c r="Q42" s="71"/>
+      <c r="R42" s="71"/>
+      <c r="S42" s="71"/>
+      <c r="T42" s="71"/>
       <c r="U42" s="15"/>
       <c r="V42" s="15"/>
       <c r="W42" s="15"/>
@@ -9488,48 +9757,48 @@
       <c r="AA42" s="15"/>
     </row>
     <row r="43" spans="1:27" ht="129" x14ac:dyDescent="0.25">
-      <c r="A43" s="84">
+      <c r="A43" s="71">
         <v>40</v>
       </c>
-      <c r="B43" s="84" t="s">
+      <c r="B43" s="71" t="s">
         <v>238</v>
       </c>
-      <c r="C43" s="84" t="s">
+      <c r="C43" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="84" t="s">
+      <c r="D43" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="E43" s="84" t="s">
+      <c r="E43" s="71" t="s">
         <v>239</v>
       </c>
-      <c r="F43" s="84"/>
-      <c r="G43" s="84" t="s">
+      <c r="F43" s="71"/>
+      <c r="G43" s="71" t="s">
         <v>240</v>
       </c>
-      <c r="H43" s="84" t="s">
+      <c r="H43" s="71" t="s">
         <v>241</v>
       </c>
-      <c r="I43" s="84" t="s">
+      <c r="I43" s="71" t="s">
         <v>237</v>
       </c>
-      <c r="J43" s="84" t="s">
+      <c r="J43" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K43" s="84"/>
-      <c r="L43" s="84" t="s">
+      <c r="K43" s="71"/>
+      <c r="L43" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M43" s="86">
+      <c r="M43" s="73">
         <v>44202</v>
       </c>
-      <c r="N43" s="84"/>
-      <c r="O43" s="84"/>
-      <c r="P43" s="84"/>
-      <c r="Q43" s="84"/>
-      <c r="R43" s="84"/>
-      <c r="S43" s="84"/>
-      <c r="T43" s="84"/>
+      <c r="N43" s="71"/>
+      <c r="O43" s="71"/>
+      <c r="P43" s="71"/>
+      <c r="Q43" s="71"/>
+      <c r="R43" s="71"/>
+      <c r="S43" s="71"/>
+      <c r="T43" s="71"/>
       <c r="U43" s="15"/>
       <c r="V43" s="15"/>
       <c r="W43" s="15"/>
@@ -9539,48 +9808,48 @@
       <c r="AA43" s="15"/>
     </row>
     <row r="44" spans="1:27" ht="129" x14ac:dyDescent="0.25">
-      <c r="A44" s="84">
+      <c r="A44" s="71">
         <v>41</v>
       </c>
-      <c r="B44" s="84" t="s">
+      <c r="B44" s="71" t="s">
         <v>242</v>
       </c>
-      <c r="C44" s="84" t="s">
+      <c r="C44" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="84" t="s">
+      <c r="D44" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="E44" s="84" t="s">
+      <c r="E44" s="71" t="s">
         <v>243</v>
       </c>
-      <c r="F44" s="84"/>
-      <c r="G44" s="84" t="s">
+      <c r="F44" s="71"/>
+      <c r="G44" s="71" t="s">
         <v>244</v>
       </c>
-      <c r="H44" s="84" t="s">
+      <c r="H44" s="71" t="s">
         <v>245</v>
       </c>
-      <c r="I44" s="84" t="s">
+      <c r="I44" s="71" t="s">
         <v>245</v>
       </c>
-      <c r="J44" s="84" t="s">
+      <c r="J44" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="K44" s="84"/>
-      <c r="L44" s="84" t="s">
+      <c r="K44" s="71"/>
+      <c r="L44" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M44" s="86">
+      <c r="M44" s="73">
         <v>44202</v>
       </c>
-      <c r="N44" s="84"/>
-      <c r="O44" s="84"/>
-      <c r="P44" s="84"/>
-      <c r="Q44" s="84"/>
-      <c r="R44" s="84"/>
-      <c r="S44" s="84"/>
-      <c r="T44" s="84"/>
+      <c r="N44" s="71"/>
+      <c r="O44" s="71"/>
+      <c r="P44" s="71"/>
+      <c r="Q44" s="71"/>
+      <c r="R44" s="71"/>
+      <c r="S44" s="71"/>
+      <c r="T44" s="71"/>
       <c r="U44" s="15"/>
       <c r="V44" s="15"/>
       <c r="W44" s="15"/>
@@ -9590,48 +9859,48 @@
       <c r="AA44" s="15"/>
     </row>
     <row r="45" spans="1:27" ht="129" x14ac:dyDescent="0.25">
-      <c r="A45" s="84">
+      <c r="A45" s="71">
         <v>42</v>
       </c>
-      <c r="B45" s="84" t="s">
+      <c r="B45" s="71" t="s">
         <v>246</v>
       </c>
-      <c r="C45" s="84" t="s">
+      <c r="C45" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="84" t="s">
+      <c r="D45" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="E45" s="84" t="s">
+      <c r="E45" s="71" t="s">
         <v>247</v>
       </c>
-      <c r="F45" s="84"/>
-      <c r="G45" s="84" t="s">
+      <c r="F45" s="71"/>
+      <c r="G45" s="71" t="s">
         <v>248</v>
       </c>
-      <c r="H45" s="84" t="s">
+      <c r="H45" s="71" t="s">
         <v>245</v>
       </c>
-      <c r="I45" s="84" t="s">
+      <c r="I45" s="71" t="s">
         <v>249</v>
       </c>
-      <c r="J45" s="84" t="s">
+      <c r="J45" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K45" s="84"/>
-      <c r="L45" s="84" t="s">
+      <c r="K45" s="71"/>
+      <c r="L45" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M45" s="86">
+      <c r="M45" s="73">
         <v>44202</v>
       </c>
-      <c r="N45" s="84"/>
-      <c r="O45" s="84"/>
-      <c r="P45" s="84"/>
-      <c r="Q45" s="84"/>
-      <c r="R45" s="84"/>
-      <c r="S45" s="84"/>
-      <c r="T45" s="84"/>
+      <c r="N45" s="71"/>
+      <c r="O45" s="71"/>
+      <c r="P45" s="71"/>
+      <c r="Q45" s="71"/>
+      <c r="R45" s="71"/>
+      <c r="S45" s="71"/>
+      <c r="T45" s="71"/>
       <c r="U45" s="15"/>
       <c r="V45" s="15"/>
       <c r="W45" s="15"/>
@@ -9641,48 +9910,48 @@
       <c r="AA45" s="15"/>
     </row>
     <row r="46" spans="1:27" ht="129" x14ac:dyDescent="0.25">
-      <c r="A46" s="84">
+      <c r="A46" s="71">
         <v>43</v>
       </c>
-      <c r="B46" s="84" t="s">
+      <c r="B46" s="71" t="s">
         <v>250</v>
       </c>
-      <c r="C46" s="84" t="s">
+      <c r="C46" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="84" t="s">
+      <c r="D46" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="E46" s="84" t="s">
+      <c r="E46" s="71" t="s">
         <v>251</v>
       </c>
-      <c r="F46" s="84"/>
-      <c r="G46" s="84" t="s">
+      <c r="F46" s="71"/>
+      <c r="G46" s="71" t="s">
         <v>252</v>
       </c>
-      <c r="H46" s="84" t="s">
+      <c r="H46" s="71" t="s">
         <v>253</v>
       </c>
-      <c r="I46" s="84" t="s">
+      <c r="I46" s="71" t="s">
         <v>253</v>
       </c>
-      <c r="J46" s="84" t="s">
+      <c r="J46" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="K46" s="84"/>
-      <c r="L46" s="84" t="s">
+      <c r="K46" s="71"/>
+      <c r="L46" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M46" s="86">
+      <c r="M46" s="73">
         <v>44202</v>
       </c>
-      <c r="N46" s="84"/>
-      <c r="O46" s="84"/>
-      <c r="P46" s="84"/>
-      <c r="Q46" s="84"/>
-      <c r="R46" s="84"/>
-      <c r="S46" s="84"/>
-      <c r="T46" s="84"/>
+      <c r="N46" s="71"/>
+      <c r="O46" s="71"/>
+      <c r="P46" s="71"/>
+      <c r="Q46" s="71"/>
+      <c r="R46" s="71"/>
+      <c r="S46" s="71"/>
+      <c r="T46" s="71"/>
       <c r="U46" s="15"/>
       <c r="V46" s="15"/>
       <c r="W46" s="15"/>
@@ -9692,48 +9961,48 @@
       <c r="AA46" s="15"/>
     </row>
     <row r="47" spans="1:27" ht="129" x14ac:dyDescent="0.25">
-      <c r="A47" s="84">
+      <c r="A47" s="71">
         <v>44</v>
       </c>
-      <c r="B47" s="84" t="s">
+      <c r="B47" s="71" t="s">
         <v>254</v>
       </c>
-      <c r="C47" s="84" t="s">
+      <c r="C47" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="84" t="s">
+      <c r="D47" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="E47" s="84" t="s">
+      <c r="E47" s="71" t="s">
         <v>255</v>
       </c>
-      <c r="F47" s="84"/>
-      <c r="G47" s="84" t="s">
+      <c r="F47" s="71"/>
+      <c r="G47" s="71" t="s">
         <v>256</v>
       </c>
-      <c r="H47" s="84" t="s">
+      <c r="H47" s="71" t="s">
         <v>257</v>
       </c>
-      <c r="I47" s="84" t="s">
+      <c r="I47" s="71" t="s">
         <v>249</v>
       </c>
-      <c r="J47" s="84" t="s">
+      <c r="J47" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K47" s="84"/>
-      <c r="L47" s="84" t="s">
+      <c r="K47" s="71"/>
+      <c r="L47" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M47" s="86">
+      <c r="M47" s="73">
         <v>44202</v>
       </c>
-      <c r="N47" s="84"/>
-      <c r="O47" s="84"/>
-      <c r="P47" s="84"/>
-      <c r="Q47" s="84"/>
-      <c r="R47" s="84"/>
-      <c r="S47" s="84"/>
-      <c r="T47" s="84"/>
+      <c r="N47" s="71"/>
+      <c r="O47" s="71"/>
+      <c r="P47" s="71"/>
+      <c r="Q47" s="71"/>
+      <c r="R47" s="71"/>
+      <c r="S47" s="71"/>
+      <c r="T47" s="71"/>
       <c r="U47" s="15"/>
       <c r="V47" s="15"/>
       <c r="W47" s="15"/>
@@ -9743,48 +10012,48 @@
       <c r="AA47" s="15"/>
     </row>
     <row r="48" spans="1:27" ht="129" x14ac:dyDescent="0.25">
-      <c r="A48" s="84">
+      <c r="A48" s="71">
         <v>45</v>
       </c>
-      <c r="B48" s="84" t="s">
+      <c r="B48" s="71" t="s">
         <v>258</v>
       </c>
-      <c r="C48" s="84" t="s">
+      <c r="C48" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="84" t="s">
+      <c r="D48" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="E48" s="84" t="s">
+      <c r="E48" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="F48" s="84"/>
-      <c r="G48" s="84" t="s">
+      <c r="F48" s="71"/>
+      <c r="G48" s="71" t="s">
         <v>260</v>
       </c>
-      <c r="H48" s="84" t="s">
+      <c r="H48" s="71" t="s">
         <v>257</v>
       </c>
-      <c r="I48" s="84" t="s">
+      <c r="I48" s="71" t="s">
         <v>249</v>
       </c>
-      <c r="J48" s="84" t="s">
+      <c r="J48" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K48" s="84"/>
-      <c r="L48" s="84" t="s">
+      <c r="K48" s="71"/>
+      <c r="L48" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M48" s="86">
+      <c r="M48" s="73">
         <v>44202</v>
       </c>
-      <c r="N48" s="84"/>
-      <c r="O48" s="84"/>
-      <c r="P48" s="84"/>
-      <c r="Q48" s="84"/>
-      <c r="R48" s="84"/>
-      <c r="S48" s="84"/>
-      <c r="T48" s="84"/>
+      <c r="N48" s="71"/>
+      <c r="O48" s="71"/>
+      <c r="P48" s="71"/>
+      <c r="Q48" s="71"/>
+      <c r="R48" s="71"/>
+      <c r="S48" s="71"/>
+      <c r="T48" s="71"/>
       <c r="U48" s="15"/>
       <c r="V48" s="15"/>
       <c r="W48" s="15"/>
@@ -9794,48 +10063,48 @@
       <c r="AA48" s="15"/>
     </row>
     <row r="49" spans="1:27" ht="129" x14ac:dyDescent="0.25">
-      <c r="A49" s="84">
+      <c r="A49" s="71">
         <v>46</v>
       </c>
-      <c r="B49" s="84" t="s">
+      <c r="B49" s="71" t="s">
         <v>261</v>
       </c>
-      <c r="C49" s="84" t="s">
+      <c r="C49" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="84" t="s">
+      <c r="D49" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="E49" s="84" t="s">
+      <c r="E49" s="71" t="s">
         <v>262</v>
       </c>
-      <c r="F49" s="84"/>
-      <c r="G49" s="84" t="s">
+      <c r="F49" s="71"/>
+      <c r="G49" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="H49" s="84" t="s">
+      <c r="H49" s="71" t="s">
         <v>264</v>
       </c>
-      <c r="I49" s="84" t="s">
+      <c r="I49" s="71" t="s">
         <v>249</v>
       </c>
-      <c r="J49" s="84" t="s">
+      <c r="J49" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K49" s="84"/>
-      <c r="L49" s="84" t="s">
+      <c r="K49" s="71"/>
+      <c r="L49" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M49" s="86">
+      <c r="M49" s="73">
         <v>44202</v>
       </c>
-      <c r="N49" s="84"/>
-      <c r="O49" s="84"/>
-      <c r="P49" s="84"/>
-      <c r="Q49" s="84"/>
-      <c r="R49" s="84"/>
-      <c r="S49" s="84"/>
-      <c r="T49" s="84"/>
+      <c r="N49" s="71"/>
+      <c r="O49" s="71"/>
+      <c r="P49" s="71"/>
+      <c r="Q49" s="71"/>
+      <c r="R49" s="71"/>
+      <c r="S49" s="71"/>
+      <c r="T49" s="71"/>
       <c r="U49" s="15"/>
       <c r="V49" s="15"/>
       <c r="W49" s="15"/>
@@ -9845,48 +10114,48 @@
       <c r="AA49" s="15"/>
     </row>
     <row r="50" spans="1:27" ht="129" x14ac:dyDescent="0.25">
-      <c r="A50" s="84">
+      <c r="A50" s="71">
         <v>47</v>
       </c>
-      <c r="B50" s="84" t="s">
+      <c r="B50" s="71" t="s">
         <v>265</v>
       </c>
-      <c r="C50" s="84" t="s">
+      <c r="C50" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D50" s="84" t="s">
+      <c r="D50" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="E50" s="84" t="s">
+      <c r="E50" s="71" t="s">
         <v>266</v>
       </c>
-      <c r="F50" s="84"/>
-      <c r="G50" s="84" t="s">
+      <c r="F50" s="71"/>
+      <c r="G50" s="71" t="s">
         <v>267</v>
       </c>
-      <c r="H50" s="84" t="s">
+      <c r="H50" s="71" t="s">
         <v>268</v>
       </c>
-      <c r="I50" s="84" t="s">
+      <c r="I50" s="71" t="s">
         <v>268</v>
       </c>
-      <c r="J50" s="84" t="s">
+      <c r="J50" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="K50" s="84"/>
-      <c r="L50" s="84" t="s">
+      <c r="K50" s="71"/>
+      <c r="L50" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M50" s="86">
+      <c r="M50" s="73">
         <v>44202</v>
       </c>
-      <c r="N50" s="84"/>
-      <c r="O50" s="84"/>
-      <c r="P50" s="84"/>
-      <c r="Q50" s="84"/>
-      <c r="R50" s="84"/>
-      <c r="S50" s="84"/>
-      <c r="T50" s="84"/>
+      <c r="N50" s="71"/>
+      <c r="O50" s="71"/>
+      <c r="P50" s="71"/>
+      <c r="Q50" s="71"/>
+      <c r="R50" s="71"/>
+      <c r="S50" s="71"/>
+      <c r="T50" s="71"/>
       <c r="U50" s="15"/>
       <c r="V50" s="15"/>
       <c r="W50" s="15"/>
@@ -9896,48 +10165,48 @@
       <c r="AA50" s="15"/>
     </row>
     <row r="51" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
-      <c r="A51" s="84">
+      <c r="A51" s="71">
         <v>48</v>
       </c>
-      <c r="B51" s="84" t="s">
+      <c r="B51" s="71" t="s">
         <v>269</v>
       </c>
-      <c r="C51" s="84" t="s">
+      <c r="C51" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="84" t="s">
+      <c r="D51" s="71" t="s">
         <v>167</v>
       </c>
-      <c r="E51" s="84" t="s">
+      <c r="E51" s="71" t="s">
         <v>270</v>
       </c>
-      <c r="F51" s="84"/>
-      <c r="G51" s="84" t="s">
+      <c r="F51" s="71"/>
+      <c r="G51" s="71" t="s">
         <v>271</v>
       </c>
-      <c r="H51" s="84" t="s">
-        <v>272</v>
-      </c>
-      <c r="I51" s="84" t="s">
-        <v>272</v>
-      </c>
-      <c r="J51" s="84" t="s">
+      <c r="H51" s="72" t="s">
+        <v>380</v>
+      </c>
+      <c r="I51" s="72" t="s">
+        <v>380</v>
+      </c>
+      <c r="J51" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="K51" s="84"/>
-      <c r="L51" s="84" t="s">
+      <c r="K51" s="71"/>
+      <c r="L51" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M51" s="86">
+      <c r="M51" s="73">
         <v>44203</v>
       </c>
-      <c r="N51" s="84"/>
-      <c r="O51" s="84"/>
-      <c r="P51" s="84"/>
-      <c r="Q51" s="84"/>
-      <c r="R51" s="84"/>
-      <c r="S51" s="84"/>
-      <c r="T51" s="84"/>
+      <c r="N51" s="71"/>
+      <c r="O51" s="71"/>
+      <c r="P51" s="71"/>
+      <c r="Q51" s="71"/>
+      <c r="R51" s="71"/>
+      <c r="S51" s="71"/>
+      <c r="T51" s="71"/>
       <c r="U51" s="15"/>
       <c r="V51" s="15"/>
       <c r="W51" s="15"/>
@@ -9947,48 +10216,48 @@
       <c r="AA51" s="15"/>
     </row>
     <row r="52" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
-      <c r="A52" s="84">
+      <c r="A52" s="71">
         <v>49</v>
       </c>
-      <c r="B52" s="84" t="s">
+      <c r="B52" s="71" t="s">
+        <v>272</v>
+      </c>
+      <c r="C52" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="71" t="s">
+        <v>167</v>
+      </c>
+      <c r="E52" s="71" t="s">
         <v>273</v>
       </c>
-      <c r="C52" s="84" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="84" t="s">
-        <v>167</v>
-      </c>
-      <c r="E52" s="84" t="s">
+      <c r="F52" s="71"/>
+      <c r="G52" s="71" t="s">
         <v>274</v>
       </c>
-      <c r="F52" s="84"/>
-      <c r="G52" s="84" t="s">
+      <c r="H52" s="71" t="s">
         <v>275</v>
       </c>
-      <c r="H52" s="84" t="s">
+      <c r="I52" s="71" t="s">
         <v>276</v>
       </c>
-      <c r="I52" s="84" t="s">
-        <v>277</v>
-      </c>
-      <c r="J52" s="84" t="s">
+      <c r="J52" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K52" s="84"/>
-      <c r="L52" s="84" t="s">
+      <c r="K52" s="71"/>
+      <c r="L52" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M52" s="86">
+      <c r="M52" s="73">
         <v>44203</v>
       </c>
-      <c r="N52" s="84"/>
-      <c r="O52" s="84"/>
-      <c r="P52" s="84"/>
-      <c r="Q52" s="84"/>
-      <c r="R52" s="84"/>
-      <c r="S52" s="84"/>
-      <c r="T52" s="84"/>
+      <c r="N52" s="71"/>
+      <c r="O52" s="71"/>
+      <c r="P52" s="71"/>
+      <c r="Q52" s="71"/>
+      <c r="R52" s="71"/>
+      <c r="S52" s="71"/>
+      <c r="T52" s="71"/>
       <c r="U52" s="15"/>
       <c r="V52" s="15"/>
       <c r="W52" s="15"/>
@@ -9998,48 +10267,48 @@
       <c r="AA52" s="15"/>
     </row>
     <row r="53" spans="1:27" ht="72" x14ac:dyDescent="0.25">
-      <c r="A53" s="84">
+      <c r="A53" s="71">
         <v>50</v>
       </c>
-      <c r="B53" s="84" t="s">
+      <c r="B53" s="71" t="s">
+        <v>277</v>
+      </c>
+      <c r="C53" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="71" t="s">
+        <v>167</v>
+      </c>
+      <c r="E53" s="71" t="s">
         <v>278</v>
       </c>
-      <c r="C53" s="84" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" s="84" t="s">
-        <v>167</v>
-      </c>
-      <c r="E53" s="84" t="s">
+      <c r="F53" s="71"/>
+      <c r="G53" s="71" t="s">
         <v>279</v>
       </c>
-      <c r="F53" s="84"/>
-      <c r="G53" s="84" t="s">
+      <c r="H53" s="71" t="s">
         <v>280</v>
       </c>
-      <c r="H53" s="84" t="s">
-        <v>281</v>
-      </c>
-      <c r="I53" s="84" t="s">
-        <v>281</v>
-      </c>
-      <c r="J53" s="84" t="s">
+      <c r="I53" s="71" t="s">
+        <v>280</v>
+      </c>
+      <c r="J53" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="K53" s="84"/>
-      <c r="L53" s="84" t="s">
+      <c r="K53" s="71"/>
+      <c r="L53" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M53" s="86">
+      <c r="M53" s="73">
         <v>44203</v>
       </c>
-      <c r="N53" s="84"/>
-      <c r="O53" s="84"/>
-      <c r="P53" s="84"/>
-      <c r="Q53" s="84"/>
-      <c r="R53" s="84"/>
-      <c r="S53" s="84"/>
-      <c r="T53" s="84"/>
+      <c r="N53" s="71"/>
+      <c r="O53" s="71"/>
+      <c r="P53" s="71"/>
+      <c r="Q53" s="71"/>
+      <c r="R53" s="71"/>
+      <c r="S53" s="71"/>
+      <c r="T53" s="71"/>
       <c r="U53" s="15"/>
       <c r="V53" s="15"/>
       <c r="W53" s="15"/>
@@ -10049,48 +10318,48 @@
       <c r="AA53" s="15"/>
     </row>
     <row r="54" spans="1:27" ht="72" x14ac:dyDescent="0.25">
-      <c r="A54" s="84">
+      <c r="A54" s="71">
         <v>51</v>
       </c>
-      <c r="B54" s="84" t="s">
-        <v>349</v>
-      </c>
-      <c r="C54" s="84" t="s">
+      <c r="B54" s="71" t="s">
+        <v>347</v>
+      </c>
+      <c r="C54" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D54" s="84" t="s">
+      <c r="D54" s="71" t="s">
         <v>167</v>
       </c>
-      <c r="E54" s="85" t="s">
+      <c r="E54" s="72" t="s">
+        <v>342</v>
+      </c>
+      <c r="F54" s="71"/>
+      <c r="G54" s="72" t="s">
+        <v>343</v>
+      </c>
+      <c r="H54" s="72" t="s">
         <v>344</v>
       </c>
-      <c r="F54" s="84"/>
-      <c r="G54" s="85" t="s">
-        <v>345</v>
-      </c>
-      <c r="H54" s="85" t="s">
-        <v>346</v>
-      </c>
-      <c r="I54" s="85" t="s">
-        <v>346</v>
-      </c>
-      <c r="J54" s="85" t="s">
+      <c r="I54" s="72" t="s">
+        <v>344</v>
+      </c>
+      <c r="J54" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="K54" s="84"/>
-      <c r="L54" s="84" t="s">
+      <c r="K54" s="71"/>
+      <c r="L54" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M54" s="86">
+      <c r="M54" s="73">
         <v>44203</v>
       </c>
-      <c r="N54" s="84"/>
-      <c r="O54" s="84"/>
-      <c r="P54" s="84"/>
-      <c r="Q54" s="84"/>
-      <c r="R54" s="84"/>
-      <c r="S54" s="84"/>
-      <c r="T54" s="84"/>
+      <c r="N54" s="71"/>
+      <c r="O54" s="71"/>
+      <c r="P54" s="71"/>
+      <c r="Q54" s="71"/>
+      <c r="R54" s="71"/>
+      <c r="S54" s="71"/>
+      <c r="T54" s="71"/>
       <c r="U54" s="15"/>
       <c r="V54" s="15"/>
       <c r="W54" s="15"/>
@@ -10100,48 +10369,48 @@
       <c r="AA54" s="15"/>
     </row>
     <row r="55" spans="1:27" ht="57.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="84">
+      <c r="A55" s="71">
         <v>52</v>
       </c>
-      <c r="B55" s="84" t="s">
-        <v>350</v>
-      </c>
-      <c r="C55" s="84" t="s">
+      <c r="B55" s="71" t="s">
+        <v>348</v>
+      </c>
+      <c r="C55" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="84" t="s">
+      <c r="D55" s="71" t="s">
         <v>167</v>
       </c>
-      <c r="E55" s="85" t="s">
-        <v>351</v>
-      </c>
-      <c r="F55" s="84"/>
-      <c r="G55" s="85" t="s">
-        <v>347</v>
-      </c>
-      <c r="H55" s="85" t="s">
-        <v>348</v>
-      </c>
-      <c r="I55" s="85" t="s">
-        <v>348</v>
-      </c>
-      <c r="J55" s="84" t="s">
+      <c r="E55" s="72" t="s">
+        <v>349</v>
+      </c>
+      <c r="F55" s="71"/>
+      <c r="G55" s="72" t="s">
+        <v>345</v>
+      </c>
+      <c r="H55" s="72" t="s">
+        <v>346</v>
+      </c>
+      <c r="I55" s="72" t="s">
+        <v>346</v>
+      </c>
+      <c r="J55" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="K55" s="84"/>
-      <c r="L55" s="84" t="s">
+      <c r="K55" s="71"/>
+      <c r="L55" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M55" s="86">
+      <c r="M55" s="73">
         <v>44203</v>
       </c>
-      <c r="N55" s="84"/>
-      <c r="O55" s="84"/>
-      <c r="P55" s="84"/>
-      <c r="Q55" s="84"/>
-      <c r="R55" s="84"/>
-      <c r="S55" s="84"/>
-      <c r="T55" s="84"/>
+      <c r="N55" s="71"/>
+      <c r="O55" s="71"/>
+      <c r="P55" s="71"/>
+      <c r="Q55" s="71"/>
+      <c r="R55" s="71"/>
+      <c r="S55" s="71"/>
+      <c r="T55" s="71"/>
       <c r="U55" s="15"/>
       <c r="V55" s="15"/>
       <c r="W55" s="15"/>
@@ -10150,68 +10419,102 @@
       <c r="Z55" s="15"/>
       <c r="AA55" s="15"/>
     </row>
-    <row r="56" spans="1:27" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="84">
+    <row r="56" spans="1:27" s="78" customFormat="1" ht="86.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="74">
         <v>53</v>
       </c>
-      <c r="B56" s="87"/>
-      <c r="C56" s="88"/>
-      <c r="D56" s="88"/>
-      <c r="E56" s="88"/>
-      <c r="F56" s="88"/>
-      <c r="G56" s="88"/>
-      <c r="H56" s="88"/>
-      <c r="I56" s="88"/>
-      <c r="J56" s="87"/>
-      <c r="K56" s="87"/>
-      <c r="L56" s="87"/>
-      <c r="M56" s="89"/>
-      <c r="N56" s="87"/>
-      <c r="O56" s="87"/>
-      <c r="P56" s="87"/>
-      <c r="Q56" s="87"/>
-      <c r="R56" s="87"/>
-      <c r="S56" s="87"/>
-      <c r="T56" s="87"/>
-      <c r="U56" s="90"/>
-      <c r="V56" s="90"/>
-      <c r="W56" s="90"/>
-      <c r="X56" s="90"/>
-      <c r="Y56" s="90"/>
-      <c r="Z56" s="90"/>
-      <c r="AA56" s="90"/>
-    </row>
-    <row r="57" spans="1:27" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="84">
+      <c r="B56" s="74" t="s">
+        <v>356</v>
+      </c>
+      <c r="C56" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="75" t="s">
+        <v>200</v>
+      </c>
+      <c r="E56" s="71" t="s">
+        <v>357</v>
+      </c>
+      <c r="F56" s="71"/>
+      <c r="G56" s="72" t="s">
+        <v>345</v>
+      </c>
+      <c r="H56" s="71" t="s">
+        <v>203</v>
+      </c>
+      <c r="I56" s="71" t="s">
+        <v>203</v>
+      </c>
+      <c r="J56" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="K56" s="74"/>
+      <c r="L56" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="M56" s="73">
+        <v>44203</v>
+      </c>
+      <c r="N56" s="74"/>
+      <c r="O56" s="74"/>
+      <c r="P56" s="74"/>
+      <c r="Q56" s="74"/>
+      <c r="R56" s="74"/>
+      <c r="S56" s="74"/>
+      <c r="T56" s="74"/>
+      <c r="U56" s="77"/>
+      <c r="V56" s="77"/>
+      <c r="W56" s="77"/>
+      <c r="X56" s="77"/>
+      <c r="Y56" s="77"/>
+      <c r="Z56" s="77"/>
+      <c r="AA56" s="77"/>
+    </row>
+    <row r="57" spans="1:27" ht="72" x14ac:dyDescent="0.25">
+      <c r="A57" s="71">
         <v>54</v>
       </c>
-      <c r="B57" s="84" t="s">
-        <v>287</v>
-      </c>
-      <c r="C57" s="84" t="s">
-        <v>282</v>
-      </c>
-      <c r="D57" s="84"/>
-      <c r="E57" s="84"/>
-      <c r="F57" s="84"/>
-      <c r="G57" s="84"/>
-      <c r="H57" s="84"/>
-      <c r="I57" s="84"/>
-      <c r="J57" s="84" t="s">
-        <v>288</v>
-      </c>
-      <c r="K57" s="84"/>
-      <c r="L57" s="84" t="s">
+      <c r="B57" s="71" t="s">
+        <v>358</v>
+      </c>
+      <c r="C57" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="E57" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="F57" s="71" t="s">
+        <v>360</v>
+      </c>
+      <c r="G57" s="72" t="s">
+        <v>359</v>
+      </c>
+      <c r="H57" s="71" t="s">
+        <v>362</v>
+      </c>
+      <c r="I57" s="71" t="s">
+        <v>362</v>
+      </c>
+      <c r="J57" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="K57" s="71"/>
+      <c r="L57" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M57" s="86"/>
-      <c r="N57" s="84"/>
-      <c r="O57" s="84"/>
-      <c r="P57" s="84"/>
-      <c r="Q57" s="84"/>
-      <c r="R57" s="84"/>
-      <c r="S57" s="84"/>
-      <c r="T57" s="84"/>
+      <c r="M57" s="73">
+        <v>44203</v>
+      </c>
+      <c r="N57" s="71"/>
+      <c r="O57" s="71"/>
+      <c r="P57" s="71"/>
+      <c r="Q57" s="71"/>
+      <c r="R57" s="71"/>
+      <c r="S57" s="71"/>
+      <c r="T57" s="71"/>
       <c r="U57" s="15"/>
       <c r="V57" s="15"/>
       <c r="W57" s="15"/>
@@ -10220,47 +10523,51 @@
       <c r="Z57" s="15"/>
       <c r="AA57" s="15"/>
     </row>
-    <row r="58" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A58" s="84">
+    <row r="58" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
+      <c r="A58" s="71">
         <v>55</v>
       </c>
-      <c r="B58" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="C58" s="84" t="s">
-        <v>282</v>
-      </c>
-      <c r="D58" s="84"/>
-      <c r="E58" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="F58" s="84"/>
-      <c r="G58" s="84" t="s">
-        <v>284</v>
-      </c>
-      <c r="H58" s="84" t="s">
-        <v>285</v>
-      </c>
-      <c r="I58" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="J58" s="84" t="s">
-        <v>60</v>
-      </c>
-      <c r="K58" s="84"/>
-      <c r="L58" s="84" t="s">
+      <c r="B58" s="71" t="s">
+        <v>369</v>
+      </c>
+      <c r="C58" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="71" t="s">
+        <v>167</v>
+      </c>
+      <c r="E58" s="71" t="s">
+        <v>363</v>
+      </c>
+      <c r="F58" s="71" t="s">
+        <v>360</v>
+      </c>
+      <c r="G58" s="72" t="s">
+        <v>359</v>
+      </c>
+      <c r="H58" s="71" t="s">
+        <v>364</v>
+      </c>
+      <c r="I58" s="71" t="s">
+        <v>364</v>
+      </c>
+      <c r="J58" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="K58" s="71"/>
+      <c r="L58" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M58" s="86">
-        <v>41429</v>
-      </c>
-      <c r="N58" s="84"/>
-      <c r="O58" s="84"/>
-      <c r="P58" s="84"/>
-      <c r="Q58" s="84"/>
-      <c r="R58" s="84"/>
-      <c r="S58" s="84"/>
-      <c r="T58" s="84"/>
+      <c r="M58" s="73">
+        <v>44203</v>
+      </c>
+      <c r="N58" s="71"/>
+      <c r="O58" s="71"/>
+      <c r="P58" s="71"/>
+      <c r="Q58" s="71"/>
+      <c r="R58" s="71"/>
+      <c r="S58" s="71"/>
+      <c r="T58" s="71"/>
       <c r="U58" s="15"/>
       <c r="V58" s="15"/>
       <c r="W58" s="15"/>
@@ -10269,47 +10576,49 @@
       <c r="Z58" s="15"/>
       <c r="AA58" s="15"/>
     </row>
-    <row r="59" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="84">
+    <row r="59" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
+      <c r="A59" s="71">
         <v>56</v>
       </c>
-      <c r="B59" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="C59" s="84" t="s">
-        <v>282</v>
-      </c>
-      <c r="D59" s="84"/>
-      <c r="E59" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="F59" s="84"/>
-      <c r="G59" s="84" t="s">
-        <v>284</v>
-      </c>
-      <c r="H59" s="84" t="s">
-        <v>285</v>
-      </c>
-      <c r="I59" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="J59" s="84" t="s">
+      <c r="B59" s="71" t="s">
+        <v>370</v>
+      </c>
+      <c r="C59" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="71" t="s">
+        <v>167</v>
+      </c>
+      <c r="E59" s="92" t="s">
+        <v>365</v>
+      </c>
+      <c r="F59" s="71"/>
+      <c r="G59" s="72" t="s">
+        <v>366</v>
+      </c>
+      <c r="H59" s="72" t="s">
+        <v>367</v>
+      </c>
+      <c r="I59" s="72" t="s">
+        <v>368</v>
+      </c>
+      <c r="J59" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K59" s="84"/>
-      <c r="L59" s="84" t="s">
+      <c r="K59" s="71"/>
+      <c r="L59" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M59" s="86">
-        <v>41429</v>
-      </c>
-      <c r="N59" s="84"/>
-      <c r="O59" s="84"/>
-      <c r="P59" s="84"/>
-      <c r="Q59" s="84"/>
-      <c r="R59" s="84"/>
-      <c r="S59" s="84"/>
-      <c r="T59" s="84"/>
+      <c r="M59" s="73">
+        <v>44203</v>
+      </c>
+      <c r="N59" s="71"/>
+      <c r="O59" s="71"/>
+      <c r="P59" s="71"/>
+      <c r="Q59" s="71"/>
+      <c r="R59" s="71"/>
+      <c r="S59" s="71"/>
+      <c r="T59" s="71"/>
       <c r="U59" s="15"/>
       <c r="V59" s="15"/>
       <c r="W59" s="15"/>
@@ -10318,47 +10627,49 @@
       <c r="Z59" s="15"/>
       <c r="AA59" s="15"/>
     </row>
-    <row r="60" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="84">
+    <row r="60" spans="1:27" ht="72" x14ac:dyDescent="0.25">
+      <c r="A60" s="71">
         <v>57</v>
       </c>
-      <c r="B60" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="C60" s="84" t="s">
-        <v>282</v>
-      </c>
-      <c r="D60" s="84"/>
-      <c r="E60" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="F60" s="84"/>
-      <c r="G60" s="84" t="s">
-        <v>284</v>
-      </c>
-      <c r="H60" s="84" t="s">
-        <v>285</v>
-      </c>
-      <c r="I60" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="J60" s="84" t="s">
-        <v>60</v>
-      </c>
-      <c r="K60" s="84"/>
-      <c r="L60" s="84" t="s">
+      <c r="B60" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="C60" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="71" t="s">
+        <v>167</v>
+      </c>
+      <c r="E60" s="72" t="s">
+        <v>378</v>
+      </c>
+      <c r="F60" s="71"/>
+      <c r="G60" s="72" t="s">
+        <v>359</v>
+      </c>
+      <c r="H60" s="72" t="s">
+        <v>379</v>
+      </c>
+      <c r="I60" s="72" t="s">
+        <v>379</v>
+      </c>
+      <c r="J60" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="K60" s="71"/>
+      <c r="L60" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M60" s="86">
-        <v>41429</v>
-      </c>
-      <c r="N60" s="84"/>
-      <c r="O60" s="84"/>
-      <c r="P60" s="84"/>
-      <c r="Q60" s="84"/>
-      <c r="R60" s="84"/>
-      <c r="S60" s="84"/>
-      <c r="T60" s="84"/>
+      <c r="M60" s="73">
+        <v>44203</v>
+      </c>
+      <c r="N60" s="71"/>
+      <c r="O60" s="71"/>
+      <c r="P60" s="71"/>
+      <c r="Q60" s="71"/>
+      <c r="R60" s="71"/>
+      <c r="S60" s="71"/>
+      <c r="T60" s="71"/>
       <c r="U60" s="15"/>
       <c r="V60" s="15"/>
       <c r="W60" s="15"/>
@@ -10367,47 +10678,51 @@
       <c r="Z60" s="15"/>
       <c r="AA60" s="15"/>
     </row>
-    <row r="61" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="84">
+    <row r="61" spans="1:27" ht="72" x14ac:dyDescent="0.25">
+      <c r="A61" s="71">
         <v>58</v>
       </c>
-      <c r="B61" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="C61" s="84" t="s">
-        <v>282</v>
-      </c>
-      <c r="D61" s="84"/>
-      <c r="E61" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="F61" s="84"/>
-      <c r="G61" s="84" t="s">
-        <v>284</v>
-      </c>
-      <c r="H61" s="84" t="s">
-        <v>285</v>
-      </c>
-      <c r="I61" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="J61" s="84" t="s">
-        <v>60</v>
-      </c>
-      <c r="K61" s="84"/>
-      <c r="L61" s="84" t="s">
+      <c r="B61" s="71" t="s">
+        <v>372</v>
+      </c>
+      <c r="C61" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="E61" s="72" t="s">
+        <v>381</v>
+      </c>
+      <c r="F61" s="72" t="s">
+        <v>382</v>
+      </c>
+      <c r="G61" s="72" t="s">
+        <v>383</v>
+      </c>
+      <c r="H61" s="72" t="s">
+        <v>384</v>
+      </c>
+      <c r="I61" s="72" t="s">
+        <v>384</v>
+      </c>
+      <c r="J61" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="K61" s="71"/>
+      <c r="L61" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M61" s="86">
-        <v>41429</v>
-      </c>
-      <c r="N61" s="84"/>
-      <c r="O61" s="84"/>
-      <c r="P61" s="84"/>
-      <c r="Q61" s="84"/>
-      <c r="R61" s="84"/>
-      <c r="S61" s="84"/>
-      <c r="T61" s="84"/>
+      <c r="M61" s="73">
+        <v>44203</v>
+      </c>
+      <c r="N61" s="71"/>
+      <c r="O61" s="71"/>
+      <c r="P61" s="71"/>
+      <c r="Q61" s="71"/>
+      <c r="R61" s="71"/>
+      <c r="S61" s="71"/>
+      <c r="T61" s="71"/>
       <c r="U61" s="15"/>
       <c r="V61" s="15"/>
       <c r="W61" s="15"/>
@@ -10416,47 +10731,49 @@
       <c r="Z61" s="15"/>
       <c r="AA61" s="15"/>
     </row>
-    <row r="62" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A62" s="84">
+    <row r="62" spans="1:27" ht="72" x14ac:dyDescent="0.25">
+      <c r="A62" s="71">
         <v>59</v>
       </c>
-      <c r="B62" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="C62" s="84" t="s">
-        <v>282</v>
-      </c>
-      <c r="D62" s="84"/>
-      <c r="E62" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="F62" s="84"/>
-      <c r="G62" s="84" t="s">
-        <v>284</v>
-      </c>
-      <c r="H62" s="84" t="s">
-        <v>285</v>
-      </c>
-      <c r="I62" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="J62" s="84" t="s">
-        <v>60</v>
-      </c>
-      <c r="K62" s="84"/>
-      <c r="L62" s="84" t="s">
+      <c r="B62" s="71" t="s">
+        <v>373</v>
+      </c>
+      <c r="C62" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="E62" s="72" t="s">
+        <v>385</v>
+      </c>
+      <c r="F62" s="71"/>
+      <c r="G62" s="72" t="s">
+        <v>386</v>
+      </c>
+      <c r="H62" s="72" t="s">
+        <v>387</v>
+      </c>
+      <c r="I62" s="72" t="s">
+        <v>387</v>
+      </c>
+      <c r="J62" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="K62" s="71"/>
+      <c r="L62" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M62" s="86">
-        <v>41429</v>
-      </c>
-      <c r="N62" s="84"/>
-      <c r="O62" s="84"/>
-      <c r="P62" s="84"/>
-      <c r="Q62" s="84"/>
-      <c r="R62" s="84"/>
-      <c r="S62" s="84"/>
-      <c r="T62" s="84"/>
+      <c r="M62" s="73">
+        <v>44203</v>
+      </c>
+      <c r="N62" s="71"/>
+      <c r="O62" s="71"/>
+      <c r="P62" s="71"/>
+      <c r="Q62" s="71"/>
+      <c r="R62" s="71"/>
+      <c r="S62" s="71"/>
+      <c r="T62" s="71"/>
       <c r="U62" s="15"/>
       <c r="V62" s="15"/>
       <c r="W62" s="15"/>
@@ -10465,47 +10782,49 @@
       <c r="Z62" s="15"/>
       <c r="AA62" s="15"/>
     </row>
-    <row r="63" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A63" s="84">
+    <row r="63" spans="1:27" ht="72" x14ac:dyDescent="0.25">
+      <c r="A63" s="71">
         <v>60</v>
       </c>
-      <c r="B63" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="C63" s="84" t="s">
-        <v>282</v>
-      </c>
-      <c r="D63" s="84"/>
-      <c r="E63" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="F63" s="84"/>
-      <c r="G63" s="84" t="s">
-        <v>284</v>
-      </c>
-      <c r="H63" s="84" t="s">
-        <v>285</v>
-      </c>
-      <c r="I63" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="J63" s="84" t="s">
-        <v>60</v>
-      </c>
-      <c r="K63" s="84"/>
-      <c r="L63" s="84" t="s">
+      <c r="B63" s="71" t="s">
+        <v>374</v>
+      </c>
+      <c r="C63" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="E63" s="72" t="s">
+        <v>388</v>
+      </c>
+      <c r="F63" s="71"/>
+      <c r="G63" s="72" t="s">
+        <v>389</v>
+      </c>
+      <c r="H63" s="72" t="s">
+        <v>390</v>
+      </c>
+      <c r="I63" s="72" t="s">
+        <v>390</v>
+      </c>
+      <c r="J63" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="K63" s="71"/>
+      <c r="L63" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M63" s="86">
-        <v>41429</v>
-      </c>
-      <c r="N63" s="84"/>
-      <c r="O63" s="84"/>
-      <c r="P63" s="84"/>
-      <c r="Q63" s="84"/>
-      <c r="R63" s="84"/>
-      <c r="S63" s="84"/>
-      <c r="T63" s="84"/>
+      <c r="M63" s="73">
+        <v>44203</v>
+      </c>
+      <c r="N63" s="71"/>
+      <c r="O63" s="71"/>
+      <c r="P63" s="71"/>
+      <c r="Q63" s="71"/>
+      <c r="R63" s="71"/>
+      <c r="S63" s="71"/>
+      <c r="T63" s="71"/>
       <c r="U63" s="15"/>
       <c r="V63" s="15"/>
       <c r="W63" s="15"/>
@@ -10514,47 +10833,49 @@
       <c r="Z63" s="15"/>
       <c r="AA63" s="15"/>
     </row>
-    <row r="64" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="84">
+    <row r="64" spans="1:27" ht="72" x14ac:dyDescent="0.25">
+      <c r="A64" s="71">
         <v>61</v>
       </c>
-      <c r="B64" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="C64" s="84" t="s">
-        <v>282</v>
-      </c>
-      <c r="D64" s="84"/>
-      <c r="E64" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="F64" s="84"/>
-      <c r="G64" s="84" t="s">
-        <v>284</v>
-      </c>
-      <c r="H64" s="84" t="s">
-        <v>285</v>
-      </c>
-      <c r="I64" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="J64" s="84" t="s">
+      <c r="B64" s="71" t="s">
+        <v>375</v>
+      </c>
+      <c r="C64" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="E64" s="72" t="s">
+        <v>412</v>
+      </c>
+      <c r="F64" s="71"/>
+      <c r="G64" s="72" t="s">
+        <v>391</v>
+      </c>
+      <c r="H64" s="72" t="s">
+        <v>392</v>
+      </c>
+      <c r="I64" s="72" t="s">
+        <v>390</v>
+      </c>
+      <c r="J64" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K64" s="84"/>
-      <c r="L64" s="84" t="s">
+      <c r="K64" s="71"/>
+      <c r="L64" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M64" s="86">
-        <v>41429</v>
-      </c>
-      <c r="N64" s="84"/>
-      <c r="O64" s="84"/>
-      <c r="P64" s="84"/>
-      <c r="Q64" s="84"/>
-      <c r="R64" s="84"/>
-      <c r="S64" s="84"/>
-      <c r="T64" s="84"/>
+      <c r="M64" s="73">
+        <v>44203</v>
+      </c>
+      <c r="N64" s="71"/>
+      <c r="O64" s="71"/>
+      <c r="P64" s="71"/>
+      <c r="Q64" s="71"/>
+      <c r="R64" s="71"/>
+      <c r="S64" s="71"/>
+      <c r="T64" s="71"/>
       <c r="U64" s="15"/>
       <c r="V64" s="15"/>
       <c r="W64" s="15"/>
@@ -10563,47 +10884,49 @@
       <c r="Z64" s="15"/>
       <c r="AA64" s="15"/>
     </row>
-    <row r="65" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A65" s="84">
+    <row r="65" spans="1:27" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="71">
         <v>62</v>
       </c>
-      <c r="B65" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="C65" s="84" t="s">
-        <v>282</v>
-      </c>
-      <c r="D65" s="84"/>
-      <c r="E65" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="F65" s="84"/>
-      <c r="G65" s="84" t="s">
-        <v>284</v>
-      </c>
-      <c r="H65" s="84" t="s">
-        <v>285</v>
-      </c>
-      <c r="I65" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="J65" s="84" t="s">
+      <c r="B65" s="71" t="s">
+        <v>376</v>
+      </c>
+      <c r="C65" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="72" t="s">
+        <v>167</v>
+      </c>
+      <c r="E65" s="72" t="s">
+        <v>393</v>
+      </c>
+      <c r="F65" s="71"/>
+      <c r="G65" s="72" t="s">
+        <v>394</v>
+      </c>
+      <c r="H65" s="72" t="s">
+        <v>395</v>
+      </c>
+      <c r="I65" s="72" t="s">
+        <v>396</v>
+      </c>
+      <c r="J65" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K65" s="84"/>
-      <c r="L65" s="84" t="s">
+      <c r="K65" s="71"/>
+      <c r="L65" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M65" s="86">
-        <v>41429</v>
-      </c>
-      <c r="N65" s="84"/>
-      <c r="O65" s="84"/>
-      <c r="P65" s="84"/>
-      <c r="Q65" s="84"/>
-      <c r="R65" s="84"/>
-      <c r="S65" s="84"/>
-      <c r="T65" s="84"/>
+      <c r="M65" s="73">
+        <v>44203</v>
+      </c>
+      <c r="N65" s="71"/>
+      <c r="O65" s="71"/>
+      <c r="P65" s="71"/>
+      <c r="Q65" s="71"/>
+      <c r="R65" s="71"/>
+      <c r="S65" s="71"/>
+      <c r="T65" s="71"/>
       <c r="U65" s="15"/>
       <c r="V65" s="15"/>
       <c r="W65" s="15"/>
@@ -10612,47 +10935,49 @@
       <c r="Z65" s="15"/>
       <c r="AA65" s="15"/>
     </row>
-    <row r="66" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A66" s="84">
+    <row r="66" spans="1:27" ht="72" x14ac:dyDescent="0.25">
+      <c r="A66" s="71">
         <v>63</v>
       </c>
-      <c r="B66" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="C66" s="84" t="s">
-        <v>282</v>
-      </c>
-      <c r="D66" s="84"/>
-      <c r="E66" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="F66" s="84"/>
-      <c r="G66" s="84" t="s">
-        <v>284</v>
-      </c>
-      <c r="H66" s="84" t="s">
-        <v>285</v>
-      </c>
-      <c r="I66" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="J66" s="84" t="s">
-        <v>60</v>
-      </c>
-      <c r="K66" s="84"/>
-      <c r="L66" s="84" t="s">
+      <c r="B66" s="71" t="s">
+        <v>377</v>
+      </c>
+      <c r="C66" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" s="72" t="s">
+        <v>397</v>
+      </c>
+      <c r="E66" s="72" t="s">
+        <v>398</v>
+      </c>
+      <c r="F66" s="71"/>
+      <c r="G66" s="72" t="s">
+        <v>399</v>
+      </c>
+      <c r="H66" s="72" t="s">
+        <v>400</v>
+      </c>
+      <c r="I66" s="72" t="s">
+        <v>400</v>
+      </c>
+      <c r="J66" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="K66" s="71"/>
+      <c r="L66" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M66" s="86">
-        <v>41429</v>
-      </c>
-      <c r="N66" s="84"/>
-      <c r="O66" s="84"/>
-      <c r="P66" s="84"/>
-      <c r="Q66" s="84"/>
-      <c r="R66" s="84"/>
-      <c r="S66" s="84"/>
-      <c r="T66" s="84"/>
+      <c r="M66" s="73">
+        <v>44203</v>
+      </c>
+      <c r="N66" s="71"/>
+      <c r="O66" s="71"/>
+      <c r="P66" s="71"/>
+      <c r="Q66" s="71"/>
+      <c r="R66" s="71"/>
+      <c r="S66" s="71"/>
+      <c r="T66" s="71"/>
       <c r="U66" s="15"/>
       <c r="V66" s="15"/>
       <c r="W66" s="15"/>
@@ -10661,47 +10986,49 @@
       <c r="Z66" s="15"/>
       <c r="AA66" s="15"/>
     </row>
-    <row r="67" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A67" s="84">
+    <row r="67" spans="1:27" ht="72" x14ac:dyDescent="0.25">
+      <c r="A67" s="71">
         <v>64</v>
       </c>
-      <c r="B67" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="C67" s="84" t="s">
-        <v>282</v>
-      </c>
-      <c r="D67" s="84"/>
-      <c r="E67" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="F67" s="84"/>
-      <c r="G67" s="84" t="s">
-        <v>284</v>
-      </c>
-      <c r="H67" s="84" t="s">
-        <v>285</v>
-      </c>
-      <c r="I67" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="J67" s="84" t="s">
-        <v>60</v>
-      </c>
-      <c r="K67" s="84"/>
-      <c r="L67" s="84" t="s">
+      <c r="B67" s="71" t="s">
+        <v>420</v>
+      </c>
+      <c r="C67" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="E67" s="72" t="s">
+        <v>401</v>
+      </c>
+      <c r="F67" s="71"/>
+      <c r="G67" s="72" t="s">
+        <v>402</v>
+      </c>
+      <c r="H67" s="72" t="s">
+        <v>400</v>
+      </c>
+      <c r="I67" s="72" t="s">
+        <v>400</v>
+      </c>
+      <c r="J67" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="K67" s="71"/>
+      <c r="L67" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M67" s="86">
-        <v>41429</v>
-      </c>
-      <c r="N67" s="84"/>
-      <c r="O67" s="84"/>
-      <c r="P67" s="84"/>
-      <c r="Q67" s="84"/>
-      <c r="R67" s="84"/>
-      <c r="S67" s="84"/>
-      <c r="T67" s="84"/>
+      <c r="M67" s="73">
+        <v>44203</v>
+      </c>
+      <c r="N67" s="71"/>
+      <c r="O67" s="71"/>
+      <c r="P67" s="71"/>
+      <c r="Q67" s="71"/>
+      <c r="R67" s="71"/>
+      <c r="S67" s="71"/>
+      <c r="T67" s="71"/>
       <c r="U67" s="15"/>
       <c r="V67" s="15"/>
       <c r="W67" s="15"/>
@@ -10710,47 +11037,49 @@
       <c r="Z67" s="15"/>
       <c r="AA67" s="15"/>
     </row>
-    <row r="68" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A68" s="84">
+    <row r="68" spans="1:27" ht="57.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="71">
         <v>65</v>
       </c>
-      <c r="B68" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="C68" s="84" t="s">
-        <v>282</v>
-      </c>
-      <c r="D68" s="84"/>
-      <c r="E68" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="F68" s="84"/>
-      <c r="G68" s="84" t="s">
-        <v>284</v>
-      </c>
-      <c r="H68" s="84" t="s">
-        <v>285</v>
-      </c>
-      <c r="I68" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="J68" s="84" t="s">
-        <v>60</v>
-      </c>
-      <c r="K68" s="84"/>
-      <c r="L68" s="84" t="s">
+      <c r="B68" s="71" t="s">
+        <v>421</v>
+      </c>
+      <c r="C68" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="E68" s="72" t="s">
+        <v>403</v>
+      </c>
+      <c r="F68" s="71"/>
+      <c r="G68" s="72" t="s">
+        <v>404</v>
+      </c>
+      <c r="H68" s="72" t="s">
+        <v>405</v>
+      </c>
+      <c r="I68" s="72" t="s">
+        <v>405</v>
+      </c>
+      <c r="J68" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="K68" s="71"/>
+      <c r="L68" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M68" s="86">
-        <v>41429</v>
-      </c>
-      <c r="N68" s="84"/>
-      <c r="O68" s="84"/>
-      <c r="P68" s="84"/>
-      <c r="Q68" s="84"/>
-      <c r="R68" s="84"/>
-      <c r="S68" s="84"/>
-      <c r="T68" s="84"/>
+      <c r="M68" s="73">
+        <v>44203</v>
+      </c>
+      <c r="N68" s="71"/>
+      <c r="O68" s="71"/>
+      <c r="P68" s="71"/>
+      <c r="Q68" s="71"/>
+      <c r="R68" s="71"/>
+      <c r="S68" s="71"/>
+      <c r="T68" s="71"/>
       <c r="U68" s="15"/>
       <c r="V68" s="15"/>
       <c r="W68" s="15"/>
@@ -10759,47 +11088,49 @@
       <c r="Z68" s="15"/>
       <c r="AA68" s="15"/>
     </row>
-    <row r="69" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="84">
+    <row r="69" spans="1:27" ht="100.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="71">
         <v>66</v>
       </c>
-      <c r="B69" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="C69" s="84" t="s">
-        <v>282</v>
-      </c>
-      <c r="D69" s="84"/>
-      <c r="E69" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="F69" s="84"/>
-      <c r="G69" s="84" t="s">
-        <v>284</v>
-      </c>
-      <c r="H69" s="84" t="s">
-        <v>285</v>
-      </c>
-      <c r="I69" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="J69" s="84" t="s">
-        <v>60</v>
-      </c>
-      <c r="K69" s="84"/>
-      <c r="L69" s="84" t="s">
+      <c r="B69" s="71" t="s">
+        <v>422</v>
+      </c>
+      <c r="C69" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="E69" s="72" t="s">
+        <v>406</v>
+      </c>
+      <c r="F69" s="71"/>
+      <c r="G69" s="72" t="s">
+        <v>407</v>
+      </c>
+      <c r="H69" s="72" t="s">
+        <v>408</v>
+      </c>
+      <c r="I69" s="72" t="s">
+        <v>408</v>
+      </c>
+      <c r="J69" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="K69" s="71"/>
+      <c r="L69" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M69" s="86">
-        <v>41429</v>
-      </c>
-      <c r="N69" s="84"/>
-      <c r="O69" s="84"/>
-      <c r="P69" s="84"/>
-      <c r="Q69" s="84"/>
-      <c r="R69" s="84"/>
-      <c r="S69" s="84"/>
-      <c r="T69" s="84"/>
+      <c r="M69" s="73">
+        <v>44203</v>
+      </c>
+      <c r="N69" s="71"/>
+      <c r="O69" s="71"/>
+      <c r="P69" s="71"/>
+      <c r="Q69" s="71"/>
+      <c r="R69" s="71"/>
+      <c r="S69" s="71"/>
+      <c r="T69" s="71"/>
       <c r="U69" s="15"/>
       <c r="V69" s="15"/>
       <c r="W69" s="15"/>
@@ -10808,47 +11139,49 @@
       <c r="Z69" s="15"/>
       <c r="AA69" s="15"/>
     </row>
-    <row r="70" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A70" s="84">
+    <row r="70" spans="1:27" ht="100.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="71">
         <v>67</v>
       </c>
-      <c r="B70" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="C70" s="84" t="s">
-        <v>282</v>
-      </c>
-      <c r="D70" s="84"/>
-      <c r="E70" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="F70" s="84"/>
-      <c r="G70" s="84" t="s">
-        <v>284</v>
-      </c>
-      <c r="H70" s="84" t="s">
-        <v>285</v>
-      </c>
-      <c r="I70" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="J70" s="84" t="s">
-        <v>60</v>
-      </c>
-      <c r="K70" s="84"/>
-      <c r="L70" s="84" t="s">
+      <c r="B70" s="71" t="s">
+        <v>423</v>
+      </c>
+      <c r="C70" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="E70" s="72" t="s">
+        <v>409</v>
+      </c>
+      <c r="F70" s="71"/>
+      <c r="G70" s="72" t="s">
+        <v>410</v>
+      </c>
+      <c r="H70" s="72" t="s">
+        <v>414</v>
+      </c>
+      <c r="I70" s="72" t="s">
+        <v>411</v>
+      </c>
+      <c r="J70" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="K70" s="71"/>
+      <c r="L70" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M70" s="86">
-        <v>41429</v>
-      </c>
-      <c r="N70" s="84"/>
-      <c r="O70" s="84"/>
-      <c r="P70" s="84"/>
-      <c r="Q70" s="84"/>
-      <c r="R70" s="84"/>
-      <c r="S70" s="84"/>
-      <c r="T70" s="84"/>
+      <c r="M70" s="73">
+        <v>44203</v>
+      </c>
+      <c r="N70" s="71"/>
+      <c r="O70" s="71"/>
+      <c r="P70" s="71"/>
+      <c r="Q70" s="71"/>
+      <c r="R70" s="71"/>
+      <c r="S70" s="71"/>
+      <c r="T70" s="71"/>
       <c r="U70" s="15"/>
       <c r="V70" s="15"/>
       <c r="W70" s="15"/>
@@ -10857,47 +11190,49 @@
       <c r="Z70" s="15"/>
       <c r="AA70" s="15"/>
     </row>
-    <row r="71" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A71" s="84">
+    <row r="71" spans="1:27" ht="100.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="71">
         <v>68</v>
       </c>
-      <c r="B71" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="C71" s="84" t="s">
-        <v>282</v>
-      </c>
-      <c r="D71" s="84"/>
-      <c r="E71" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="F71" s="84"/>
-      <c r="G71" s="84" t="s">
-        <v>284</v>
-      </c>
-      <c r="H71" s="84" t="s">
-        <v>285</v>
-      </c>
-      <c r="I71" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="J71" s="84" t="s">
-        <v>60</v>
-      </c>
-      <c r="K71" s="84"/>
-      <c r="L71" s="84" t="s">
+      <c r="B71" s="71" t="s">
+        <v>424</v>
+      </c>
+      <c r="C71" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="E71" s="72" t="s">
+        <v>413</v>
+      </c>
+      <c r="F71" s="71"/>
+      <c r="G71" s="72" t="s">
+        <v>419</v>
+      </c>
+      <c r="H71" s="72" t="s">
+        <v>415</v>
+      </c>
+      <c r="I71" s="72" t="s">
+        <v>415</v>
+      </c>
+      <c r="J71" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="K71" s="71"/>
+      <c r="L71" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M71" s="86">
-        <v>41429</v>
-      </c>
-      <c r="N71" s="84"/>
-      <c r="O71" s="84"/>
-      <c r="P71" s="84"/>
-      <c r="Q71" s="84"/>
-      <c r="R71" s="84"/>
-      <c r="S71" s="84"/>
-      <c r="T71" s="84"/>
+      <c r="M71" s="73">
+        <v>44203</v>
+      </c>
+      <c r="N71" s="71"/>
+      <c r="O71" s="71"/>
+      <c r="P71" s="71"/>
+      <c r="Q71" s="71"/>
+      <c r="R71" s="71"/>
+      <c r="S71" s="71"/>
+      <c r="T71" s="71"/>
       <c r="U71" s="15"/>
       <c r="V71" s="15"/>
       <c r="W71" s="15"/>
@@ -10906,47 +11241,49 @@
       <c r="Z71" s="15"/>
       <c r="AA71" s="15"/>
     </row>
-    <row r="72" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A72" s="84">
+    <row r="72" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
+      <c r="A72" s="71">
         <v>69</v>
       </c>
-      <c r="B72" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="C72" s="84" t="s">
-        <v>282</v>
-      </c>
-      <c r="D72" s="84"/>
-      <c r="E72" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="F72" s="84"/>
-      <c r="G72" s="84" t="s">
-        <v>284</v>
-      </c>
-      <c r="H72" s="84" t="s">
-        <v>285</v>
-      </c>
-      <c r="I72" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="J72" s="84" t="s">
+      <c r="B72" s="71" t="s">
+        <v>425</v>
+      </c>
+      <c r="C72" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" s="72" t="s">
+        <v>167</v>
+      </c>
+      <c r="E72" s="92" t="s">
+        <v>416</v>
+      </c>
+      <c r="F72" s="71"/>
+      <c r="G72" s="72" t="s">
+        <v>417</v>
+      </c>
+      <c r="H72" s="72" t="s">
+        <v>367</v>
+      </c>
+      <c r="I72" s="72" t="s">
+        <v>368</v>
+      </c>
+      <c r="J72" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K72" s="84"/>
-      <c r="L72" s="84" t="s">
+      <c r="K72" s="71"/>
+      <c r="L72" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M72" s="86">
-        <v>41429</v>
-      </c>
-      <c r="N72" s="84"/>
-      <c r="O72" s="84"/>
-      <c r="P72" s="84"/>
-      <c r="Q72" s="84"/>
-      <c r="R72" s="84"/>
-      <c r="S72" s="84"/>
-      <c r="T72" s="84"/>
+      <c r="M72" s="73">
+        <v>44203</v>
+      </c>
+      <c r="N72" s="71"/>
+      <c r="O72" s="71"/>
+      <c r="P72" s="71"/>
+      <c r="Q72" s="71"/>
+      <c r="R72" s="71"/>
+      <c r="S72" s="71"/>
+      <c r="T72" s="71"/>
       <c r="U72" s="15"/>
       <c r="V72" s="15"/>
       <c r="W72" s="15"/>
@@ -10955,47 +11292,49 @@
       <c r="Z72" s="15"/>
       <c r="AA72" s="15"/>
     </row>
-    <row r="73" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A73" s="84">
+    <row r="73" spans="1:27" ht="100.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="71">
         <v>70</v>
       </c>
-      <c r="B73" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="C73" s="84" t="s">
-        <v>282</v>
-      </c>
-      <c r="D73" s="84"/>
-      <c r="E73" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="F73" s="84"/>
-      <c r="G73" s="84" t="s">
-        <v>284</v>
-      </c>
-      <c r="H73" s="84" t="s">
-        <v>285</v>
-      </c>
-      <c r="I73" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="J73" s="84" t="s">
+      <c r="B73" s="71" t="s">
+        <v>426</v>
+      </c>
+      <c r="C73" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" s="72" t="s">
+        <v>167</v>
+      </c>
+      <c r="E73" s="72" t="s">
+        <v>418</v>
+      </c>
+      <c r="F73" s="71"/>
+      <c r="G73" s="72" t="s">
+        <v>419</v>
+      </c>
+      <c r="H73" s="72" t="s">
+        <v>395</v>
+      </c>
+      <c r="I73" s="72" t="s">
+        <v>396</v>
+      </c>
+      <c r="J73" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K73" s="84"/>
-      <c r="L73" s="84" t="s">
+      <c r="K73" s="71"/>
+      <c r="L73" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M73" s="86">
-        <v>41429</v>
-      </c>
-      <c r="N73" s="84"/>
-      <c r="O73" s="84"/>
-      <c r="P73" s="84"/>
-      <c r="Q73" s="84"/>
-      <c r="R73" s="84"/>
-      <c r="S73" s="84"/>
-      <c r="T73" s="84"/>
+      <c r="M73" s="73">
+        <v>44203</v>
+      </c>
+      <c r="N73" s="71"/>
+      <c r="O73" s="71"/>
+      <c r="P73" s="71"/>
+      <c r="Q73" s="71"/>
+      <c r="R73" s="71"/>
+      <c r="S73" s="71"/>
+      <c r="T73" s="71"/>
       <c r="U73" s="15"/>
       <c r="V73" s="15"/>
       <c r="W73" s="15"/>
@@ -11005,46 +11344,44 @@
       <c r="AA73" s="15"/>
     </row>
     <row r="74" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A74" s="84">
+      <c r="A74" s="71">
         <v>71</v>
       </c>
-      <c r="B74" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="C74" s="84" t="s">
+      <c r="B74" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="C74" s="71" t="s">
+        <v>281</v>
+      </c>
+      <c r="D74" s="71"/>
+      <c r="E74" s="71" t="s">
         <v>282</v>
       </c>
-      <c r="D74" s="84"/>
-      <c r="E74" s="84" t="s">
+      <c r="F74" s="71"/>
+      <c r="G74" s="71" t="s">
         <v>283</v>
       </c>
-      <c r="F74" s="84"/>
-      <c r="G74" s="84" t="s">
+      <c r="H74" s="71" t="s">
         <v>284</v>
       </c>
-      <c r="H74" s="84" t="s">
+      <c r="I74" s="71" t="s">
         <v>285</v>
       </c>
-      <c r="I74" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="J74" s="84" t="s">
+      <c r="J74" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K74" s="84"/>
-      <c r="L74" s="84" t="s">
+      <c r="K74" s="71"/>
+      <c r="L74" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M74" s="86">
-        <v>41429</v>
-      </c>
-      <c r="N74" s="84"/>
-      <c r="O74" s="84"/>
-      <c r="P74" s="84"/>
-      <c r="Q74" s="84"/>
-      <c r="R74" s="84"/>
-      <c r="S74" s="84"/>
-      <c r="T74" s="84"/>
+      <c r="M74" s="73"/>
+      <c r="N74" s="71"/>
+      <c r="O74" s="71"/>
+      <c r="P74" s="71"/>
+      <c r="Q74" s="71"/>
+      <c r="R74" s="71"/>
+      <c r="S74" s="71"/>
+      <c r="T74" s="71"/>
       <c r="U74" s="15"/>
       <c r="V74" s="15"/>
       <c r="W74" s="15"/>
@@ -11054,46 +11391,44 @@
       <c r="AA74" s="15"/>
     </row>
     <row r="75" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A75" s="84">
+      <c r="A75" s="71">
         <v>72</v>
       </c>
-      <c r="B75" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="C75" s="84" t="s">
+      <c r="B75" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="C75" s="71" t="s">
+        <v>281</v>
+      </c>
+      <c r="D75" s="71"/>
+      <c r="E75" s="71" t="s">
         <v>282</v>
       </c>
-      <c r="D75" s="84"/>
-      <c r="E75" s="84" t="s">
+      <c r="F75" s="71"/>
+      <c r="G75" s="71" t="s">
         <v>283</v>
       </c>
-      <c r="F75" s="84"/>
-      <c r="G75" s="84" t="s">
+      <c r="H75" s="71" t="s">
         <v>284</v>
       </c>
-      <c r="H75" s="84" t="s">
+      <c r="I75" s="71" t="s">
         <v>285</v>
       </c>
-      <c r="I75" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="J75" s="84" t="s">
+      <c r="J75" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K75" s="84"/>
-      <c r="L75" s="84" t="s">
+      <c r="K75" s="71"/>
+      <c r="L75" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M75" s="86">
-        <v>41429</v>
-      </c>
-      <c r="N75" s="84"/>
-      <c r="O75" s="84"/>
-      <c r="P75" s="84"/>
-      <c r="Q75" s="84"/>
-      <c r="R75" s="84"/>
-      <c r="S75" s="84"/>
-      <c r="T75" s="84"/>
+      <c r="M75" s="73"/>
+      <c r="N75" s="71"/>
+      <c r="O75" s="71"/>
+      <c r="P75" s="71"/>
+      <c r="Q75" s="71"/>
+      <c r="R75" s="71"/>
+      <c r="S75" s="71"/>
+      <c r="T75" s="71"/>
       <c r="U75" s="15"/>
       <c r="V75" s="15"/>
       <c r="W75" s="15"/>
@@ -11103,46 +11438,44 @@
       <c r="AA75" s="15"/>
     </row>
     <row r="76" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A76" s="84">
+      <c r="A76" s="71">
         <v>73</v>
       </c>
-      <c r="B76" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="C76" s="84" t="s">
+      <c r="B76" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="C76" s="71" t="s">
+        <v>281</v>
+      </c>
+      <c r="D76" s="71"/>
+      <c r="E76" s="71" t="s">
         <v>282</v>
       </c>
-      <c r="D76" s="84"/>
-      <c r="E76" s="84" t="s">
+      <c r="F76" s="71"/>
+      <c r="G76" s="71" t="s">
         <v>283</v>
       </c>
-      <c r="F76" s="84"/>
-      <c r="G76" s="84" t="s">
+      <c r="H76" s="71" t="s">
         <v>284</v>
       </c>
-      <c r="H76" s="84" t="s">
+      <c r="I76" s="71" t="s">
         <v>285</v>
       </c>
-      <c r="I76" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="J76" s="84" t="s">
+      <c r="J76" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K76" s="84"/>
-      <c r="L76" s="84" t="s">
+      <c r="K76" s="71"/>
+      <c r="L76" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M76" s="86">
-        <v>41429</v>
-      </c>
-      <c r="N76" s="84"/>
-      <c r="O76" s="84"/>
-      <c r="P76" s="84"/>
-      <c r="Q76" s="84"/>
-      <c r="R76" s="84"/>
-      <c r="S76" s="84"/>
-      <c r="T76" s="84"/>
+      <c r="M76" s="73"/>
+      <c r="N76" s="71"/>
+      <c r="O76" s="71"/>
+      <c r="P76" s="71"/>
+      <c r="Q76" s="71"/>
+      <c r="R76" s="71"/>
+      <c r="S76" s="71"/>
+      <c r="T76" s="71"/>
       <c r="U76" s="15"/>
       <c r="V76" s="15"/>
       <c r="W76" s="15"/>
@@ -11152,46 +11485,44 @@
       <c r="AA76" s="15"/>
     </row>
     <row r="77" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A77" s="84">
+      <c r="A77" s="71">
         <v>74</v>
       </c>
-      <c r="B77" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="C77" s="84" t="s">
+      <c r="B77" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="C77" s="71" t="s">
+        <v>281</v>
+      </c>
+      <c r="D77" s="71"/>
+      <c r="E77" s="71" t="s">
         <v>282</v>
       </c>
-      <c r="D77" s="84"/>
-      <c r="E77" s="84" t="s">
+      <c r="F77" s="71"/>
+      <c r="G77" s="71" t="s">
         <v>283</v>
       </c>
-      <c r="F77" s="84"/>
-      <c r="G77" s="84" t="s">
+      <c r="H77" s="71" t="s">
         <v>284</v>
       </c>
-      <c r="H77" s="84" t="s">
+      <c r="I77" s="71" t="s">
         <v>285</v>
       </c>
-      <c r="I77" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="J77" s="84" t="s">
+      <c r="J77" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K77" s="84"/>
-      <c r="L77" s="84" t="s">
+      <c r="K77" s="71"/>
+      <c r="L77" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M77" s="86">
-        <v>41429</v>
-      </c>
-      <c r="N77" s="84"/>
-      <c r="O77" s="84"/>
-      <c r="P77" s="84"/>
-      <c r="Q77" s="84"/>
-      <c r="R77" s="84"/>
-      <c r="S77" s="84"/>
-      <c r="T77" s="84"/>
+      <c r="M77" s="73"/>
+      <c r="N77" s="71"/>
+      <c r="O77" s="71"/>
+      <c r="P77" s="71"/>
+      <c r="Q77" s="71"/>
+      <c r="R77" s="71"/>
+      <c r="S77" s="71"/>
+      <c r="T77" s="71"/>
       <c r="U77" s="15"/>
       <c r="V77" s="15"/>
       <c r="W77" s="15"/>
@@ -11201,46 +11532,44 @@
       <c r="AA77" s="15"/>
     </row>
     <row r="78" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A78" s="84">
+      <c r="A78" s="71">
         <v>75</v>
       </c>
-      <c r="B78" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="C78" s="84" t="s">
+      <c r="B78" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="C78" s="71" t="s">
+        <v>281</v>
+      </c>
+      <c r="D78" s="71"/>
+      <c r="E78" s="71" t="s">
         <v>282</v>
       </c>
-      <c r="D78" s="84"/>
-      <c r="E78" s="84" t="s">
+      <c r="F78" s="71"/>
+      <c r="G78" s="71" t="s">
         <v>283</v>
       </c>
-      <c r="F78" s="84"/>
-      <c r="G78" s="84" t="s">
+      <c r="H78" s="71" t="s">
         <v>284</v>
       </c>
-      <c r="H78" s="84" t="s">
+      <c r="I78" s="71" t="s">
         <v>285</v>
       </c>
-      <c r="I78" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="J78" s="84" t="s">
+      <c r="J78" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K78" s="84"/>
-      <c r="L78" s="84" t="s">
+      <c r="K78" s="71"/>
+      <c r="L78" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M78" s="86">
-        <v>41429</v>
-      </c>
-      <c r="N78" s="84"/>
-      <c r="O78" s="84"/>
-      <c r="P78" s="84"/>
-      <c r="Q78" s="84"/>
-      <c r="R78" s="84"/>
-      <c r="S78" s="84"/>
-      <c r="T78" s="84"/>
+      <c r="M78" s="73"/>
+      <c r="N78" s="71"/>
+      <c r="O78" s="71"/>
+      <c r="P78" s="71"/>
+      <c r="Q78" s="71"/>
+      <c r="R78" s="71"/>
+      <c r="S78" s="71"/>
+      <c r="T78" s="71"/>
       <c r="U78" s="15"/>
       <c r="V78" s="15"/>
       <c r="W78" s="15"/>
@@ -11250,46 +11579,44 @@
       <c r="AA78" s="15"/>
     </row>
     <row r="79" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A79" s="84">
+      <c r="A79" s="71">
         <v>76</v>
       </c>
-      <c r="B79" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="C79" s="84" t="s">
+      <c r="B79" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="C79" s="71" t="s">
+        <v>281</v>
+      </c>
+      <c r="D79" s="71"/>
+      <c r="E79" s="71" t="s">
         <v>282</v>
       </c>
-      <c r="D79" s="84"/>
-      <c r="E79" s="84" t="s">
+      <c r="F79" s="71"/>
+      <c r="G79" s="71" t="s">
         <v>283</v>
       </c>
-      <c r="F79" s="84"/>
-      <c r="G79" s="84" t="s">
+      <c r="H79" s="71" t="s">
         <v>284</v>
       </c>
-      <c r="H79" s="84" t="s">
+      <c r="I79" s="71" t="s">
         <v>285</v>
       </c>
-      <c r="I79" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="J79" s="84" t="s">
+      <c r="J79" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K79" s="84"/>
-      <c r="L79" s="84" t="s">
+      <c r="K79" s="71"/>
+      <c r="L79" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M79" s="86">
-        <v>41429</v>
-      </c>
-      <c r="N79" s="84"/>
-      <c r="O79" s="84"/>
-      <c r="P79" s="84"/>
-      <c r="Q79" s="84"/>
-      <c r="R79" s="84"/>
-      <c r="S79" s="84"/>
-      <c r="T79" s="84"/>
+      <c r="M79" s="73"/>
+      <c r="N79" s="71"/>
+      <c r="O79" s="71"/>
+      <c r="P79" s="71"/>
+      <c r="Q79" s="71"/>
+      <c r="R79" s="71"/>
+      <c r="S79" s="71"/>
+      <c r="T79" s="71"/>
       <c r="U79" s="15"/>
       <c r="V79" s="15"/>
       <c r="W79" s="15"/>
@@ -11299,46 +11626,44 @@
       <c r="AA79" s="15"/>
     </row>
     <row r="80" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A80" s="84">
+      <c r="A80" s="71">
         <v>77</v>
       </c>
-      <c r="B80" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="C80" s="84" t="s">
+      <c r="B80" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="C80" s="71" t="s">
+        <v>281</v>
+      </c>
+      <c r="D80" s="71"/>
+      <c r="E80" s="71" t="s">
         <v>282</v>
       </c>
-      <c r="D80" s="84"/>
-      <c r="E80" s="84" t="s">
+      <c r="F80" s="71"/>
+      <c r="G80" s="71" t="s">
         <v>283</v>
       </c>
-      <c r="F80" s="84"/>
-      <c r="G80" s="84" t="s">
+      <c r="H80" s="71" t="s">
         <v>284</v>
       </c>
-      <c r="H80" s="84" t="s">
+      <c r="I80" s="71" t="s">
         <v>285</v>
       </c>
-      <c r="I80" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="J80" s="84" t="s">
+      <c r="J80" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K80" s="84"/>
-      <c r="L80" s="84" t="s">
+      <c r="K80" s="71"/>
+      <c r="L80" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M80" s="86">
-        <v>41429</v>
-      </c>
-      <c r="N80" s="84"/>
-      <c r="O80" s="84"/>
-      <c r="P80" s="84"/>
-      <c r="Q80" s="84"/>
-      <c r="R80" s="84"/>
-      <c r="S80" s="84"/>
-      <c r="T80" s="84"/>
+      <c r="M80" s="73"/>
+      <c r="N80" s="71"/>
+      <c r="O80" s="71"/>
+      <c r="P80" s="71"/>
+      <c r="Q80" s="71"/>
+      <c r="R80" s="71"/>
+      <c r="S80" s="71"/>
+      <c r="T80" s="71"/>
       <c r="U80" s="15"/>
       <c r="V80" s="15"/>
       <c r="W80" s="15"/>
@@ -11348,46 +11673,44 @@
       <c r="AA80" s="15"/>
     </row>
     <row r="81" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A81" s="84">
+      <c r="A81" s="71">
         <v>78</v>
       </c>
-      <c r="B81" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="C81" s="84" t="s">
+      <c r="B81" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="C81" s="71" t="s">
+        <v>281</v>
+      </c>
+      <c r="D81" s="71"/>
+      <c r="E81" s="71" t="s">
         <v>282</v>
       </c>
-      <c r="D81" s="84"/>
-      <c r="E81" s="84" t="s">
+      <c r="F81" s="71"/>
+      <c r="G81" s="71" t="s">
         <v>283</v>
       </c>
-      <c r="F81" s="84"/>
-      <c r="G81" s="84" t="s">
+      <c r="H81" s="71" t="s">
         <v>284</v>
       </c>
-      <c r="H81" s="84" t="s">
+      <c r="I81" s="71" t="s">
         <v>285</v>
       </c>
-      <c r="I81" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="J81" s="84" t="s">
+      <c r="J81" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K81" s="84"/>
-      <c r="L81" s="84" t="s">
+      <c r="K81" s="71"/>
+      <c r="L81" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M81" s="86">
-        <v>41429</v>
-      </c>
-      <c r="N81" s="84"/>
-      <c r="O81" s="84"/>
-      <c r="P81" s="84"/>
-      <c r="Q81" s="84"/>
-      <c r="R81" s="84"/>
-      <c r="S81" s="84"/>
-      <c r="T81" s="84"/>
+      <c r="M81" s="73"/>
+      <c r="N81" s="71"/>
+      <c r="O81" s="71"/>
+      <c r="P81" s="71"/>
+      <c r="Q81" s="71"/>
+      <c r="R81" s="71"/>
+      <c r="S81" s="71"/>
+      <c r="T81" s="71"/>
       <c r="U81" s="15"/>
       <c r="V81" s="15"/>
       <c r="W81" s="15"/>
@@ -11397,46 +11720,44 @@
       <c r="AA81" s="15"/>
     </row>
     <row r="82" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A82" s="84">
+      <c r="A82" s="71">
         <v>79</v>
       </c>
-      <c r="B82" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="C82" s="84" t="s">
+      <c r="B82" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="C82" s="71" t="s">
+        <v>281</v>
+      </c>
+      <c r="D82" s="71"/>
+      <c r="E82" s="71" t="s">
         <v>282</v>
       </c>
-      <c r="D82" s="84"/>
-      <c r="E82" s="84" t="s">
+      <c r="F82" s="71"/>
+      <c r="G82" s="71" t="s">
         <v>283</v>
       </c>
-      <c r="F82" s="84"/>
-      <c r="G82" s="84" t="s">
+      <c r="H82" s="71" t="s">
         <v>284</v>
       </c>
-      <c r="H82" s="84" t="s">
+      <c r="I82" s="71" t="s">
         <v>285</v>
       </c>
-      <c r="I82" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="J82" s="84" t="s">
+      <c r="J82" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K82" s="84"/>
-      <c r="L82" s="84" t="s">
+      <c r="K82" s="71"/>
+      <c r="L82" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M82" s="86">
-        <v>41429</v>
-      </c>
-      <c r="N82" s="84"/>
-      <c r="O82" s="84"/>
-      <c r="P82" s="84"/>
-      <c r="Q82" s="84"/>
-      <c r="R82" s="84"/>
-      <c r="S82" s="84"/>
-      <c r="T82" s="84"/>
+      <c r="M82" s="73"/>
+      <c r="N82" s="71"/>
+      <c r="O82" s="71"/>
+      <c r="P82" s="71"/>
+      <c r="Q82" s="71"/>
+      <c r="R82" s="71"/>
+      <c r="S82" s="71"/>
+      <c r="T82" s="71"/>
       <c r="U82" s="15"/>
       <c r="V82" s="15"/>
       <c r="W82" s="15"/>
@@ -11446,46 +11767,44 @@
       <c r="AA82" s="15"/>
     </row>
     <row r="83" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="84">
+      <c r="A83" s="71">
         <v>80</v>
       </c>
-      <c r="B83" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="C83" s="84" t="s">
+      <c r="B83" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="C83" s="71" t="s">
+        <v>281</v>
+      </c>
+      <c r="D83" s="71"/>
+      <c r="E83" s="71" t="s">
         <v>282</v>
       </c>
-      <c r="D83" s="84"/>
-      <c r="E83" s="84" t="s">
+      <c r="F83" s="71"/>
+      <c r="G83" s="71" t="s">
         <v>283</v>
       </c>
-      <c r="F83" s="84"/>
-      <c r="G83" s="84" t="s">
+      <c r="H83" s="71" t="s">
         <v>284</v>
       </c>
-      <c r="H83" s="84" t="s">
+      <c r="I83" s="71" t="s">
         <v>285</v>
       </c>
-      <c r="I83" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="J83" s="84" t="s">
+      <c r="J83" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K83" s="84"/>
-      <c r="L83" s="84" t="s">
+      <c r="K83" s="71"/>
+      <c r="L83" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M83" s="86">
-        <v>41429</v>
-      </c>
-      <c r="N83" s="84"/>
-      <c r="O83" s="84"/>
-      <c r="P83" s="84"/>
-      <c r="Q83" s="84"/>
-      <c r="R83" s="84"/>
-      <c r="S83" s="84"/>
-      <c r="T83" s="84"/>
+      <c r="M83" s="73"/>
+      <c r="N83" s="71"/>
+      <c r="O83" s="71"/>
+      <c r="P83" s="71"/>
+      <c r="Q83" s="71"/>
+      <c r="R83" s="71"/>
+      <c r="S83" s="71"/>
+      <c r="T83" s="71"/>
       <c r="U83" s="15"/>
       <c r="V83" s="15"/>
       <c r="W83" s="15"/>
@@ -11495,46 +11814,44 @@
       <c r="AA83" s="15"/>
     </row>
     <row r="84" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A84" s="84">
+      <c r="A84" s="71">
         <v>81</v>
       </c>
-      <c r="B84" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="C84" s="84" t="s">
+      <c r="B84" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="C84" s="71" t="s">
+        <v>281</v>
+      </c>
+      <c r="D84" s="71"/>
+      <c r="E84" s="71" t="s">
         <v>282</v>
       </c>
-      <c r="D84" s="84"/>
-      <c r="E84" s="84" t="s">
+      <c r="F84" s="71"/>
+      <c r="G84" s="71" t="s">
         <v>283</v>
       </c>
-      <c r="F84" s="84"/>
-      <c r="G84" s="84" t="s">
+      <c r="H84" s="71" t="s">
         <v>284</v>
       </c>
-      <c r="H84" s="84" t="s">
+      <c r="I84" s="71" t="s">
         <v>285</v>
       </c>
-      <c r="I84" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="J84" s="84" t="s">
+      <c r="J84" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K84" s="84"/>
-      <c r="L84" s="84" t="s">
+      <c r="K84" s="71"/>
+      <c r="L84" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M84" s="86">
-        <v>41429</v>
-      </c>
-      <c r="N84" s="84"/>
-      <c r="O84" s="84"/>
-      <c r="P84" s="84"/>
-      <c r="Q84" s="84"/>
-      <c r="R84" s="84"/>
-      <c r="S84" s="84"/>
-      <c r="T84" s="84"/>
+      <c r="M84" s="73"/>
+      <c r="N84" s="71"/>
+      <c r="O84" s="71"/>
+      <c r="P84" s="71"/>
+      <c r="Q84" s="71"/>
+      <c r="R84" s="71"/>
+      <c r="S84" s="71"/>
+      <c r="T84" s="71"/>
       <c r="U84" s="15"/>
       <c r="V84" s="15"/>
       <c r="W84" s="15"/>
@@ -11544,46 +11861,44 @@
       <c r="AA84" s="15"/>
     </row>
     <row r="85" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A85" s="84">
+      <c r="A85" s="71">
         <v>82</v>
       </c>
-      <c r="B85" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="C85" s="84" t="s">
+      <c r="B85" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="C85" s="71" t="s">
+        <v>281</v>
+      </c>
+      <c r="D85" s="71"/>
+      <c r="E85" s="71" t="s">
         <v>282</v>
       </c>
-      <c r="D85" s="84"/>
-      <c r="E85" s="84" t="s">
+      <c r="F85" s="71"/>
+      <c r="G85" s="71" t="s">
         <v>283</v>
       </c>
-      <c r="F85" s="84"/>
-      <c r="G85" s="84" t="s">
+      <c r="H85" s="71" t="s">
         <v>284</v>
       </c>
-      <c r="H85" s="84" t="s">
+      <c r="I85" s="71" t="s">
         <v>285</v>
       </c>
-      <c r="I85" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="J85" s="84" t="s">
+      <c r="J85" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K85" s="84"/>
-      <c r="L85" s="84" t="s">
+      <c r="K85" s="71"/>
+      <c r="L85" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M85" s="86">
-        <v>41429</v>
-      </c>
-      <c r="N85" s="84"/>
-      <c r="O85" s="84"/>
-      <c r="P85" s="84"/>
-      <c r="Q85" s="84"/>
-      <c r="R85" s="84"/>
-      <c r="S85" s="84"/>
-      <c r="T85" s="84"/>
+      <c r="M85" s="73"/>
+      <c r="N85" s="71"/>
+      <c r="O85" s="71"/>
+      <c r="P85" s="71"/>
+      <c r="Q85" s="71"/>
+      <c r="R85" s="71"/>
+      <c r="S85" s="71"/>
+      <c r="T85" s="71"/>
       <c r="U85" s="15"/>
       <c r="V85" s="15"/>
       <c r="W85" s="15"/>
@@ -11593,46 +11908,44 @@
       <c r="AA85" s="15"/>
     </row>
     <row r="86" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A86" s="84">
+      <c r="A86" s="71">
         <v>83</v>
       </c>
-      <c r="B86" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="C86" s="84" t="s">
+      <c r="B86" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="C86" s="71" t="s">
+        <v>281</v>
+      </c>
+      <c r="D86" s="71"/>
+      <c r="E86" s="71" t="s">
         <v>282</v>
       </c>
-      <c r="D86" s="84"/>
-      <c r="E86" s="84" t="s">
+      <c r="F86" s="71"/>
+      <c r="G86" s="71" t="s">
         <v>283</v>
       </c>
-      <c r="F86" s="84"/>
-      <c r="G86" s="84" t="s">
+      <c r="H86" s="71" t="s">
         <v>284</v>
       </c>
-      <c r="H86" s="84" t="s">
+      <c r="I86" s="71" t="s">
         <v>285</v>
       </c>
-      <c r="I86" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="J86" s="84" t="s">
+      <c r="J86" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K86" s="84"/>
-      <c r="L86" s="84" t="s">
+      <c r="K86" s="71"/>
+      <c r="L86" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M86" s="86">
-        <v>41429</v>
-      </c>
-      <c r="N86" s="84"/>
-      <c r="O86" s="84"/>
-      <c r="P86" s="84"/>
-      <c r="Q86" s="84"/>
-      <c r="R86" s="84"/>
-      <c r="S86" s="84"/>
-      <c r="T86" s="84"/>
+      <c r="M86" s="73"/>
+      <c r="N86" s="71"/>
+      <c r="O86" s="71"/>
+      <c r="P86" s="71"/>
+      <c r="Q86" s="71"/>
+      <c r="R86" s="71"/>
+      <c r="S86" s="71"/>
+      <c r="T86" s="71"/>
       <c r="U86" s="15"/>
       <c r="V86" s="15"/>
       <c r="W86" s="15"/>
@@ -11642,46 +11955,44 @@
       <c r="AA86" s="15"/>
     </row>
     <row r="87" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A87" s="84">
+      <c r="A87" s="71">
         <v>84</v>
       </c>
-      <c r="B87" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="C87" s="84" t="s">
+      <c r="B87" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="C87" s="71" t="s">
+        <v>281</v>
+      </c>
+      <c r="D87" s="71"/>
+      <c r="E87" s="71" t="s">
         <v>282</v>
       </c>
-      <c r="D87" s="84"/>
-      <c r="E87" s="84" t="s">
+      <c r="F87" s="71"/>
+      <c r="G87" s="71" t="s">
         <v>283</v>
       </c>
-      <c r="F87" s="84"/>
-      <c r="G87" s="84" t="s">
+      <c r="H87" s="71" t="s">
         <v>284</v>
       </c>
-      <c r="H87" s="84" t="s">
+      <c r="I87" s="71" t="s">
         <v>285</v>
       </c>
-      <c r="I87" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="J87" s="84" t="s">
+      <c r="J87" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K87" s="84"/>
-      <c r="L87" s="84" t="s">
+      <c r="K87" s="71"/>
+      <c r="L87" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M87" s="86">
-        <v>41429</v>
-      </c>
-      <c r="N87" s="84"/>
-      <c r="O87" s="84"/>
-      <c r="P87" s="84"/>
-      <c r="Q87" s="84"/>
-      <c r="R87" s="84"/>
-      <c r="S87" s="84"/>
-      <c r="T87" s="84"/>
+      <c r="M87" s="73"/>
+      <c r="N87" s="71"/>
+      <c r="O87" s="71"/>
+      <c r="P87" s="71"/>
+      <c r="Q87" s="71"/>
+      <c r="R87" s="71"/>
+      <c r="S87" s="71"/>
+      <c r="T87" s="71"/>
       <c r="U87" s="15"/>
       <c r="V87" s="15"/>
       <c r="W87" s="15"/>
@@ -11691,46 +12002,44 @@
       <c r="AA87" s="15"/>
     </row>
     <row r="88" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A88" s="84">
+      <c r="A88" s="71">
         <v>85</v>
       </c>
-      <c r="B88" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="C88" s="84" t="s">
+      <c r="B88" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="C88" s="71" t="s">
+        <v>281</v>
+      </c>
+      <c r="D88" s="71"/>
+      <c r="E88" s="71" t="s">
         <v>282</v>
       </c>
-      <c r="D88" s="84"/>
-      <c r="E88" s="84" t="s">
+      <c r="F88" s="71"/>
+      <c r="G88" s="71" t="s">
         <v>283</v>
       </c>
-      <c r="F88" s="84"/>
-      <c r="G88" s="84" t="s">
+      <c r="H88" s="71" t="s">
         <v>284</v>
       </c>
-      <c r="H88" s="84" t="s">
+      <c r="I88" s="71" t="s">
         <v>285</v>
       </c>
-      <c r="I88" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="J88" s="84" t="s">
+      <c r="J88" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K88" s="84"/>
-      <c r="L88" s="84" t="s">
+      <c r="K88" s="71"/>
+      <c r="L88" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M88" s="86">
-        <v>41429</v>
-      </c>
-      <c r="N88" s="84"/>
-      <c r="O88" s="84"/>
-      <c r="P88" s="84"/>
-      <c r="Q88" s="84"/>
-      <c r="R88" s="84"/>
-      <c r="S88" s="84"/>
-      <c r="T88" s="84"/>
+      <c r="M88" s="73"/>
+      <c r="N88" s="71"/>
+      <c r="O88" s="71"/>
+      <c r="P88" s="71"/>
+      <c r="Q88" s="71"/>
+      <c r="R88" s="71"/>
+      <c r="S88" s="71"/>
+      <c r="T88" s="71"/>
       <c r="U88" s="15"/>
       <c r="V88" s="15"/>
       <c r="W88" s="15"/>
@@ -11740,46 +12049,44 @@
       <c r="AA88" s="15"/>
     </row>
     <row r="89" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A89" s="84">
+      <c r="A89" s="71">
         <v>86</v>
       </c>
-      <c r="B89" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="C89" s="84" t="s">
+      <c r="B89" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="C89" s="71" t="s">
+        <v>281</v>
+      </c>
+      <c r="D89" s="71"/>
+      <c r="E89" s="71" t="s">
         <v>282</v>
       </c>
-      <c r="D89" s="84"/>
-      <c r="E89" s="84" t="s">
+      <c r="F89" s="71"/>
+      <c r="G89" s="71" t="s">
         <v>283</v>
       </c>
-      <c r="F89" s="84"/>
-      <c r="G89" s="84" t="s">
+      <c r="H89" s="71" t="s">
         <v>284</v>
       </c>
-      <c r="H89" s="84" t="s">
+      <c r="I89" s="71" t="s">
         <v>285</v>
       </c>
-      <c r="I89" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="J89" s="84" t="s">
+      <c r="J89" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K89" s="84"/>
-      <c r="L89" s="84" t="s">
+      <c r="K89" s="71"/>
+      <c r="L89" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M89" s="86">
-        <v>41429</v>
-      </c>
-      <c r="N89" s="84"/>
-      <c r="O89" s="84"/>
-      <c r="P89" s="84"/>
-      <c r="Q89" s="84"/>
-      <c r="R89" s="84"/>
-      <c r="S89" s="84"/>
-      <c r="T89" s="84"/>
+      <c r="M89" s="73"/>
+      <c r="N89" s="71"/>
+      <c r="O89" s="71"/>
+      <c r="P89" s="71"/>
+      <c r="Q89" s="71"/>
+      <c r="R89" s="71"/>
+      <c r="S89" s="71"/>
+      <c r="T89" s="71"/>
       <c r="U89" s="15"/>
       <c r="V89" s="15"/>
       <c r="W89" s="15"/>
@@ -11789,46 +12096,44 @@
       <c r="AA89" s="15"/>
     </row>
     <row r="90" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A90" s="84">
+      <c r="A90" s="71">
         <v>87</v>
       </c>
-      <c r="B90" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="C90" s="84" t="s">
+      <c r="B90" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="C90" s="71" t="s">
+        <v>281</v>
+      </c>
+      <c r="D90" s="71"/>
+      <c r="E90" s="71" t="s">
         <v>282</v>
       </c>
-      <c r="D90" s="84"/>
-      <c r="E90" s="84" t="s">
+      <c r="F90" s="71"/>
+      <c r="G90" s="71" t="s">
         <v>283</v>
       </c>
-      <c r="F90" s="84"/>
-      <c r="G90" s="84" t="s">
+      <c r="H90" s="71" t="s">
         <v>284</v>
       </c>
-      <c r="H90" s="84" t="s">
+      <c r="I90" s="71" t="s">
         <v>285</v>
       </c>
-      <c r="I90" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="J90" s="84" t="s">
+      <c r="J90" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K90" s="84"/>
-      <c r="L90" s="84" t="s">
+      <c r="K90" s="71"/>
+      <c r="L90" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M90" s="86">
-        <v>41429</v>
-      </c>
-      <c r="N90" s="84"/>
-      <c r="O90" s="84"/>
-      <c r="P90" s="84"/>
-      <c r="Q90" s="84"/>
-      <c r="R90" s="84"/>
-      <c r="S90" s="84"/>
-      <c r="T90" s="84"/>
+      <c r="M90" s="73"/>
+      <c r="N90" s="71"/>
+      <c r="O90" s="71"/>
+      <c r="P90" s="71"/>
+      <c r="Q90" s="71"/>
+      <c r="R90" s="71"/>
+      <c r="S90" s="71"/>
+      <c r="T90" s="71"/>
       <c r="U90" s="15"/>
       <c r="V90" s="15"/>
       <c r="W90" s="15"/>
@@ -11838,46 +12143,44 @@
       <c r="AA90" s="15"/>
     </row>
     <row r="91" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A91" s="84">
+      <c r="A91" s="71">
         <v>88</v>
       </c>
-      <c r="B91" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="C91" s="84" t="s">
+      <c r="B91" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="C91" s="71" t="s">
+        <v>281</v>
+      </c>
+      <c r="D91" s="71"/>
+      <c r="E91" s="71" t="s">
         <v>282</v>
       </c>
-      <c r="D91" s="84"/>
-      <c r="E91" s="84" t="s">
+      <c r="F91" s="71"/>
+      <c r="G91" s="71" t="s">
         <v>283</v>
       </c>
-      <c r="F91" s="84"/>
-      <c r="G91" s="84" t="s">
+      <c r="H91" s="71" t="s">
         <v>284</v>
       </c>
-      <c r="H91" s="84" t="s">
+      <c r="I91" s="71" t="s">
         <v>285</v>
       </c>
-      <c r="I91" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="J91" s="84" t="s">
+      <c r="J91" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K91" s="84"/>
-      <c r="L91" s="84" t="s">
+      <c r="K91" s="71"/>
+      <c r="L91" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M91" s="86">
-        <v>41429</v>
-      </c>
-      <c r="N91" s="84"/>
-      <c r="O91" s="84"/>
-      <c r="P91" s="84"/>
-      <c r="Q91" s="84"/>
-      <c r="R91" s="84"/>
-      <c r="S91" s="84"/>
-      <c r="T91" s="84"/>
+      <c r="M91" s="73"/>
+      <c r="N91" s="71"/>
+      <c r="O91" s="71"/>
+      <c r="P91" s="71"/>
+      <c r="Q91" s="71"/>
+      <c r="R91" s="71"/>
+      <c r="S91" s="71"/>
+      <c r="T91" s="71"/>
       <c r="U91" s="15"/>
       <c r="V91" s="15"/>
       <c r="W91" s="15"/>
@@ -11887,46 +12190,44 @@
       <c r="AA91" s="15"/>
     </row>
     <row r="92" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A92" s="84">
+      <c r="A92" s="71">
         <v>89</v>
       </c>
-      <c r="B92" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="C92" s="84" t="s">
+      <c r="B92" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="C92" s="71" t="s">
+        <v>281</v>
+      </c>
+      <c r="D92" s="71"/>
+      <c r="E92" s="71" t="s">
         <v>282</v>
       </c>
-      <c r="D92" s="84"/>
-      <c r="E92" s="84" t="s">
+      <c r="F92" s="71"/>
+      <c r="G92" s="71" t="s">
         <v>283</v>
       </c>
-      <c r="F92" s="84"/>
-      <c r="G92" s="84" t="s">
+      <c r="H92" s="71" t="s">
         <v>284</v>
       </c>
-      <c r="H92" s="84" t="s">
+      <c r="I92" s="71" t="s">
         <v>285</v>
       </c>
-      <c r="I92" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="J92" s="84" t="s">
+      <c r="J92" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K92" s="84"/>
-      <c r="L92" s="84" t="s">
+      <c r="K92" s="71"/>
+      <c r="L92" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M92" s="86">
-        <v>41429</v>
-      </c>
-      <c r="N92" s="84"/>
-      <c r="O92" s="84"/>
-      <c r="P92" s="84"/>
-      <c r="Q92" s="84"/>
-      <c r="R92" s="84"/>
-      <c r="S92" s="84"/>
-      <c r="T92" s="84"/>
+      <c r="M92" s="73"/>
+      <c r="N92" s="71"/>
+      <c r="O92" s="71"/>
+      <c r="P92" s="71"/>
+      <c r="Q92" s="71"/>
+      <c r="R92" s="71"/>
+      <c r="S92" s="71"/>
+      <c r="T92" s="71"/>
       <c r="U92" s="15"/>
       <c r="V92" s="15"/>
       <c r="W92" s="15"/>
@@ -11936,46 +12237,44 @@
       <c r="AA92" s="15"/>
     </row>
     <row r="93" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A93" s="84">
+      <c r="A93" s="71">
         <v>90</v>
       </c>
-      <c r="B93" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="C93" s="84" t="s">
+      <c r="B93" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="C93" s="71" t="s">
+        <v>281</v>
+      </c>
+      <c r="D93" s="71"/>
+      <c r="E93" s="71" t="s">
         <v>282</v>
       </c>
-      <c r="D93" s="84"/>
-      <c r="E93" s="84" t="s">
+      <c r="F93" s="71"/>
+      <c r="G93" s="71" t="s">
         <v>283</v>
       </c>
-      <c r="F93" s="84"/>
-      <c r="G93" s="84" t="s">
+      <c r="H93" s="71" t="s">
         <v>284</v>
       </c>
-      <c r="H93" s="84" t="s">
+      <c r="I93" s="71" t="s">
         <v>285</v>
       </c>
-      <c r="I93" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="J93" s="84" t="s">
+      <c r="J93" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K93" s="84"/>
-      <c r="L93" s="84" t="s">
+      <c r="K93" s="71"/>
+      <c r="L93" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M93" s="86">
-        <v>41429</v>
-      </c>
-      <c r="N93" s="84"/>
-      <c r="O93" s="84"/>
-      <c r="P93" s="84"/>
-      <c r="Q93" s="84"/>
-      <c r="R93" s="84"/>
-      <c r="S93" s="84"/>
-      <c r="T93" s="84"/>
+      <c r="M93" s="73"/>
+      <c r="N93" s="71"/>
+      <c r="O93" s="71"/>
+      <c r="P93" s="71"/>
+      <c r="Q93" s="71"/>
+      <c r="R93" s="71"/>
+      <c r="S93" s="71"/>
+      <c r="T93" s="71"/>
       <c r="U93" s="15"/>
       <c r="V93" s="15"/>
       <c r="W93" s="15"/>
@@ -11985,46 +12284,44 @@
       <c r="AA93" s="15"/>
     </row>
     <row r="94" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A94" s="84">
+      <c r="A94" s="71">
         <v>91</v>
       </c>
-      <c r="B94" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="C94" s="84" t="s">
+      <c r="B94" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="C94" s="71" t="s">
+        <v>281</v>
+      </c>
+      <c r="D94" s="71"/>
+      <c r="E94" s="71" t="s">
         <v>282</v>
       </c>
-      <c r="D94" s="84"/>
-      <c r="E94" s="84" t="s">
+      <c r="F94" s="71"/>
+      <c r="G94" s="71" t="s">
         <v>283</v>
       </c>
-      <c r="F94" s="84"/>
-      <c r="G94" s="84" t="s">
+      <c r="H94" s="71" t="s">
         <v>284</v>
       </c>
-      <c r="H94" s="84" t="s">
+      <c r="I94" s="71" t="s">
         <v>285</v>
       </c>
-      <c r="I94" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="J94" s="84" t="s">
+      <c r="J94" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K94" s="84"/>
-      <c r="L94" s="84" t="s">
+      <c r="K94" s="71"/>
+      <c r="L94" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M94" s="86">
-        <v>41429</v>
-      </c>
-      <c r="N94" s="84"/>
-      <c r="O94" s="84"/>
-      <c r="P94" s="84"/>
-      <c r="Q94" s="84"/>
-      <c r="R94" s="84"/>
-      <c r="S94" s="84"/>
-      <c r="T94" s="84"/>
+      <c r="M94" s="73"/>
+      <c r="N94" s="71"/>
+      <c r="O94" s="71"/>
+      <c r="P94" s="71"/>
+      <c r="Q94" s="71"/>
+      <c r="R94" s="71"/>
+      <c r="S94" s="71"/>
+      <c r="T94" s="71"/>
       <c r="U94" s="15"/>
       <c r="V94" s="15"/>
       <c r="W94" s="15"/>
@@ -12034,46 +12331,44 @@
       <c r="AA94" s="15"/>
     </row>
     <row r="95" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A95" s="84">
+      <c r="A95" s="71">
         <v>92</v>
       </c>
-      <c r="B95" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="C95" s="84" t="s">
+      <c r="B95" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="C95" s="71" t="s">
+        <v>281</v>
+      </c>
+      <c r="D95" s="71"/>
+      <c r="E95" s="71" t="s">
         <v>282</v>
       </c>
-      <c r="D95" s="84"/>
-      <c r="E95" s="84" t="s">
+      <c r="F95" s="71"/>
+      <c r="G95" s="71" t="s">
         <v>283</v>
       </c>
-      <c r="F95" s="84"/>
-      <c r="G95" s="84" t="s">
+      <c r="H95" s="71" t="s">
         <v>284</v>
       </c>
-      <c r="H95" s="84" t="s">
+      <c r="I95" s="71" t="s">
         <v>285</v>
       </c>
-      <c r="I95" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="J95" s="84" t="s">
+      <c r="J95" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K95" s="84"/>
-      <c r="L95" s="84" t="s">
+      <c r="K95" s="71"/>
+      <c r="L95" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M95" s="86">
-        <v>41429</v>
-      </c>
-      <c r="N95" s="84"/>
-      <c r="O95" s="84"/>
-      <c r="P95" s="84"/>
-      <c r="Q95" s="84"/>
-      <c r="R95" s="84"/>
-      <c r="S95" s="84"/>
-      <c r="T95" s="84"/>
+      <c r="M95" s="73"/>
+      <c r="N95" s="71"/>
+      <c r="O95" s="71"/>
+      <c r="P95" s="71"/>
+      <c r="Q95" s="71"/>
+      <c r="R95" s="71"/>
+      <c r="S95" s="71"/>
+      <c r="T95" s="71"/>
       <c r="U95" s="15"/>
       <c r="V95" s="15"/>
       <c r="W95" s="15"/>
@@ -12083,46 +12378,44 @@
       <c r="AA95" s="15"/>
     </row>
     <row r="96" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A96" s="84">
+      <c r="A96" s="71">
         <v>93</v>
       </c>
-      <c r="B96" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="C96" s="84" t="s">
+      <c r="B96" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="C96" s="71" t="s">
+        <v>281</v>
+      </c>
+      <c r="D96" s="71"/>
+      <c r="E96" s="71" t="s">
         <v>282</v>
       </c>
-      <c r="D96" s="84"/>
-      <c r="E96" s="84" t="s">
+      <c r="F96" s="71"/>
+      <c r="G96" s="71" t="s">
         <v>283</v>
       </c>
-      <c r="F96" s="84"/>
-      <c r="G96" s="84" t="s">
+      <c r="H96" s="71" t="s">
         <v>284</v>
       </c>
-      <c r="H96" s="84" t="s">
+      <c r="I96" s="71" t="s">
         <v>285</v>
       </c>
-      <c r="I96" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="J96" s="84" t="s">
+      <c r="J96" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K96" s="84"/>
-      <c r="L96" s="84" t="s">
+      <c r="K96" s="71"/>
+      <c r="L96" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M96" s="86">
-        <v>41429</v>
-      </c>
-      <c r="N96" s="84"/>
-      <c r="O96" s="84"/>
-      <c r="P96" s="84"/>
-      <c r="Q96" s="84"/>
-      <c r="R96" s="84"/>
-      <c r="S96" s="84"/>
-      <c r="T96" s="84"/>
+      <c r="M96" s="73"/>
+      <c r="N96" s="71"/>
+      <c r="O96" s="71"/>
+      <c r="P96" s="71"/>
+      <c r="Q96" s="71"/>
+      <c r="R96" s="71"/>
+      <c r="S96" s="71"/>
+      <c r="T96" s="71"/>
       <c r="U96" s="15"/>
       <c r="V96" s="15"/>
       <c r="W96" s="15"/>
@@ -12132,46 +12425,44 @@
       <c r="AA96" s="15"/>
     </row>
     <row r="97" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A97" s="84">
+      <c r="A97" s="71">
         <v>94</v>
       </c>
-      <c r="B97" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="C97" s="84" t="s">
+      <c r="B97" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="C97" s="71" t="s">
+        <v>281</v>
+      </c>
+      <c r="D97" s="71"/>
+      <c r="E97" s="71" t="s">
         <v>282</v>
       </c>
-      <c r="D97" s="84"/>
-      <c r="E97" s="84" t="s">
+      <c r="F97" s="71"/>
+      <c r="G97" s="71" t="s">
         <v>283</v>
       </c>
-      <c r="F97" s="84"/>
-      <c r="G97" s="84" t="s">
+      <c r="H97" s="71" t="s">
         <v>284</v>
       </c>
-      <c r="H97" s="84" t="s">
+      <c r="I97" s="71" t="s">
         <v>285</v>
       </c>
-      <c r="I97" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="J97" s="84" t="s">
+      <c r="J97" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K97" s="84"/>
-      <c r="L97" s="84" t="s">
+      <c r="K97" s="71"/>
+      <c r="L97" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M97" s="86">
-        <v>41429</v>
-      </c>
-      <c r="N97" s="84"/>
-      <c r="O97" s="84"/>
-      <c r="P97" s="84"/>
-      <c r="Q97" s="84"/>
-      <c r="R97" s="84"/>
-      <c r="S97" s="84"/>
-      <c r="T97" s="84"/>
+      <c r="M97" s="73"/>
+      <c r="N97" s="71"/>
+      <c r="O97" s="71"/>
+      <c r="P97" s="71"/>
+      <c r="Q97" s="71"/>
+      <c r="R97" s="71"/>
+      <c r="S97" s="71"/>
+      <c r="T97" s="71"/>
       <c r="U97" s="15"/>
       <c r="V97" s="15"/>
       <c r="W97" s="15"/>
@@ -12181,46 +12472,44 @@
       <c r="AA97" s="15"/>
     </row>
     <row r="98" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A98" s="84">
+      <c r="A98" s="71">
         <v>95</v>
       </c>
-      <c r="B98" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="C98" s="84" t="s">
+      <c r="B98" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="C98" s="71" t="s">
+        <v>281</v>
+      </c>
+      <c r="D98" s="71"/>
+      <c r="E98" s="71" t="s">
         <v>282</v>
       </c>
-      <c r="D98" s="84"/>
-      <c r="E98" s="84" t="s">
+      <c r="F98" s="71"/>
+      <c r="G98" s="71" t="s">
         <v>283</v>
       </c>
-      <c r="F98" s="84"/>
-      <c r="G98" s="84" t="s">
+      <c r="H98" s="71" t="s">
         <v>284</v>
       </c>
-      <c r="H98" s="84" t="s">
+      <c r="I98" s="71" t="s">
         <v>285</v>
       </c>
-      <c r="I98" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="J98" s="84" t="s">
+      <c r="J98" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K98" s="84"/>
-      <c r="L98" s="84" t="s">
+      <c r="K98" s="71"/>
+      <c r="L98" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M98" s="86">
-        <v>41429</v>
-      </c>
-      <c r="N98" s="84"/>
-      <c r="O98" s="84"/>
-      <c r="P98" s="84"/>
-      <c r="Q98" s="84"/>
-      <c r="R98" s="84"/>
-      <c r="S98" s="84"/>
-      <c r="T98" s="84"/>
+      <c r="M98" s="73"/>
+      <c r="N98" s="71"/>
+      <c r="O98" s="71"/>
+      <c r="P98" s="71"/>
+      <c r="Q98" s="71"/>
+      <c r="R98" s="71"/>
+      <c r="S98" s="71"/>
+      <c r="T98" s="71"/>
       <c r="U98" s="15"/>
       <c r="V98" s="15"/>
       <c r="W98" s="15"/>
@@ -12230,46 +12519,44 @@
       <c r="AA98" s="15"/>
     </row>
     <row r="99" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A99" s="84">
+      <c r="A99" s="71">
         <v>96</v>
       </c>
-      <c r="B99" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="C99" s="84" t="s">
+      <c r="B99" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="C99" s="71" t="s">
+        <v>281</v>
+      </c>
+      <c r="D99" s="71"/>
+      <c r="E99" s="71" t="s">
         <v>282</v>
       </c>
-      <c r="D99" s="84"/>
-      <c r="E99" s="84" t="s">
+      <c r="F99" s="71"/>
+      <c r="G99" s="71" t="s">
         <v>283</v>
       </c>
-      <c r="F99" s="84"/>
-      <c r="G99" s="84" t="s">
+      <c r="H99" s="71" t="s">
         <v>284</v>
       </c>
-      <c r="H99" s="84" t="s">
+      <c r="I99" s="71" t="s">
         <v>285</v>
       </c>
-      <c r="I99" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="J99" s="84" t="s">
+      <c r="J99" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K99" s="84"/>
-      <c r="L99" s="84" t="s">
+      <c r="K99" s="71"/>
+      <c r="L99" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M99" s="86">
-        <v>41429</v>
-      </c>
-      <c r="N99" s="84"/>
-      <c r="O99" s="84"/>
-      <c r="P99" s="84"/>
-      <c r="Q99" s="84"/>
-      <c r="R99" s="84"/>
-      <c r="S99" s="84"/>
-      <c r="T99" s="84"/>
+      <c r="M99" s="73"/>
+      <c r="N99" s="71"/>
+      <c r="O99" s="71"/>
+      <c r="P99" s="71"/>
+      <c r="Q99" s="71"/>
+      <c r="R99" s="71"/>
+      <c r="S99" s="71"/>
+      <c r="T99" s="71"/>
       <c r="U99" s="15"/>
       <c r="V99" s="15"/>
       <c r="W99" s="15"/>
@@ -12279,46 +12566,44 @@
       <c r="AA99" s="15"/>
     </row>
     <row r="100" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A100" s="84">
+      <c r="A100" s="71">
         <v>97</v>
       </c>
-      <c r="B100" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="C100" s="84" t="s">
+      <c r="B100" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="C100" s="71" t="s">
+        <v>281</v>
+      </c>
+      <c r="D100" s="71"/>
+      <c r="E100" s="71" t="s">
         <v>282</v>
       </c>
-      <c r="D100" s="84"/>
-      <c r="E100" s="84" t="s">
+      <c r="F100" s="71"/>
+      <c r="G100" s="71" t="s">
         <v>283</v>
       </c>
-      <c r="F100" s="84"/>
-      <c r="G100" s="84" t="s">
+      <c r="H100" s="71" t="s">
         <v>284</v>
       </c>
-      <c r="H100" s="84" t="s">
+      <c r="I100" s="71" t="s">
         <v>285</v>
       </c>
-      <c r="I100" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="J100" s="84" t="s">
+      <c r="J100" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K100" s="84"/>
-      <c r="L100" s="84" t="s">
+      <c r="K100" s="71"/>
+      <c r="L100" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M100" s="86">
-        <v>41429</v>
-      </c>
-      <c r="N100" s="84"/>
-      <c r="O100" s="84"/>
-      <c r="P100" s="84"/>
-      <c r="Q100" s="84"/>
-      <c r="R100" s="84"/>
-      <c r="S100" s="84"/>
-      <c r="T100" s="84"/>
+      <c r="M100" s="73"/>
+      <c r="N100" s="71"/>
+      <c r="O100" s="71"/>
+      <c r="P100" s="71"/>
+      <c r="Q100" s="71"/>
+      <c r="R100" s="71"/>
+      <c r="S100" s="71"/>
+      <c r="T100" s="71"/>
       <c r="U100" s="15"/>
       <c r="V100" s="15"/>
       <c r="W100" s="15"/>
@@ -12328,46 +12613,44 @@
       <c r="AA100" s="15"/>
     </row>
     <row r="101" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A101" s="84">
+      <c r="A101" s="71">
         <v>98</v>
       </c>
-      <c r="B101" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="C101" s="84" t="s">
+      <c r="B101" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="C101" s="71" t="s">
+        <v>281</v>
+      </c>
+      <c r="D101" s="71"/>
+      <c r="E101" s="71" t="s">
         <v>282</v>
       </c>
-      <c r="D101" s="84"/>
-      <c r="E101" s="84" t="s">
+      <c r="F101" s="71"/>
+      <c r="G101" s="71" t="s">
         <v>283</v>
       </c>
-      <c r="F101" s="84"/>
-      <c r="G101" s="84" t="s">
+      <c r="H101" s="71" t="s">
         <v>284</v>
       </c>
-      <c r="H101" s="84" t="s">
+      <c r="I101" s="71" t="s">
         <v>285</v>
       </c>
-      <c r="I101" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="J101" s="84" t="s">
+      <c r="J101" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K101" s="84"/>
-      <c r="L101" s="84" t="s">
+      <c r="K101" s="71"/>
+      <c r="L101" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M101" s="86">
-        <v>41429</v>
-      </c>
-      <c r="N101" s="84"/>
-      <c r="O101" s="84"/>
-      <c r="P101" s="84"/>
-      <c r="Q101" s="84"/>
-      <c r="R101" s="84"/>
-      <c r="S101" s="84"/>
-      <c r="T101" s="84"/>
+      <c r="M101" s="73"/>
+      <c r="N101" s="71"/>
+      <c r="O101" s="71"/>
+      <c r="P101" s="71"/>
+      <c r="Q101" s="71"/>
+      <c r="R101" s="71"/>
+      <c r="S101" s="71"/>
+      <c r="T101" s="71"/>
       <c r="U101" s="15"/>
       <c r="V101" s="15"/>
       <c r="W101" s="15"/>
@@ -12377,46 +12660,44 @@
       <c r="AA101" s="15"/>
     </row>
     <row r="102" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A102" s="84">
+      <c r="A102" s="71">
         <v>99</v>
       </c>
-      <c r="B102" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="C102" s="84" t="s">
+      <c r="B102" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="C102" s="71" t="s">
+        <v>281</v>
+      </c>
+      <c r="D102" s="71"/>
+      <c r="E102" s="71" t="s">
         <v>282</v>
       </c>
-      <c r="D102" s="84"/>
-      <c r="E102" s="84" t="s">
+      <c r="F102" s="71"/>
+      <c r="G102" s="71" t="s">
         <v>283</v>
       </c>
-      <c r="F102" s="84"/>
-      <c r="G102" s="84" t="s">
+      <c r="H102" s="71" t="s">
         <v>284</v>
       </c>
-      <c r="H102" s="84" t="s">
+      <c r="I102" s="71" t="s">
         <v>285</v>
       </c>
-      <c r="I102" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="J102" s="84" t="s">
+      <c r="J102" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K102" s="84"/>
-      <c r="L102" s="84" t="s">
+      <c r="K102" s="71"/>
+      <c r="L102" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M102" s="86">
-        <v>41429</v>
-      </c>
-      <c r="N102" s="84"/>
-      <c r="O102" s="84"/>
-      <c r="P102" s="84"/>
-      <c r="Q102" s="84"/>
-      <c r="R102" s="84"/>
-      <c r="S102" s="84"/>
-      <c r="T102" s="84"/>
+      <c r="M102" s="73"/>
+      <c r="N102" s="71"/>
+      <c r="O102" s="71"/>
+      <c r="P102" s="71"/>
+      <c r="Q102" s="71"/>
+      <c r="R102" s="71"/>
+      <c r="S102" s="71"/>
+      <c r="T102" s="71"/>
       <c r="U102" s="15"/>
       <c r="V102" s="15"/>
       <c r="W102" s="15"/>
@@ -12426,46 +12707,44 @@
       <c r="AA102" s="15"/>
     </row>
     <row r="103" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A103" s="84">
+      <c r="A103" s="71">
         <v>100</v>
       </c>
-      <c r="B103" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="C103" s="84" t="s">
+      <c r="B103" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="C103" s="71" t="s">
+        <v>281</v>
+      </c>
+      <c r="D103" s="71"/>
+      <c r="E103" s="71" t="s">
         <v>282</v>
       </c>
-      <c r="D103" s="84"/>
-      <c r="E103" s="84" t="s">
+      <c r="F103" s="71"/>
+      <c r="G103" s="71" t="s">
         <v>283</v>
       </c>
-      <c r="F103" s="84"/>
-      <c r="G103" s="84" t="s">
+      <c r="H103" s="71" t="s">
         <v>284</v>
       </c>
-      <c r="H103" s="84" t="s">
+      <c r="I103" s="71" t="s">
         <v>285</v>
       </c>
-      <c r="I103" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="J103" s="84" t="s">
+      <c r="J103" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K103" s="84"/>
-      <c r="L103" s="84" t="s">
+      <c r="K103" s="71"/>
+      <c r="L103" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M103" s="86">
-        <v>41429</v>
-      </c>
-      <c r="N103" s="84"/>
-      <c r="O103" s="84"/>
-      <c r="P103" s="84"/>
-      <c r="Q103" s="84"/>
-      <c r="R103" s="84"/>
-      <c r="S103" s="84"/>
-      <c r="T103" s="84"/>
+      <c r="M103" s="73"/>
+      <c r="N103" s="71"/>
+      <c r="O103" s="71"/>
+      <c r="P103" s="71"/>
+      <c r="Q103" s="71"/>
+      <c r="R103" s="71"/>
+      <c r="S103" s="71"/>
+      <c r="T103" s="71"/>
       <c r="U103" s="15"/>
       <c r="V103" s="15"/>
       <c r="W103" s="15"/>
@@ -12475,46 +12754,44 @@
       <c r="AA103" s="15"/>
     </row>
     <row r="104" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A104" s="84">
+      <c r="A104" s="71">
         <v>101</v>
       </c>
-      <c r="B104" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="C104" s="84" t="s">
+      <c r="B104" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="C104" s="71" t="s">
+        <v>281</v>
+      </c>
+      <c r="D104" s="71"/>
+      <c r="E104" s="71" t="s">
         <v>282</v>
       </c>
-      <c r="D104" s="84"/>
-      <c r="E104" s="84" t="s">
+      <c r="F104" s="71"/>
+      <c r="G104" s="71" t="s">
         <v>283</v>
       </c>
-      <c r="F104" s="84"/>
-      <c r="G104" s="84" t="s">
+      <c r="H104" s="71" t="s">
         <v>284</v>
       </c>
-      <c r="H104" s="84" t="s">
+      <c r="I104" s="71" t="s">
         <v>285</v>
       </c>
-      <c r="I104" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="J104" s="84" t="s">
+      <c r="J104" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K104" s="84"/>
-      <c r="L104" s="84" t="s">
+      <c r="K104" s="71"/>
+      <c r="L104" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M104" s="86">
-        <v>41429</v>
-      </c>
-      <c r="N104" s="84"/>
-      <c r="O104" s="84"/>
-      <c r="P104" s="84"/>
-      <c r="Q104" s="84"/>
-      <c r="R104" s="84"/>
-      <c r="S104" s="84"/>
-      <c r="T104" s="84"/>
+      <c r="M104" s="73"/>
+      <c r="N104" s="71"/>
+      <c r="O104" s="71"/>
+      <c r="P104" s="71"/>
+      <c r="Q104" s="71"/>
+      <c r="R104" s="71"/>
+      <c r="S104" s="71"/>
+      <c r="T104" s="71"/>
       <c r="U104" s="15"/>
       <c r="V104" s="15"/>
       <c r="W104" s="15"/>
@@ -12525,39 +12802,39 @@
     </row>
     <row r="105" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F105" s="12"/>
-      <c r="M105" s="83"/>
+      <c r="M105" s="70"/>
     </row>
     <row r="106" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F106" s="12"/>
-      <c r="M106" s="83"/>
+      <c r="M106" s="70"/>
     </row>
     <row r="107" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F107" s="12"/>
-      <c r="M107" s="83"/>
+      <c r="M107" s="70"/>
     </row>
     <row r="108" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F108" s="12"/>
-      <c r="M108" s="83"/>
+      <c r="M108" s="70"/>
     </row>
     <row r="109" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F109" s="12"/>
-      <c r="M109" s="83"/>
+      <c r="M109" s="70"/>
     </row>
     <row r="110" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F110" s="12"/>
-      <c r="M110" s="83"/>
+      <c r="M110" s="70"/>
     </row>
     <row r="111" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F111" s="12"/>
-      <c r="M111" s="83"/>
+      <c r="M111" s="70"/>
     </row>
     <row r="112" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F112" s="12"/>
-      <c r="M112" s="83"/>
+      <c r="M112" s="70"/>
     </row>
     <row r="113" spans="6:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F113" s="12"/>
-      <c r="M113" s="83"/>
+      <c r="M113" s="70"/>
     </row>
     <row r="114" spans="6:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F114" s="12"/>
@@ -15263,34 +15540,34 @@
         <v>37</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>293</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>295</v>
       </c>
       <c r="I1" s="13" t="s">
         <v>36</v>
       </c>
       <c r="J1" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="L1" s="13" t="s">
         <v>296</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="105" x14ac:dyDescent="0.25">
@@ -15298,30 +15575,30 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="E2" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="F2" s="13" t="s">
         <v>301</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>302</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>303</v>
       </c>
       <c r="G2" s="25">
         <v>41370</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J2" s="13"/>
       <c r="K2" s="13" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L2" s="13"/>
     </row>
@@ -15330,10 +15607,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="24"/>
@@ -15341,11 +15618,11 @@
       <c r="G3" s="25"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="13" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L3" s="13"/>
     </row>
@@ -16353,13 +16630,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="27"/>
-      <c r="B1" s="70" t="s">
-        <v>310</v>
-      </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
+      <c r="B1" s="83" t="s">
+        <v>308</v>
+      </c>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
       <c r="I1" s="28"/>
@@ -16417,25 +16694,25 @@
         <v>2</v>
       </c>
       <c r="C3" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>309</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="E3" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="G3" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="H3" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="I3" s="29" t="s">
         <v>312</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="H3" s="29" t="s">
-        <v>308</v>
-      </c>
-      <c r="I3" s="29" t="s">
-        <v>314</v>
       </c>
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
@@ -16566,7 +16843,7 @@
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34"/>
       <c r="B6" s="35" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C6" s="29">
         <f t="shared" ref="C6:I6" si="2">SUM(C4:C5)</f>
@@ -44472,81 +44749,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="91" t="s">
+        <v>313</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="86"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="85" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2" s="86"/>
+      <c r="C2" s="87" t="s">
         <v>315</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="69"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="D2" s="88"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="85" t="s">
         <v>316</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="73" t="s">
+      <c r="G2" s="86"/>
+      <c r="H2" s="87" t="s">
         <v>317</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="72" t="s">
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="86"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="85" t="s">
         <v>318</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="73" t="s">
+      <c r="B3" s="86"/>
+      <c r="C3" s="87" t="s">
         <v>319</v>
       </c>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="69"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
+      <c r="D3" s="88"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="85" t="s">
         <v>320</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="73" t="s">
+      <c r="G3" s="86"/>
+      <c r="H3" s="87" t="s">
         <v>321</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="72" t="s">
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="86"/>
+    </row>
+    <row r="4" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="89" t="s">
         <v>322</v>
       </c>
-      <c r="G3" s="69"/>
-      <c r="H3" s="73" t="s">
-        <v>323</v>
-      </c>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="69"/>
-    </row>
-    <row r="4" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>324</v>
-      </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="69"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="86"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="39" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C5" s="40">
         <f>D11/J11</f>
@@ -44564,7 +44841,7 @@
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="41" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C6" s="40">
         <f>E11/J11</f>
@@ -44577,10 +44854,10 @@
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="39" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K6" s="42" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
@@ -44598,16 +44875,16 @@
     </row>
     <row r="8" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="45" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B8" s="45" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E8" s="45" t="s">
         <v>52</v>
@@ -44616,19 +44893,19 @@
         <v>60</v>
       </c>
       <c r="G8" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="H8" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="I8" s="47" t="s">
+        <v>330</v>
+      </c>
+      <c r="J8" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="K8" s="47" t="s">
         <v>331</v>
-      </c>
-      <c r="H8" s="45" t="s">
-        <v>288</v>
-      </c>
-      <c r="I8" s="47" t="s">
-        <v>332</v>
-      </c>
-      <c r="J8" s="45" t="s">
-        <v>313</v>
-      </c>
-      <c r="K8" s="47" t="s">
-        <v>333</v>
       </c>
       <c r="L8" s="48"/>
       <c r="M8" s="48"/>
@@ -44740,7 +45017,7 @@
       <c r="A11" s="51"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D11" s="51">
         <f t="shared" ref="D11:J11" si="0">SUM(D9:D10)</f>
@@ -56696,57 +56973,57 @@
   <sheetData>
     <row r="1" spans="1:3" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
+        <v>332</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>333</v>
+      </c>
+      <c r="C1" s="56" t="s">
         <v>334</v>
-      </c>
-      <c r="B1" s="55" t="s">
-        <v>335</v>
-      </c>
-      <c r="C1" s="56" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="57" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B2" s="58">
         <v>10</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="60" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B3" s="61">
         <v>5</v>
       </c>
       <c r="C3" s="62" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="63" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B4" s="64">
         <v>3</v>
       </c>
       <c r="C4" s="65" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="66" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B5" s="61">
         <v>1</v>
       </c>
       <c r="C5" s="62" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -56757,25 +57034,25 @@
     </row>
     <row r="8" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A8" s="67" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B8" s="11"/>
     </row>
     <row r="9" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A9" s="67" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B9" s="11"/>
     </row>
     <row r="10" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A10" s="67" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B10" s="11"/>
     </row>
     <row r="11" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A11" s="67" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B11" s="11"/>
     </row>

--- a/TCs/Sơn_Testcase.xlsx
+++ b/TCs/Sơn_Testcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KCPM\Project\Test Document\KCPM-Reports\TCs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1106E45-855A-4777-9217-D808BD392530}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FA1281-FC81-4FC5-B53E-2D1BEE36C79E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="518">
   <si>
     <t>No.</t>
   </si>
@@ -1998,6 +1998,218 @@
 6. Nhập lại mật khẩu: "1234567"
 7. Click Đăng ký</t>
   </si>
+  <si>
+    <t>Nhập email chứa ký tự khoảng trắng ở cuối</t>
+  </si>
+  <si>
+    <t>1. Click vào "Đăng nhập/Đăng ký" trên thanh navbar
+2. Click vào "Tạo tại khoản"
+3. Nhập họ tên, số điện thoại, ngày sinh, giới tính
+4. Nhập email chứa khoảng trắng ở đầu:
+ "ntsonnn10@gmail.com       "
+5. Nhập mật khẩu: "1234567"
+6. Nhập lại mật khẩu: "1234567"
+7. Click Đăng ký</t>
+  </si>
+  <si>
+    <t>1. Đăng ký tài khoản thành công
+2. Hiển thị thông báo "You are now registered and can log in :)"
+3. Có thể đăng nhập vào trang web bằng email đã lược bỏ khoảng trắng ở cuối: "ntsonnn10@gmail.com"</t>
+  </si>
+  <si>
+    <t>F015-T022</t>
+  </si>
+  <si>
+    <t>F015-T023</t>
+  </si>
+  <si>
+    <t>F015-T024</t>
+  </si>
+  <si>
+    <t>F015-T025</t>
+  </si>
+  <si>
+    <t>F015-T026</t>
+  </si>
+  <si>
+    <t>F015-T027</t>
+  </si>
+  <si>
+    <t>F015-T028</t>
+  </si>
+  <si>
+    <t>F015-T029</t>
+  </si>
+  <si>
+    <t>F017-T018</t>
+  </si>
+  <si>
+    <t>F017-T019</t>
+  </si>
+  <si>
+    <t>F017-T020</t>
+  </si>
+  <si>
+    <t>F017-T021</t>
+  </si>
+  <si>
+    <t>F017-T022</t>
+  </si>
+  <si>
+    <t>F018-T001</t>
+  </si>
+  <si>
+    <t>Truy cập vào url trang thông tin cá nhân khi chưa đăng nhập</t>
+  </si>
+  <si>
+    <t>1. Nhập đường dẫn tới trang quản lý thông tin cá nhân vào thanh url của trình duyệt:
+https://e-customer.herokuapp.com/update-account-info.html</t>
+  </si>
+  <si>
+    <t>Truy cập vào url trang thông tin cá nhân khi đã đăng nhập</t>
+  </si>
+  <si>
+    <t>1. Chưa đăng nhập vào trang web.
+2. Trình duyệt không lưu bất kì thông tin cookie hay session nào của trang web</t>
+  </si>
+  <si>
+    <t>1. Truy cập tới trang quản lý thông tin cá nhân của người dùng</t>
+  </si>
+  <si>
+    <t>F018-T002</t>
+  </si>
+  <si>
+    <t>F018-T003</t>
+  </si>
+  <si>
+    <t>F018-T004</t>
+  </si>
+  <si>
+    <t>F018-T005</t>
+  </si>
+  <si>
+    <t>F018-T006</t>
+  </si>
+  <si>
+    <t>F018-T007</t>
+  </si>
+  <si>
+    <t>F018-T008</t>
+  </si>
+  <si>
+    <t>F018-T009</t>
+  </si>
+  <si>
+    <t>F018-T010</t>
+  </si>
+  <si>
+    <t>1. Không thể truy cập trang thông tin cá nhân
+2. Trang web redirect tới trang đăng nhập
+3. Thông báo "You need log in to view this resource"</t>
+  </si>
+  <si>
+    <t>Truy cập vào trang Thay đổi mật khẩu khi chưa đăng nhập</t>
+  </si>
+  <si>
+    <t>1. Nhập đường dẫn tới trang quản lý thông tin cá nhân vào thanh url của trình duyệt:
+https://e-customer.herokuapp.com/update-account-password.html</t>
+  </si>
+  <si>
+    <t>1. Không thể truy cập trang Thay đổi mật khẩu
+2. Trang web redirect tới trang đăng nhập
+3. Thông báo "You need log in to view this resource"</t>
+  </si>
+  <si>
+    <t>Truy cập vào trang Thay đổi mật khẩu khi đã đăng nhập</t>
+  </si>
+  <si>
+    <t>1. Truy cập tới trang thay đổi mật khẩu</t>
+  </si>
+  <si>
+    <t>Truy cập vào trang thanh toán giỏ hàng của người dùng khi chưa đăng nhập</t>
+  </si>
+  <si>
+    <t>1. Không thể truy cập trang Thanh toán giỏ hàng
+2. Trang web redirect tới trang đăng nhập
+3. Thông báo "You need log in to view this resource"</t>
+  </si>
+  <si>
+    <t>1. Nhập đường dẫn tới trang Thanh toán giỏ hàng vào thanh url của trình duyệt:
+https://e-customer.herokuapp.com/checkout.html</t>
+  </si>
+  <si>
+    <t>Truy cập vào trang thanh toán giỏ hàng của người dùng khi đã đăng nhập</t>
+  </si>
+  <si>
+    <t>1. Truy cập tới trang thanh toán giỏ hàng</t>
+  </si>
+  <si>
+    <t>Sử dụng nút Back của trình duyệt để quay về trang Quản lý thông tin cá nhân sau khi đăng xuất</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập vào hệ thống với email vào password hợp lệ
+2. Truy cập trang quản lý thông tin cá nhân
+3. Click vào Đăng xuất trên thanh navbar
+4. Click vào nút Back của trình duyệt</t>
+  </si>
+  <si>
+    <t>1. Không thể quay lại trang quản lý thông tin cá nhân
+2. Trang web redirect về trang đăng nhập
+3. Thông báo "You need log in to view this resource"</t>
+  </si>
+  <si>
+    <t>1. Vẫn có thể quay lại trang quản lý thông tin cá nhân</t>
+  </si>
+  <si>
+    <t>Sử dụng nút Back của trình duyệt để quay về trang Đổi mật khẩu sau khi đăng xuất</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập vào hệ thống với email vào password hợp lệ
+2. Truy cập trang Thay đổi mật khẩu
+3. Click vào Đăng xuất trên thanh navbar
+4. Click vào nút Back của trình duyệt</t>
+  </si>
+  <si>
+    <t>1. Không thể quay lại trang thay đổi mật khẩu
+2. Trang web redirect về trang đăng nhập
+3. Thông báo "You need log in to view this resource"</t>
+  </si>
+  <si>
+    <t>1. Vẫn có thể quay lại trang Thay đổi mật khẩu</t>
+  </si>
+  <si>
+    <t>Sử dụng nút Back của trình duyệt để quay về trang Thanh toán giỏ hàng sau khi đăng xuất</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập vào hệ thống với email vào password hợp lệ
+2. Click vào icon Giỏ hàng trên thanh navbar
+3. Click vào nút Thanh Toán
+4. Click vào Đăng xuất trên thanh navbar
+5. Click vào nút Back của trình duyệt</t>
+  </si>
+  <si>
+    <t>1. Không thể quay lại trang Thanh toán giỏ hàng
+2. Trang web redirect về trang đăng nhập
+3. Thông báo "You need log in to view this resource"</t>
+  </si>
+  <si>
+    <t>1. Vẫn có thể quay lại trang Thanh toán giỏ hàng</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập truy cập vào url dành cho Admin</t>
+  </si>
+  <si>
+    <t>1. Đã đăng nhập tài khoản người dùng</t>
+  </si>
+  <si>
+    <t>1. Nhập đường dẫn tới trang quản lý của Admin vào thanh url của trình duyệt:
+https://e-customer.herokuapp.com/admin-home.html#
+2. Enter</t>
+  </si>
+  <si>
+    <t>1. Không thể truy cập trang quản lý của Admin
+2. Trang web redirect về trang chủ dành cho người dùng</t>
+  </si>
 </sst>
 </file>
 
@@ -3334,7 +3546,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_2" displayName="Table_2" ref="A2:AA111" headerRowCount="0" headerRowDxfId="29" dataDxfId="28" totalsRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_2" displayName="Table_2" ref="A2:AA112" headerRowCount="0" headerRowDxfId="29" dataDxfId="28" totalsRowDxfId="27">
   <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Column1" dataDxfId="26"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Column2" dataDxfId="25"/>
@@ -3632,7 +3844,7 @@
   <dimension ref="A1:E998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7753,10 +7965,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AA1007"/>
+  <dimension ref="A1:AA1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7873,7 +8085,7 @@
       <c r="Z2" s="94"/>
       <c r="AA2" s="94"/>
     </row>
-    <row r="3" spans="1:27" ht="72" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="72" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="70">
         <v>1</v>
       </c>
@@ -7924,7 +8136,7 @@
       <c r="Z3" s="14"/>
       <c r="AA3" s="14"/>
     </row>
-    <row r="4" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="86.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="70">
         <v>2</v>
       </c>
@@ -7975,7 +8187,7 @@
       <c r="Z4" s="14"/>
       <c r="AA4" s="14"/>
     </row>
-    <row r="5" spans="1:27" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="70">
         <v>3</v>
       </c>
@@ -8026,7 +8238,7 @@
       <c r="Z5" s="14"/>
       <c r="AA5" s="14"/>
     </row>
-    <row r="6" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="86.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="70">
         <v>4</v>
       </c>
@@ -8077,7 +8289,7 @@
       <c r="Z6" s="14"/>
       <c r="AA6" s="14"/>
     </row>
-    <row r="7" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="86.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="70">
         <v>5</v>
       </c>
@@ -8128,7 +8340,7 @@
       <c r="Z7" s="14"/>
       <c r="AA7" s="14"/>
     </row>
-    <row r="8" spans="1:27" ht="57.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="57.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="70">
         <v>6</v>
       </c>
@@ -8179,7 +8391,7 @@
       <c r="Z8" s="14"/>
       <c r="AA8" s="14"/>
     </row>
-    <row r="9" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="86.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="70">
         <v>7</v>
       </c>
@@ -8230,7 +8442,7 @@
       <c r="Z9" s="14"/>
       <c r="AA9" s="14"/>
     </row>
-    <row r="10" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="86.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="70">
         <v>8</v>
       </c>
@@ -8283,7 +8495,7 @@
       <c r="Z10" s="14"/>
       <c r="AA10" s="14"/>
     </row>
-    <row r="11" spans="1:27" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="70">
         <v>9</v>
       </c>
@@ -8336,7 +8548,7 @@
       <c r="Z11" s="14"/>
       <c r="AA11" s="14"/>
     </row>
-    <row r="12" spans="1:27" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="70">
         <v>10</v>
       </c>
@@ -8389,7 +8601,7 @@
       <c r="Z12" s="14"/>
       <c r="AA12" s="14"/>
     </row>
-    <row r="13" spans="1:27" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="70">
         <v>11</v>
       </c>
@@ -8442,7 +8654,7 @@
       <c r="Z13" s="14"/>
       <c r="AA13" s="14"/>
     </row>
-    <row r="14" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="86.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="70">
         <v>12</v>
       </c>
@@ -8495,7 +8707,7 @@
       <c r="Z14" s="14"/>
       <c r="AA14" s="14"/>
     </row>
-    <row r="15" spans="1:27" ht="72" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="72" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="70">
         <v>13</v>
       </c>
@@ -8548,7 +8760,7 @@
       <c r="Z15" s="15"/>
       <c r="AA15" s="15"/>
     </row>
-    <row r="16" spans="1:27" ht="57.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="57.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="70">
         <v>14</v>
       </c>
@@ -8601,7 +8813,7 @@
       <c r="Z16" s="18"/>
       <c r="AA16" s="18"/>
     </row>
-    <row r="17" spans="1:27" ht="100.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" ht="100.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="70">
         <v>15</v>
       </c>
@@ -8654,7 +8866,7 @@
       <c r="Z17" s="16"/>
       <c r="AA17" s="16"/>
     </row>
-    <row r="18" spans="1:27" ht="100.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" ht="100.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="70">
         <v>16</v>
       </c>
@@ -8707,7 +8919,7 @@
       <c r="Z18" s="16"/>
       <c r="AA18" s="16"/>
     </row>
-    <row r="19" spans="1:27" ht="100.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" ht="100.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="70">
         <v>17</v>
       </c>
@@ -8760,7 +8972,7 @@
       <c r="Z19" s="16"/>
       <c r="AA19" s="16"/>
     </row>
-    <row r="20" spans="1:27" ht="102.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="70">
         <v>18</v>
       </c>
@@ -8813,7 +9025,7 @@
       <c r="Z20" s="14"/>
       <c r="AA20" s="14"/>
     </row>
-    <row r="21" spans="1:27" ht="102.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="70">
         <v>19</v>
       </c>
@@ -8866,7 +9078,7 @@
       <c r="Z21" s="14"/>
       <c r="AA21" s="14"/>
     </row>
-    <row r="22" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" ht="86.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="70">
         <v>20</v>
       </c>
@@ -8919,7 +9131,7 @@
       <c r="Z22" s="14"/>
       <c r="AA22" s="14"/>
     </row>
-    <row r="23" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" ht="86.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="70">
         <v>21</v>
       </c>
@@ -8972,7 +9184,7 @@
       <c r="Z23" s="14"/>
       <c r="AA23" s="14"/>
     </row>
-    <row r="24" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" ht="86.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="70">
         <v>22</v>
       </c>
@@ -9025,7 +9237,7 @@
       <c r="Z24" s="14"/>
       <c r="AA24" s="14"/>
     </row>
-    <row r="25" spans="1:27" ht="57.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" ht="57.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="70">
         <v>23</v>
       </c>
@@ -9078,7 +9290,7 @@
       <c r="Z25" s="14"/>
       <c r="AA25" s="14"/>
     </row>
-    <row r="26" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" ht="86.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="70">
         <v>24</v>
       </c>
@@ -9131,7 +9343,7 @@
       <c r="Z26" s="14"/>
       <c r="AA26" s="14"/>
     </row>
-    <row r="27" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" ht="86.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="70">
         <v>25</v>
       </c>
@@ -9184,7 +9396,7 @@
       <c r="Z27" s="14"/>
       <c r="AA27" s="14"/>
     </row>
-    <row r="28" spans="1:27" ht="100.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" ht="100.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="70">
         <v>26</v>
       </c>
@@ -9237,7 +9449,7 @@
       <c r="Z28" s="14"/>
       <c r="AA28" s="14"/>
     </row>
-    <row r="29" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" ht="86.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="70">
         <v>27</v>
       </c>
@@ -9290,7 +9502,7 @@
       <c r="Z29" s="14"/>
       <c r="AA29" s="14"/>
     </row>
-    <row r="30" spans="1:27" ht="100.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" ht="100.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="70">
         <v>28</v>
       </c>
@@ -9343,7 +9555,7 @@
       <c r="Z30" s="14"/>
       <c r="AA30" s="14"/>
     </row>
-    <row r="31" spans="1:27" ht="100.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" ht="100.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="70">
         <v>29</v>
       </c>
@@ -9396,7 +9608,7 @@
       <c r="Z31" s="14"/>
       <c r="AA31" s="14"/>
     </row>
-    <row r="32" spans="1:27" ht="57.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" ht="57.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="70">
         <v>30</v>
       </c>
@@ -9449,7 +9661,7 @@
       <c r="Z32" s="14"/>
       <c r="AA32" s="14"/>
     </row>
-    <row r="33" spans="1:27" ht="100.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" ht="100.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="70">
         <v>30</v>
       </c>
@@ -9502,7 +9714,7 @@
       <c r="Z33" s="14"/>
       <c r="AA33" s="14"/>
     </row>
-    <row r="34" spans="1:27" ht="100.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" ht="100.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="70">
         <v>31</v>
       </c>
@@ -9555,7 +9767,7 @@
       <c r="Z34" s="14"/>
       <c r="AA34" s="14"/>
     </row>
-    <row r="35" spans="1:27" s="77" customFormat="1" ht="129" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" s="77" customFormat="1" ht="129" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="70">
         <v>32</v>
       </c>
@@ -9608,7 +9820,7 @@
       <c r="Z35" s="76"/>
       <c r="AA35" s="76"/>
     </row>
-    <row r="36" spans="1:27" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="70">
         <v>33</v>
       </c>
@@ -9659,7 +9871,7 @@
       <c r="Z36" s="14"/>
       <c r="AA36" s="14"/>
     </row>
-    <row r="37" spans="1:27" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="70">
         <v>34</v>
       </c>
@@ -9712,7 +9924,7 @@
       <c r="Z37" s="14"/>
       <c r="AA37" s="14"/>
     </row>
-    <row r="38" spans="1:27" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="70">
         <v>35</v>
       </c>
@@ -9765,7 +9977,7 @@
       <c r="Z38" s="14"/>
       <c r="AA38" s="14"/>
     </row>
-    <row r="39" spans="1:27" ht="72" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" ht="72" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="70">
         <v>36</v>
       </c>
@@ -9816,7 +10028,7 @@
       <c r="Z39" s="14"/>
       <c r="AA39" s="14"/>
     </row>
-    <row r="40" spans="1:27" ht="72" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" ht="72" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="70">
         <v>37</v>
       </c>
@@ -9867,7 +10079,7 @@
       <c r="Z40" s="14"/>
       <c r="AA40" s="14"/>
     </row>
-    <row r="41" spans="1:27" ht="129" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" ht="129" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="70">
         <v>38</v>
       </c>
@@ -9918,7 +10130,7 @@
       <c r="Z41" s="14"/>
       <c r="AA41" s="14"/>
     </row>
-    <row r="42" spans="1:27" ht="129" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" ht="129" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="70">
         <v>39</v>
       </c>
@@ -9969,7 +10181,7 @@
       <c r="Z42" s="14"/>
       <c r="AA42" s="14"/>
     </row>
-    <row r="43" spans="1:27" ht="129" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" ht="129" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="70">
         <v>40</v>
       </c>
@@ -10020,10 +10232,12 @@
       <c r="Z43" s="14"/>
       <c r="AA43" s="14"/>
     </row>
-    <row r="44" spans="1:27" s="78" customFormat="1" ht="143.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="70"/>
+    <row r="44" spans="1:27" s="78" customFormat="1" ht="143.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="70">
+        <v>41</v>
+      </c>
       <c r="B44" s="70" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C44" s="70" t="s">
         <v>14</v>
@@ -10069,10 +10283,12 @@
       <c r="Z44" s="14"/>
       <c r="AA44" s="14"/>
     </row>
-    <row r="45" spans="1:27" s="78" customFormat="1" ht="143.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="70"/>
+    <row r="45" spans="1:27" s="78" customFormat="1" ht="143.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="70">
+        <v>42</v>
+      </c>
       <c r="B45" s="70" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C45" s="70" t="s">
         <v>14</v>
@@ -10118,12 +10334,12 @@
       <c r="Z45" s="14"/>
       <c r="AA45" s="14"/>
     </row>
-    <row r="46" spans="1:27" ht="129" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" ht="129" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="70">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B46" s="70" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="C46" s="70" t="s">
         <v>14</v>
@@ -10169,12 +10385,12 @@
       <c r="Z46" s="14"/>
       <c r="AA46" s="14"/>
     </row>
-    <row r="47" spans="1:27" ht="129" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" ht="129" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="70">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B47" s="70" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="C47" s="70" t="s">
         <v>14</v>
@@ -10220,12 +10436,12 @@
       <c r="Z47" s="14"/>
       <c r="AA47" s="14"/>
     </row>
-    <row r="48" spans="1:27" s="78" customFormat="1" ht="143.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" s="78" customFormat="1" ht="143.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="70">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B48" s="70" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="C48" s="70" t="s">
         <v>14</v>
@@ -10234,17 +10450,17 @@
         <v>55</v>
       </c>
       <c r="E48" s="71" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="F48" s="70"/>
       <c r="G48" s="71" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="H48" s="71" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="I48" s="71" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="J48" s="71" t="s">
         <v>52</v>
@@ -10271,12 +10487,12 @@
       <c r="Z48" s="14"/>
       <c r="AA48" s="14"/>
     </row>
-    <row r="49" spans="1:27" s="78" customFormat="1" ht="143.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" s="78" customFormat="1" ht="143.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="70">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B49" s="70" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="C49" s="70" t="s">
         <v>14</v>
@@ -10285,20 +10501,20 @@
         <v>55</v>
       </c>
       <c r="E49" s="71" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="F49" s="70"/>
       <c r="G49" s="71" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="H49" s="71" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="I49" s="71" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J49" s="71" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K49" s="70"/>
       <c r="L49" s="70" t="s">
@@ -10322,12 +10538,12 @@
       <c r="Z49" s="14"/>
       <c r="AA49" s="14"/>
     </row>
-    <row r="50" spans="1:27" ht="129" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" s="78" customFormat="1" ht="157.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="70">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B50" s="70" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="C50" s="70" t="s">
         <v>14</v>
@@ -10335,21 +10551,21 @@
       <c r="D50" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="E50" s="70" t="s">
-        <v>251</v>
+      <c r="E50" s="71" t="s">
+        <v>453</v>
       </c>
       <c r="F50" s="70"/>
-      <c r="G50" s="70" t="s">
-        <v>252</v>
-      </c>
-      <c r="H50" s="70" t="s">
-        <v>253</v>
-      </c>
-      <c r="I50" s="70" t="s">
-        <v>253</v>
-      </c>
-      <c r="J50" s="70" t="s">
-        <v>52</v>
+      <c r="G50" s="71" t="s">
+        <v>454</v>
+      </c>
+      <c r="H50" s="71" t="s">
+        <v>457</v>
+      </c>
+      <c r="I50" s="71" t="s">
+        <v>455</v>
+      </c>
+      <c r="J50" s="71" t="s">
+        <v>60</v>
       </c>
       <c r="K50" s="70"/>
       <c r="L50" s="70" t="s">
@@ -10373,12 +10589,12 @@
       <c r="Z50" s="14"/>
       <c r="AA50" s="14"/>
     </row>
-    <row r="51" spans="1:27" ht="129" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" ht="129" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="70">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B51" s="70" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="C51" s="70" t="s">
         <v>14</v>
@@ -10387,20 +10603,20 @@
         <v>55</v>
       </c>
       <c r="E51" s="70" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F51" s="70"/>
       <c r="G51" s="70" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H51" s="70" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="I51" s="70" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="J51" s="70" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K51" s="70"/>
       <c r="L51" s="70" t="s">
@@ -10424,10 +10640,12 @@
       <c r="Z51" s="14"/>
       <c r="AA51" s="14"/>
     </row>
-    <row r="52" spans="1:27" s="78" customFormat="1" ht="214.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="70"/>
+    <row r="52" spans="1:27" ht="129" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="70">
+        <v>49</v>
+      </c>
       <c r="B52" s="70" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="C52" s="70" t="s">
         <v>14</v>
@@ -10435,20 +10653,20 @@
       <c r="D52" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="E52" s="71" t="s">
-        <v>439</v>
+      <c r="E52" s="70" t="s">
+        <v>255</v>
       </c>
       <c r="F52" s="70"/>
-      <c r="G52" s="71" t="s">
-        <v>442</v>
-      </c>
-      <c r="H52" s="71" t="s">
-        <v>443</v>
-      </c>
-      <c r="I52" s="71" t="s">
-        <v>448</v>
-      </c>
-      <c r="J52" s="71" t="s">
+      <c r="G52" s="70" t="s">
+        <v>256</v>
+      </c>
+      <c r="H52" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="I52" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="J52" s="70" t="s">
         <v>60</v>
       </c>
       <c r="K52" s="70"/>
@@ -10473,10 +10691,12 @@
       <c r="Z52" s="14"/>
       <c r="AA52" s="14"/>
     </row>
-    <row r="53" spans="1:27" s="78" customFormat="1" ht="214.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="70"/>
+    <row r="53" spans="1:27" s="78" customFormat="1" ht="214.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="70">
+        <v>50</v>
+      </c>
       <c r="B53" s="70" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="C53" s="70" t="s">
         <v>14</v>
@@ -10485,17 +10705,17 @@
         <v>55</v>
       </c>
       <c r="E53" s="71" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="F53" s="70"/>
       <c r="G53" s="71" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H53" s="71" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I53" s="71" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="J53" s="71" t="s">
         <v>60</v>
@@ -10522,12 +10742,12 @@
       <c r="Z53" s="14"/>
       <c r="AA53" s="14"/>
     </row>
-    <row r="54" spans="1:27" ht="129" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" s="78" customFormat="1" ht="214.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="70">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B54" s="70" t="s">
-        <v>258</v>
+        <v>347</v>
       </c>
       <c r="C54" s="70" t="s">
         <v>14</v>
@@ -10535,20 +10755,20 @@
       <c r="D54" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="E54" s="70" t="s">
-        <v>259</v>
+      <c r="E54" s="71" t="s">
+        <v>444</v>
       </c>
       <c r="F54" s="70"/>
-      <c r="G54" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="H54" s="70" t="s">
-        <v>257</v>
-      </c>
-      <c r="I54" s="70" t="s">
-        <v>249</v>
-      </c>
-      <c r="J54" s="70" t="s">
+      <c r="G54" s="71" t="s">
+        <v>445</v>
+      </c>
+      <c r="H54" s="71" t="s">
+        <v>446</v>
+      </c>
+      <c r="I54" s="71" t="s">
+        <v>447</v>
+      </c>
+      <c r="J54" s="71" t="s">
         <v>60</v>
       </c>
       <c r="K54" s="70"/>
@@ -10573,28 +10793,28 @@
       <c r="Z54" s="14"/>
       <c r="AA54" s="14"/>
     </row>
-    <row r="55" spans="1:27" ht="129" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" ht="129" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="70">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B55" s="70" t="s">
-        <v>261</v>
+        <v>348</v>
       </c>
       <c r="C55" s="70" t="s">
         <v>14</v>
       </c>
       <c r="D55" s="70" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="E55" s="70" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F55" s="70"/>
-      <c r="G55" s="71" t="s">
-        <v>263</v>
+      <c r="G55" s="70" t="s">
+        <v>260</v>
       </c>
       <c r="H55" s="70" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="I55" s="70" t="s">
         <v>249</v>
@@ -10624,12 +10844,12 @@
       <c r="Z55" s="14"/>
       <c r="AA55" s="14"/>
     </row>
-    <row r="56" spans="1:27" s="78" customFormat="1" ht="129" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" ht="129" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="70">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B56" s="70" t="s">
-        <v>261</v>
+        <v>356</v>
       </c>
       <c r="C56" s="70" t="s">
         <v>14</v>
@@ -10637,12 +10857,12 @@
       <c r="D56" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="E56" s="71" t="s">
-        <v>440</v>
+      <c r="E56" s="70" t="s">
+        <v>262</v>
       </c>
       <c r="F56" s="70"/>
       <c r="G56" s="71" t="s">
-        <v>441</v>
+        <v>263</v>
       </c>
       <c r="H56" s="70" t="s">
         <v>264</v>
@@ -10675,34 +10895,34 @@
       <c r="Z56" s="14"/>
       <c r="AA56" s="14"/>
     </row>
-    <row r="57" spans="1:27" ht="129" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" s="78" customFormat="1" ht="129" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="70">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B57" s="70" t="s">
-        <v>265</v>
+        <v>463</v>
       </c>
       <c r="C57" s="70" t="s">
         <v>14</v>
       </c>
       <c r="D57" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="E57" s="70" t="s">
-        <v>266</v>
+        <v>118</v>
+      </c>
+      <c r="E57" s="71" t="s">
+        <v>440</v>
       </c>
       <c r="F57" s="70"/>
-      <c r="G57" s="70" t="s">
-        <v>267</v>
+      <c r="G57" s="71" t="s">
+        <v>441</v>
       </c>
       <c r="H57" s="70" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="I57" s="70" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="J57" s="70" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K57" s="70"/>
       <c r="L57" s="70" t="s">
@@ -10726,31 +10946,31 @@
       <c r="Z57" s="14"/>
       <c r="AA57" s="14"/>
     </row>
-    <row r="58" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" ht="129" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="70">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B58" s="70" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="C58" s="70" t="s">
         <v>14</v>
       </c>
       <c r="D58" s="70" t="s">
-        <v>167</v>
+        <v>55</v>
       </c>
       <c r="E58" s="70" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F58" s="70"/>
       <c r="G58" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="H58" s="71" t="s">
-        <v>379</v>
-      </c>
-      <c r="I58" s="71" t="s">
-        <v>379</v>
+        <v>267</v>
+      </c>
+      <c r="H58" s="70" t="s">
+        <v>268</v>
+      </c>
+      <c r="I58" s="70" t="s">
+        <v>268</v>
       </c>
       <c r="J58" s="70" t="s">
         <v>52</v>
@@ -10760,7 +10980,7 @@
         <v>53</v>
       </c>
       <c r="M58" s="72">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="N58" s="70"/>
       <c r="O58" s="70"/>
@@ -10777,12 +10997,12 @@
       <c r="Z58" s="14"/>
       <c r="AA58" s="14"/>
     </row>
-    <row r="59" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" ht="86.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="70">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B59" s="70" t="s">
-        <v>272</v>
+        <v>465</v>
       </c>
       <c r="C59" s="70" t="s">
         <v>14</v>
@@ -10791,20 +11011,20 @@
         <v>167</v>
       </c>
       <c r="E59" s="70" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F59" s="70"/>
       <c r="G59" s="70" t="s">
-        <v>274</v>
-      </c>
-      <c r="H59" s="70" t="s">
-        <v>275</v>
-      </c>
-      <c r="I59" s="70" t="s">
-        <v>276</v>
+        <v>271</v>
+      </c>
+      <c r="H59" s="71" t="s">
+        <v>379</v>
+      </c>
+      <c r="I59" s="71" t="s">
+        <v>379</v>
       </c>
       <c r="J59" s="70" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K59" s="70"/>
       <c r="L59" s="70" t="s">
@@ -10828,12 +11048,12 @@
       <c r="Z59" s="14"/>
       <c r="AA59" s="14"/>
     </row>
-    <row r="60" spans="1:27" ht="72" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" ht="86.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="70">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B60" s="70" t="s">
-        <v>277</v>
+        <v>466</v>
       </c>
       <c r="C60" s="70" t="s">
         <v>14</v>
@@ -10842,20 +11062,20 @@
         <v>167</v>
       </c>
       <c r="E60" s="70" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F60" s="70"/>
       <c r="G60" s="70" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="H60" s="70" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="I60" s="70" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J60" s="70" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K60" s="70"/>
       <c r="L60" s="70" t="s">
@@ -10879,12 +11099,12 @@
       <c r="Z60" s="14"/>
       <c r="AA60" s="14"/>
     </row>
-    <row r="61" spans="1:27" ht="72" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" ht="72" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="70">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B61" s="70" t="s">
-        <v>347</v>
+        <v>467</v>
       </c>
       <c r="C61" s="70" t="s">
         <v>14</v>
@@ -10892,20 +11112,20 @@
       <c r="D61" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="E61" s="71" t="s">
-        <v>342</v>
+      <c r="E61" s="70" t="s">
+        <v>278</v>
       </c>
       <c r="F61" s="70"/>
-      <c r="G61" s="71" t="s">
-        <v>343</v>
-      </c>
-      <c r="H61" s="71" t="s">
-        <v>344</v>
-      </c>
-      <c r="I61" s="71" t="s">
-        <v>344</v>
-      </c>
-      <c r="J61" s="71" t="s">
+      <c r="G61" s="70" t="s">
+        <v>279</v>
+      </c>
+      <c r="H61" s="70" t="s">
+        <v>280</v>
+      </c>
+      <c r="I61" s="70" t="s">
+        <v>280</v>
+      </c>
+      <c r="J61" s="70" t="s">
         <v>52</v>
       </c>
       <c r="K61" s="70"/>
@@ -10930,12 +11150,12 @@
       <c r="Z61" s="14"/>
       <c r="AA61" s="14"/>
     </row>
-    <row r="62" spans="1:27" ht="57.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" ht="72" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="70">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B62" s="70" t="s">
-        <v>348</v>
+        <v>468</v>
       </c>
       <c r="C62" s="70" t="s">
         <v>14</v>
@@ -10944,19 +11164,19 @@
         <v>167</v>
       </c>
       <c r="E62" s="71" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F62" s="70"/>
       <c r="G62" s="71" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H62" s="71" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I62" s="71" t="s">
-        <v>346</v>
-      </c>
-      <c r="J62" s="70" t="s">
+        <v>344</v>
+      </c>
+      <c r="J62" s="71" t="s">
         <v>52</v>
       </c>
       <c r="K62" s="70"/>
@@ -10981,125 +11201,123 @@
       <c r="Z62" s="14"/>
       <c r="AA62" s="14"/>
     </row>
-    <row r="63" spans="1:27" s="77" customFormat="1" ht="86.25" x14ac:dyDescent="0.25">
-      <c r="A63" s="73">
-        <v>53</v>
-      </c>
-      <c r="B63" s="73" t="s">
-        <v>356</v>
-      </c>
-      <c r="C63" s="73" t="s">
+    <row r="63" spans="1:27" ht="57.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="70">
+        <v>60</v>
+      </c>
+      <c r="B63" s="70" t="s">
+        <v>469</v>
+      </c>
+      <c r="C63" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="74" t="s">
-        <v>200</v>
-      </c>
-      <c r="E63" s="70" t="s">
-        <v>357</v>
+      <c r="D63" s="70" t="s">
+        <v>167</v>
+      </c>
+      <c r="E63" s="71" t="s">
+        <v>349</v>
       </c>
       <c r="F63" s="70"/>
       <c r="G63" s="71" t="s">
         <v>345</v>
       </c>
-      <c r="H63" s="70" t="s">
-        <v>203</v>
-      </c>
-      <c r="I63" s="70" t="s">
-        <v>203</v>
+      <c r="H63" s="71" t="s">
+        <v>346</v>
+      </c>
+      <c r="I63" s="71" t="s">
+        <v>346</v>
       </c>
       <c r="J63" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="K63" s="73"/>
+      <c r="K63" s="70"/>
       <c r="L63" s="70" t="s">
         <v>53</v>
       </c>
       <c r="M63" s="72">
         <v>44203</v>
       </c>
-      <c r="N63" s="73"/>
-      <c r="O63" s="73"/>
-      <c r="P63" s="73"/>
-      <c r="Q63" s="73"/>
-      <c r="R63" s="73"/>
-      <c r="S63" s="73"/>
-      <c r="T63" s="73"/>
-      <c r="U63" s="76"/>
-      <c r="V63" s="76"/>
-      <c r="W63" s="76"/>
-      <c r="X63" s="76"/>
-      <c r="Y63" s="76"/>
-      <c r="Z63" s="76"/>
-      <c r="AA63" s="76"/>
-    </row>
-    <row r="64" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
+      <c r="N63" s="70"/>
+      <c r="O63" s="70"/>
+      <c r="P63" s="70"/>
+      <c r="Q63" s="70"/>
+      <c r="R63" s="70"/>
+      <c r="S63" s="70"/>
+      <c r="T63" s="70"/>
+      <c r="U63" s="14"/>
+      <c r="V63" s="14"/>
+      <c r="W63" s="14"/>
+      <c r="X63" s="14"/>
+      <c r="Y63" s="14"/>
+      <c r="Z63" s="14"/>
+      <c r="AA63" s="14"/>
+    </row>
+    <row r="64" spans="1:27" s="77" customFormat="1" ht="86.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="70">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B64" s="70" t="s">
-        <v>358</v>
-      </c>
-      <c r="C64" s="70" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" s="70" t="s">
-        <v>55</v>
+        <v>470</v>
+      </c>
+      <c r="C64" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="74" t="s">
+        <v>200</v>
       </c>
       <c r="E64" s="70" t="s">
-        <v>360</v>
-      </c>
-      <c r="F64" s="70" t="s">
-        <v>359</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="F64" s="70"/>
       <c r="G64" s="71" t="s">
-        <v>436</v>
+        <v>345</v>
       </c>
       <c r="H64" s="70" t="s">
-        <v>361</v>
+        <v>203</v>
       </c>
       <c r="I64" s="70" t="s">
-        <v>361</v>
+        <v>203</v>
       </c>
       <c r="J64" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="K64" s="70"/>
+      <c r="K64" s="73"/>
       <c r="L64" s="70" t="s">
         <v>53</v>
       </c>
       <c r="M64" s="72">
         <v>44203</v>
       </c>
-      <c r="N64" s="70"/>
-      <c r="O64" s="70"/>
-      <c r="P64" s="70"/>
-      <c r="Q64" s="70"/>
-      <c r="R64" s="70"/>
-      <c r="S64" s="70"/>
-      <c r="T64" s="70"/>
-      <c r="U64" s="14"/>
-      <c r="V64" s="14"/>
-      <c r="W64" s="14"/>
-      <c r="X64" s="14"/>
-      <c r="Y64" s="14"/>
-      <c r="Z64" s="14"/>
-      <c r="AA64" s="14"/>
-    </row>
-    <row r="65" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
+      <c r="N64" s="73"/>
+      <c r="O64" s="73"/>
+      <c r="P64" s="73"/>
+      <c r="Q64" s="73"/>
+      <c r="R64" s="73"/>
+      <c r="S64" s="73"/>
+      <c r="T64" s="73"/>
+      <c r="U64" s="76"/>
+      <c r="V64" s="76"/>
+      <c r="W64" s="76"/>
+      <c r="X64" s="76"/>
+      <c r="Y64" s="76"/>
+      <c r="Z64" s="76"/>
+      <c r="AA64" s="76"/>
+    </row>
+    <row r="65" spans="1:27" ht="86.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="70">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B65" s="70" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C65" s="70" t="s">
         <v>18</v>
       </c>
       <c r="D65" s="70" t="s">
-        <v>167</v>
+        <v>55</v>
       </c>
       <c r="E65" s="70" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F65" s="70" t="s">
         <v>359</v>
@@ -11108,12 +11326,12 @@
         <v>436</v>
       </c>
       <c r="H65" s="70" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I65" s="70" t="s">
-        <v>363</v>
-      </c>
-      <c r="J65" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="J65" s="70" t="s">
         <v>52</v>
       </c>
       <c r="K65" s="70"/>
@@ -11138,12 +11356,12 @@
       <c r="Z65" s="14"/>
       <c r="AA65" s="14"/>
     </row>
-    <row r="66" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" ht="100.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="70">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B66" s="70" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C66" s="70" t="s">
         <v>18</v>
@@ -11151,21 +11369,23 @@
       <c r="D66" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="E66" s="79" t="s">
-        <v>364</v>
-      </c>
-      <c r="F66" s="70"/>
+      <c r="E66" s="70" t="s">
+        <v>362</v>
+      </c>
+      <c r="F66" s="70" t="s">
+        <v>359</v>
+      </c>
       <c r="G66" s="71" t="s">
-        <v>365</v>
-      </c>
-      <c r="H66" s="71" t="s">
-        <v>366</v>
-      </c>
-      <c r="I66" s="71" t="s">
-        <v>367</v>
-      </c>
-      <c r="J66" s="70" t="s">
-        <v>60</v>
+        <v>436</v>
+      </c>
+      <c r="H66" s="70" t="s">
+        <v>363</v>
+      </c>
+      <c r="I66" s="70" t="s">
+        <v>363</v>
+      </c>
+      <c r="J66" s="71" t="s">
+        <v>52</v>
       </c>
       <c r="K66" s="70"/>
       <c r="L66" s="70" t="s">
@@ -11189,12 +11409,12 @@
       <c r="Z66" s="14"/>
       <c r="AA66" s="14"/>
     </row>
-    <row r="67" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" ht="86.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="70">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B67" s="70" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C67" s="70" t="s">
         <v>18</v>
@@ -11202,21 +11422,21 @@
       <c r="D67" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="E67" s="71" t="s">
-        <v>377</v>
+      <c r="E67" s="79" t="s">
+        <v>364</v>
       </c>
       <c r="F67" s="70"/>
       <c r="G67" s="71" t="s">
-        <v>436</v>
+        <v>365</v>
       </c>
       <c r="H67" s="71" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="I67" s="71" t="s">
-        <v>378</v>
-      </c>
-      <c r="J67" s="71" t="s">
-        <v>52</v>
+        <v>367</v>
+      </c>
+      <c r="J67" s="70" t="s">
+        <v>60</v>
       </c>
       <c r="K67" s="70"/>
       <c r="L67" s="70" t="s">
@@ -11240,33 +11460,31 @@
       <c r="Z67" s="14"/>
       <c r="AA67" s="14"/>
     </row>
-    <row r="68" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" ht="86.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="70">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B68" s="70" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C68" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="71" t="s">
-        <v>55</v>
+      <c r="D68" s="70" t="s">
+        <v>167</v>
       </c>
       <c r="E68" s="71" t="s">
-        <v>380</v>
-      </c>
-      <c r="F68" s="71" t="s">
-        <v>381</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="F68" s="70"/>
       <c r="G68" s="71" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H68" s="71" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="I68" s="71" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="J68" s="71" t="s">
         <v>52</v>
@@ -11293,12 +11511,12 @@
       <c r="Z68" s="14"/>
       <c r="AA68" s="14"/>
     </row>
-    <row r="69" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" ht="86.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="70">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B69" s="70" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C69" s="70" t="s">
         <v>18</v>
@@ -11307,17 +11525,19 @@
         <v>55</v>
       </c>
       <c r="E69" s="71" t="s">
-        <v>383</v>
-      </c>
-      <c r="F69" s="70"/>
+        <v>380</v>
+      </c>
+      <c r="F69" s="71" t="s">
+        <v>381</v>
+      </c>
       <c r="G69" s="71" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H69" s="71" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I69" s="71" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J69" s="71" t="s">
         <v>52</v>
@@ -11344,12 +11564,12 @@
       <c r="Z69" s="14"/>
       <c r="AA69" s="14"/>
     </row>
-    <row r="70" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" ht="86.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="70">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B70" s="70" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C70" s="70" t="s">
         <v>18</v>
@@ -11358,17 +11578,17 @@
         <v>55</v>
       </c>
       <c r="E70" s="71" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F70" s="70"/>
       <c r="G70" s="71" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H70" s="71" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I70" s="71" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J70" s="71" t="s">
         <v>52</v>
@@ -11395,12 +11615,12 @@
       <c r="Z70" s="14"/>
       <c r="AA70" s="14"/>
     </row>
-    <row r="71" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" ht="86.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="70">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B71" s="70" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C71" s="70" t="s">
         <v>18</v>
@@ -11409,20 +11629,20 @@
         <v>55</v>
       </c>
       <c r="E71" s="71" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="F71" s="70"/>
       <c r="G71" s="71" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H71" s="71" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I71" s="71" t="s">
         <v>386</v>
       </c>
-      <c r="J71" s="70" t="s">
-        <v>60</v>
+      <c r="J71" s="71" t="s">
+        <v>52</v>
       </c>
       <c r="K71" s="70"/>
       <c r="L71" s="70" t="s">
@@ -11446,31 +11666,31 @@
       <c r="Z71" s="14"/>
       <c r="AA71" s="14"/>
     </row>
-    <row r="72" spans="1:27" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" ht="86.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="70">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B72" s="70" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C72" s="70" t="s">
         <v>18</v>
       </c>
       <c r="D72" s="71" t="s">
-        <v>167</v>
+        <v>55</v>
       </c>
       <c r="E72" s="71" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="F72" s="70"/>
       <c r="G72" s="71" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H72" s="71" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I72" s="71" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="J72" s="70" t="s">
         <v>60</v>
@@ -11497,34 +11717,34 @@
       <c r="Z72" s="14"/>
       <c r="AA72" s="14"/>
     </row>
-    <row r="73" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="70">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B73" s="70" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C73" s="70" t="s">
         <v>18</v>
       </c>
       <c r="D73" s="71" t="s">
-        <v>391</v>
+        <v>167</v>
       </c>
       <c r="E73" s="71" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F73" s="70"/>
       <c r="G73" s="71" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H73" s="71" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="I73" s="71" t="s">
-        <v>393</v>
-      </c>
-      <c r="J73" s="71" t="s">
-        <v>52</v>
+        <v>390</v>
+      </c>
+      <c r="J73" s="70" t="s">
+        <v>60</v>
       </c>
       <c r="K73" s="70"/>
       <c r="L73" s="70" t="s">
@@ -11548,25 +11768,25 @@
       <c r="Z73" s="14"/>
       <c r="AA73" s="14"/>
     </row>
-    <row r="74" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" ht="86.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="70">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B74" s="70" t="s">
-        <v>409</v>
+        <v>376</v>
       </c>
       <c r="C74" s="70" t="s">
         <v>18</v>
       </c>
       <c r="D74" s="71" t="s">
-        <v>55</v>
+        <v>391</v>
       </c>
       <c r="E74" s="71" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F74" s="70"/>
       <c r="G74" s="71" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H74" s="71" t="s">
         <v>393</v>
@@ -11599,12 +11819,12 @@
       <c r="Z74" s="14"/>
       <c r="AA74" s="14"/>
     </row>
-    <row r="75" spans="1:27" ht="57.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" ht="86.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="70">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B75" s="70" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C75" s="70" t="s">
         <v>18</v>
@@ -11613,17 +11833,17 @@
         <v>55</v>
       </c>
       <c r="E75" s="71" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F75" s="70"/>
       <c r="G75" s="71" t="s">
-        <v>396</v>
+        <v>429</v>
       </c>
       <c r="H75" s="71" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I75" s="71" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="J75" s="71" t="s">
         <v>52</v>
@@ -11650,12 +11870,12 @@
       <c r="Z75" s="14"/>
       <c r="AA75" s="14"/>
     </row>
-    <row r="76" spans="1:27" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" ht="57.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="70">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B76" s="70" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C76" s="70" t="s">
         <v>18</v>
@@ -11664,17 +11884,17 @@
         <v>55</v>
       </c>
       <c r="E76" s="71" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F76" s="70"/>
       <c r="G76" s="71" t="s">
-        <v>428</v>
+        <v>396</v>
       </c>
       <c r="H76" s="71" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I76" s="71" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J76" s="71" t="s">
         <v>52</v>
@@ -11701,12 +11921,12 @@
       <c r="Z76" s="14"/>
       <c r="AA76" s="14"/>
     </row>
-    <row r="77" spans="1:27" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="70">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B77" s="70" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C77" s="70" t="s">
         <v>18</v>
@@ -11715,17 +11935,17 @@
         <v>55</v>
       </c>
       <c r="E77" s="71" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F77" s="70"/>
       <c r="G77" s="71" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H77" s="71" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="I77" s="71" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J77" s="71" t="s">
         <v>52</v>
@@ -11752,12 +11972,12 @@
       <c r="Z77" s="14"/>
       <c r="AA77" s="14"/>
     </row>
-    <row r="78" spans="1:27" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="70">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B78" s="70" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C78" s="70" t="s">
         <v>18</v>
@@ -11766,17 +11986,17 @@
         <v>55</v>
       </c>
       <c r="E78" s="71" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F78" s="70"/>
       <c r="G78" s="71" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H78" s="71" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I78" s="71" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="J78" s="71" t="s">
         <v>52</v>
@@ -11803,34 +12023,34 @@
       <c r="Z78" s="14"/>
       <c r="AA78" s="14"/>
     </row>
-    <row r="79" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="70">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B79" s="70" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C79" s="70" t="s">
         <v>18</v>
       </c>
       <c r="D79" s="71" t="s">
-        <v>167</v>
-      </c>
-      <c r="E79" s="79" t="s">
-        <v>406</v>
+        <v>55</v>
+      </c>
+      <c r="E79" s="71" t="s">
+        <v>403</v>
       </c>
       <c r="F79" s="70"/>
       <c r="G79" s="71" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="H79" s="71" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="I79" s="71" t="s">
-        <v>367</v>
-      </c>
-      <c r="J79" s="70" t="s">
-        <v>60</v>
+        <v>405</v>
+      </c>
+      <c r="J79" s="71" t="s">
+        <v>52</v>
       </c>
       <c r="K79" s="70"/>
       <c r="L79" s="70" t="s">
@@ -11854,12 +12074,12 @@
       <c r="Z79" s="14"/>
       <c r="AA79" s="14"/>
     </row>
-    <row r="80" spans="1:27" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" ht="86.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="70">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B80" s="70" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C80" s="70" t="s">
         <v>18</v>
@@ -11867,18 +12087,18 @@
       <c r="D80" s="71" t="s">
         <v>167</v>
       </c>
-      <c r="E80" s="71" t="s">
-        <v>408</v>
+      <c r="E80" s="79" t="s">
+        <v>406</v>
       </c>
       <c r="F80" s="70"/>
       <c r="G80" s="71" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="H80" s="71" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="I80" s="71" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="J80" s="70" t="s">
         <v>60</v>
@@ -11905,40 +12125,42 @@
       <c r="Z80" s="14"/>
       <c r="AA80" s="14"/>
     </row>
-    <row r="81" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="70">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B81" s="70" t="s">
-        <v>287</v>
+        <v>415</v>
       </c>
       <c r="C81" s="70" t="s">
-        <v>281</v>
+        <v>18</v>
       </c>
       <c r="D81" s="71" t="s">
-        <v>55</v>
+        <v>167</v>
       </c>
       <c r="E81" s="71" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="F81" s="70"/>
       <c r="G81" s="71" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H81" s="71" t="s">
-        <v>417</v>
+        <v>389</v>
       </c>
       <c r="I81" s="71" t="s">
-        <v>417</v>
-      </c>
-      <c r="J81" s="71" t="s">
-        <v>52</v>
+        <v>390</v>
+      </c>
+      <c r="J81" s="70" t="s">
+        <v>60</v>
       </c>
       <c r="K81" s="70"/>
       <c r="L81" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="M81" s="72"/>
+      <c r="M81" s="72">
+        <v>44203</v>
+      </c>
       <c r="N81" s="70"/>
       <c r="O81" s="70"/>
       <c r="P81" s="70"/>
@@ -11954,31 +12176,31 @@
       <c r="Z81" s="14"/>
       <c r="AA81" s="14"/>
     </row>
-    <row r="82" spans="1:27" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" ht="86.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="70">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B82" s="70" t="s">
-        <v>287</v>
+        <v>471</v>
       </c>
       <c r="C82" s="70" t="s">
-        <v>281</v>
+        <v>18</v>
       </c>
       <c r="D82" s="71" t="s">
         <v>55</v>
       </c>
       <c r="E82" s="71" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F82" s="70"/>
       <c r="G82" s="71" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H82" s="71" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="I82" s="71" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="J82" s="71" t="s">
         <v>52</v>
@@ -12003,34 +12225,34 @@
       <c r="Z82" s="14"/>
       <c r="AA82" s="14"/>
     </row>
-    <row r="83" spans="1:27" ht="100.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="70">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B83" s="70" t="s">
-        <v>287</v>
+        <v>472</v>
       </c>
       <c r="C83" s="70" t="s">
-        <v>281</v>
+        <v>18</v>
       </c>
       <c r="D83" s="71" t="s">
         <v>55</v>
       </c>
       <c r="E83" s="71" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F83" s="70"/>
       <c r="G83" s="71" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="H83" s="71" t="s">
-        <v>387</v>
+        <v>419</v>
       </c>
       <c r="I83" s="71" t="s">
         <v>419</v>
       </c>
-      <c r="J83" s="70" t="s">
-        <v>60</v>
+      <c r="J83" s="71" t="s">
+        <v>52</v>
       </c>
       <c r="K83" s="70"/>
       <c r="L83" s="70" t="s">
@@ -12052,34 +12274,34 @@
       <c r="Z83" s="14"/>
       <c r="AA83" s="14"/>
     </row>
-    <row r="84" spans="1:27" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" ht="100.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="70">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B84" s="70" t="s">
-        <v>287</v>
+        <v>473</v>
       </c>
       <c r="C84" s="70" t="s">
-        <v>281</v>
+        <v>18</v>
       </c>
       <c r="D84" s="71" t="s">
         <v>55</v>
       </c>
       <c r="E84" s="71" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F84" s="70"/>
       <c r="G84" s="71" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="H84" s="71" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="I84" s="71" t="s">
-        <v>393</v>
-      </c>
-      <c r="J84" s="71" t="s">
-        <v>52</v>
+        <v>419</v>
+      </c>
+      <c r="J84" s="70" t="s">
+        <v>60</v>
       </c>
       <c r="K84" s="70"/>
       <c r="L84" s="70" t="s">
@@ -12101,25 +12323,25 @@
       <c r="Z84" s="14"/>
       <c r="AA84" s="14"/>
     </row>
-    <row r="85" spans="1:27" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="70">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B85" s="70" t="s">
-        <v>287</v>
+        <v>474</v>
       </c>
       <c r="C85" s="70" t="s">
-        <v>281</v>
+        <v>18</v>
       </c>
       <c r="D85" s="71" t="s">
         <v>55</v>
       </c>
       <c r="E85" s="71" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="F85" s="70"/>
       <c r="G85" s="71" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="H85" s="71" t="s">
         <v>393</v>
@@ -12150,26 +12372,34 @@
       <c r="Z85" s="14"/>
       <c r="AA85" s="14"/>
     </row>
-    <row r="86" spans="1:27" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A86" s="70">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B86" s="70" t="s">
-        <v>287</v>
+        <v>475</v>
       </c>
       <c r="C86" s="70" t="s">
-        <v>281</v>
+        <v>18</v>
       </c>
       <c r="D86" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="E86" s="71"/>
+      <c r="E86" s="71" t="s">
+        <v>437</v>
+      </c>
       <c r="F86" s="70"/>
-      <c r="G86" s="71"/>
-      <c r="H86" s="70"/>
-      <c r="I86" s="70"/>
-      <c r="J86" s="70" t="s">
-        <v>60</v>
+      <c r="G86" s="71" t="s">
+        <v>438</v>
+      </c>
+      <c r="H86" s="71" t="s">
+        <v>393</v>
+      </c>
+      <c r="I86" s="71" t="s">
+        <v>393</v>
+      </c>
+      <c r="J86" s="71" t="s">
+        <v>52</v>
       </c>
       <c r="K86" s="70"/>
       <c r="L86" s="70" t="s">
@@ -12191,32 +12421,36 @@
       <c r="Z86" s="14"/>
       <c r="AA86" s="14"/>
     </row>
-    <row r="87" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27" ht="171.75" x14ac:dyDescent="0.25">
       <c r="A87" s="70">
-        <v>77</v>
-      </c>
-      <c r="B87" s="70" t="s">
-        <v>287</v>
-      </c>
-      <c r="C87" s="70" t="s">
-        <v>281</v>
-      </c>
-      <c r="D87" s="70"/>
-      <c r="E87" s="70" t="s">
-        <v>282</v>
-      </c>
-      <c r="F87" s="70"/>
-      <c r="G87" s="70" t="s">
-        <v>283</v>
-      </c>
-      <c r="H87" s="70" t="s">
-        <v>284</v>
-      </c>
-      <c r="I87" s="70" t="s">
-        <v>285</v>
-      </c>
-      <c r="J87" s="70" t="s">
-        <v>60</v>
+        <v>84</v>
+      </c>
+      <c r="B87" s="71" t="s">
+        <v>476</v>
+      </c>
+      <c r="C87" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" s="71" t="s">
+        <v>350</v>
+      </c>
+      <c r="E87" s="71" t="s">
+        <v>477</v>
+      </c>
+      <c r="F87" s="71" t="s">
+        <v>480</v>
+      </c>
+      <c r="G87" s="71" t="s">
+        <v>478</v>
+      </c>
+      <c r="H87" s="71" t="s">
+        <v>491</v>
+      </c>
+      <c r="I87" s="71" t="s">
+        <v>491</v>
+      </c>
+      <c r="J87" s="71" t="s">
+        <v>52</v>
       </c>
       <c r="K87" s="70"/>
       <c r="L87" s="70" t="s">
@@ -12238,32 +12472,36 @@
       <c r="Z87" s="14"/>
       <c r="AA87" s="14"/>
     </row>
-    <row r="88" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A88" s="70">
-        <v>78</v>
-      </c>
-      <c r="B88" s="70" t="s">
-        <v>287</v>
-      </c>
-      <c r="C88" s="70" t="s">
-        <v>281</v>
-      </c>
-      <c r="D88" s="70"/>
-      <c r="E88" s="70" t="s">
-        <v>282</v>
-      </c>
-      <c r="F88" s="70"/>
-      <c r="G88" s="70" t="s">
-        <v>283</v>
-      </c>
-      <c r="H88" s="70" t="s">
-        <v>284</v>
-      </c>
-      <c r="I88" s="70" t="s">
-        <v>285</v>
-      </c>
-      <c r="J88" s="70" t="s">
-        <v>60</v>
+        <v>85</v>
+      </c>
+      <c r="B88" s="71" t="s">
+        <v>482</v>
+      </c>
+      <c r="C88" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88" s="71" t="s">
+        <v>350</v>
+      </c>
+      <c r="E88" s="71" t="s">
+        <v>479</v>
+      </c>
+      <c r="F88" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="G88" s="71" t="s">
+        <v>478</v>
+      </c>
+      <c r="H88" s="71" t="s">
+        <v>481</v>
+      </c>
+      <c r="I88" s="71" t="s">
+        <v>481</v>
+      </c>
+      <c r="J88" s="71" t="s">
+        <v>52</v>
       </c>
       <c r="K88" s="70"/>
       <c r="L88" s="70" t="s">
@@ -12285,32 +12523,36 @@
       <c r="Z88" s="14"/>
       <c r="AA88" s="14"/>
     </row>
-    <row r="89" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27" ht="171.75" x14ac:dyDescent="0.25">
       <c r="A89" s="70">
-        <v>79</v>
-      </c>
-      <c r="B89" s="70" t="s">
-        <v>287</v>
-      </c>
-      <c r="C89" s="70" t="s">
-        <v>281</v>
-      </c>
-      <c r="D89" s="70"/>
-      <c r="E89" s="70" t="s">
-        <v>282</v>
-      </c>
-      <c r="F89" s="70"/>
-      <c r="G89" s="70" t="s">
-        <v>283</v>
-      </c>
-      <c r="H89" s="70" t="s">
-        <v>284</v>
-      </c>
-      <c r="I89" s="70" t="s">
-        <v>285</v>
-      </c>
-      <c r="J89" s="70" t="s">
-        <v>60</v>
+        <v>86</v>
+      </c>
+      <c r="B89" s="71" t="s">
+        <v>483</v>
+      </c>
+      <c r="C89" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="D89" s="71" t="s">
+        <v>350</v>
+      </c>
+      <c r="E89" s="71" t="s">
+        <v>492</v>
+      </c>
+      <c r="F89" s="71" t="s">
+        <v>480</v>
+      </c>
+      <c r="G89" s="71" t="s">
+        <v>493</v>
+      </c>
+      <c r="H89" s="71" t="s">
+        <v>494</v>
+      </c>
+      <c r="I89" s="71" t="s">
+        <v>494</v>
+      </c>
+      <c r="J89" s="71" t="s">
+        <v>52</v>
       </c>
       <c r="K89" s="70"/>
       <c r="L89" s="70" t="s">
@@ -12332,32 +12574,36 @@
       <c r="Z89" s="14"/>
       <c r="AA89" s="14"/>
     </row>
-    <row r="90" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A90" s="70">
-        <v>80</v>
-      </c>
-      <c r="B90" s="70" t="s">
-        <v>287</v>
-      </c>
-      <c r="C90" s="70" t="s">
-        <v>281</v>
-      </c>
-      <c r="D90" s="70"/>
-      <c r="E90" s="70" t="s">
-        <v>282</v>
-      </c>
-      <c r="F90" s="70"/>
-      <c r="G90" s="70" t="s">
-        <v>283</v>
-      </c>
-      <c r="H90" s="70" t="s">
-        <v>284</v>
-      </c>
-      <c r="I90" s="70" t="s">
-        <v>285</v>
-      </c>
-      <c r="J90" s="70" t="s">
-        <v>60</v>
+        <v>87</v>
+      </c>
+      <c r="B90" s="71" t="s">
+        <v>484</v>
+      </c>
+      <c r="C90" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90" s="71" t="s">
+        <v>350</v>
+      </c>
+      <c r="E90" s="71" t="s">
+        <v>495</v>
+      </c>
+      <c r="F90" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="G90" s="71" t="s">
+        <v>493</v>
+      </c>
+      <c r="H90" s="71" t="s">
+        <v>496</v>
+      </c>
+      <c r="I90" s="71" t="s">
+        <v>496</v>
+      </c>
+      <c r="J90" s="71" t="s">
+        <v>52</v>
       </c>
       <c r="K90" s="70"/>
       <c r="L90" s="70" t="s">
@@ -12379,32 +12625,36 @@
       <c r="Z90" s="14"/>
       <c r="AA90" s="14"/>
     </row>
-    <row r="91" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27" ht="171.75" x14ac:dyDescent="0.25">
       <c r="A91" s="70">
-        <v>81</v>
-      </c>
-      <c r="B91" s="70" t="s">
-        <v>287</v>
-      </c>
-      <c r="C91" s="70" t="s">
-        <v>281</v>
-      </c>
-      <c r="D91" s="70"/>
-      <c r="E91" s="70" t="s">
-        <v>282</v>
-      </c>
-      <c r="F91" s="70"/>
-      <c r="G91" s="70" t="s">
-        <v>283</v>
-      </c>
-      <c r="H91" s="70" t="s">
-        <v>284</v>
-      </c>
-      <c r="I91" s="70" t="s">
-        <v>285</v>
-      </c>
-      <c r="J91" s="70" t="s">
-        <v>60</v>
+        <v>88</v>
+      </c>
+      <c r="B91" s="71" t="s">
+        <v>485</v>
+      </c>
+      <c r="C91" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" s="71" t="s">
+        <v>350</v>
+      </c>
+      <c r="E91" s="71" t="s">
+        <v>497</v>
+      </c>
+      <c r="F91" s="71" t="s">
+        <v>480</v>
+      </c>
+      <c r="G91" s="71" t="s">
+        <v>499</v>
+      </c>
+      <c r="H91" s="71" t="s">
+        <v>498</v>
+      </c>
+      <c r="I91" s="71" t="s">
+        <v>498</v>
+      </c>
+      <c r="J91" s="71" t="s">
+        <v>52</v>
       </c>
       <c r="K91" s="70"/>
       <c r="L91" s="70" t="s">
@@ -12426,32 +12676,36 @@
       <c r="Z91" s="14"/>
       <c r="AA91" s="14"/>
     </row>
-    <row r="92" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A92" s="70">
-        <v>82</v>
-      </c>
-      <c r="B92" s="70" t="s">
-        <v>287</v>
-      </c>
-      <c r="C92" s="70" t="s">
-        <v>281</v>
-      </c>
-      <c r="D92" s="70"/>
-      <c r="E92" s="70" t="s">
-        <v>282</v>
-      </c>
-      <c r="F92" s="70"/>
-      <c r="G92" s="70" t="s">
-        <v>283</v>
-      </c>
-      <c r="H92" s="70" t="s">
-        <v>284</v>
-      </c>
-      <c r="I92" s="70" t="s">
-        <v>285</v>
-      </c>
-      <c r="J92" s="70" t="s">
-        <v>60</v>
+        <v>89</v>
+      </c>
+      <c r="B92" s="71" t="s">
+        <v>486</v>
+      </c>
+      <c r="C92" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="D92" s="71" t="s">
+        <v>350</v>
+      </c>
+      <c r="E92" s="71" t="s">
+        <v>500</v>
+      </c>
+      <c r="F92" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="G92" s="71" t="s">
+        <v>499</v>
+      </c>
+      <c r="H92" s="71" t="s">
+        <v>501</v>
+      </c>
+      <c r="I92" s="71" t="s">
+        <v>501</v>
+      </c>
+      <c r="J92" s="71" t="s">
+        <v>52</v>
       </c>
       <c r="K92" s="70"/>
       <c r="L92" s="70" t="s">
@@ -12473,29 +12727,31 @@
       <c r="Z92" s="14"/>
       <c r="AA92" s="14"/>
     </row>
-    <row r="93" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A93" s="70">
-        <v>83</v>
-      </c>
-      <c r="B93" s="70" t="s">
-        <v>287</v>
-      </c>
-      <c r="C93" s="70" t="s">
-        <v>281</v>
-      </c>
-      <c r="D93" s="70"/>
-      <c r="E93" s="70" t="s">
-        <v>282</v>
+        <v>90</v>
+      </c>
+      <c r="B93" s="71" t="s">
+        <v>487</v>
+      </c>
+      <c r="C93" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="D93" s="71" t="s">
+        <v>350</v>
+      </c>
+      <c r="E93" s="71" t="s">
+        <v>502</v>
       </c>
       <c r="F93" s="70"/>
-      <c r="G93" s="70" t="s">
-        <v>283</v>
-      </c>
-      <c r="H93" s="70" t="s">
-        <v>284</v>
-      </c>
-      <c r="I93" s="70" t="s">
-        <v>285</v>
+      <c r="G93" s="71" t="s">
+        <v>503</v>
+      </c>
+      <c r="H93" s="71" t="s">
+        <v>504</v>
+      </c>
+      <c r="I93" s="71" t="s">
+        <v>505</v>
       </c>
       <c r="J93" s="70" t="s">
         <v>60</v>
@@ -12520,29 +12776,31 @@
       <c r="Z93" s="14"/>
       <c r="AA93" s="14"/>
     </row>
-    <row r="94" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A94" s="70">
-        <v>84</v>
-      </c>
-      <c r="B94" s="70" t="s">
-        <v>287</v>
-      </c>
-      <c r="C94" s="70" t="s">
-        <v>281</v>
-      </c>
-      <c r="D94" s="70"/>
-      <c r="E94" s="70" t="s">
-        <v>282</v>
+        <v>91</v>
+      </c>
+      <c r="B94" s="71" t="s">
+        <v>488</v>
+      </c>
+      <c r="C94" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="D94" s="71" t="s">
+        <v>350</v>
+      </c>
+      <c r="E94" s="71" t="s">
+        <v>506</v>
       </c>
       <c r="F94" s="70"/>
-      <c r="G94" s="70" t="s">
-        <v>283</v>
-      </c>
-      <c r="H94" s="70" t="s">
-        <v>284</v>
-      </c>
-      <c r="I94" s="70" t="s">
-        <v>285</v>
+      <c r="G94" s="71" t="s">
+        <v>507</v>
+      </c>
+      <c r="H94" s="71" t="s">
+        <v>508</v>
+      </c>
+      <c r="I94" s="71" t="s">
+        <v>509</v>
       </c>
       <c r="J94" s="70" t="s">
         <v>60</v>
@@ -12567,29 +12825,31 @@
       <c r="Z94" s="14"/>
       <c r="AA94" s="14"/>
     </row>
-    <row r="95" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27" ht="100.5" x14ac:dyDescent="0.25">
       <c r="A95" s="70">
-        <v>85</v>
-      </c>
-      <c r="B95" s="70" t="s">
-        <v>287</v>
-      </c>
-      <c r="C95" s="70" t="s">
-        <v>281</v>
-      </c>
-      <c r="D95" s="70"/>
-      <c r="E95" s="70" t="s">
-        <v>282</v>
+        <v>92</v>
+      </c>
+      <c r="B95" s="71" t="s">
+        <v>489</v>
+      </c>
+      <c r="C95" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="D95" s="71" t="s">
+        <v>350</v>
+      </c>
+      <c r="E95" s="71" t="s">
+        <v>510</v>
       </c>
       <c r="F95" s="70"/>
-      <c r="G95" s="70" t="s">
-        <v>283</v>
-      </c>
-      <c r="H95" s="70" t="s">
-        <v>284</v>
-      </c>
-      <c r="I95" s="70" t="s">
-        <v>285</v>
+      <c r="G95" s="71" t="s">
+        <v>511</v>
+      </c>
+      <c r="H95" s="71" t="s">
+        <v>512</v>
+      </c>
+      <c r="I95" s="71" t="s">
+        <v>513</v>
       </c>
       <c r="J95" s="70" t="s">
         <v>60</v>
@@ -12614,32 +12874,36 @@
       <c r="Z95" s="14"/>
       <c r="AA95" s="14"/>
     </row>
-    <row r="96" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27" ht="72" x14ac:dyDescent="0.25">
       <c r="A96" s="70">
-        <v>86</v>
-      </c>
-      <c r="B96" s="70" t="s">
-        <v>287</v>
-      </c>
-      <c r="C96" s="70" t="s">
-        <v>281</v>
-      </c>
-      <c r="D96" s="70"/>
-      <c r="E96" s="70" t="s">
-        <v>282</v>
-      </c>
-      <c r="F96" s="70"/>
-      <c r="G96" s="70" t="s">
-        <v>283</v>
-      </c>
-      <c r="H96" s="70" t="s">
-        <v>284</v>
-      </c>
-      <c r="I96" s="70" t="s">
-        <v>285</v>
-      </c>
-      <c r="J96" s="70" t="s">
-        <v>60</v>
+        <v>93</v>
+      </c>
+      <c r="B96" s="71" t="s">
+        <v>490</v>
+      </c>
+      <c r="C96" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="D96" s="71" t="s">
+        <v>350</v>
+      </c>
+      <c r="E96" s="71" t="s">
+        <v>514</v>
+      </c>
+      <c r="F96" s="71" t="s">
+        <v>515</v>
+      </c>
+      <c r="G96" s="71" t="s">
+        <v>516</v>
+      </c>
+      <c r="H96" s="71" t="s">
+        <v>517</v>
+      </c>
+      <c r="I96" s="71" t="s">
+        <v>517</v>
+      </c>
+      <c r="J96" s="71" t="s">
+        <v>52</v>
       </c>
       <c r="K96" s="70"/>
       <c r="L96" s="70" t="s">
@@ -12663,7 +12927,7 @@
     </row>
     <row r="97" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A97" s="70">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B97" s="70" t="s">
         <v>287</v>
@@ -12710,7 +12974,7 @@
     </row>
     <row r="98" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A98" s="70">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B98" s="70" t="s">
         <v>287</v>
@@ -12757,7 +13021,7 @@
     </row>
     <row r="99" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A99" s="70">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B99" s="70" t="s">
         <v>287</v>
@@ -12804,7 +13068,7 @@
     </row>
     <row r="100" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A100" s="70">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B100" s="70" t="s">
         <v>287</v>
@@ -12851,7 +13115,7 @@
     </row>
     <row r="101" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A101" s="70">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B101" s="70" t="s">
         <v>287</v>
@@ -12898,7 +13162,7 @@
     </row>
     <row r="102" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A102" s="70">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B102" s="70" t="s">
         <v>287</v>
@@ -12945,7 +13209,7 @@
     </row>
     <row r="103" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A103" s="70">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B103" s="70" t="s">
         <v>287</v>
@@ -12992,7 +13256,7 @@
     </row>
     <row r="104" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A104" s="70">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B104" s="70" t="s">
         <v>287</v>
@@ -13039,7 +13303,7 @@
     </row>
     <row r="105" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A105" s="70">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B105" s="70" t="s">
         <v>287</v>
@@ -13086,7 +13350,7 @@
     </row>
     <row r="106" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A106" s="70">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B106" s="70" t="s">
         <v>287</v>
@@ -13133,7 +13397,7 @@
     </row>
     <row r="107" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A107" s="70">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B107" s="70" t="s">
         <v>287</v>
@@ -13180,7 +13444,7 @@
     </row>
     <row r="108" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A108" s="70">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B108" s="70" t="s">
         <v>287</v>
@@ -13227,7 +13491,7 @@
     </row>
     <row r="109" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A109" s="70">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B109" s="70" t="s">
         <v>287</v>
@@ -13274,7 +13538,7 @@
     </row>
     <row r="110" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A110" s="70">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B110" s="70" t="s">
         <v>287</v>
@@ -13321,7 +13585,7 @@
     </row>
     <row r="111" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A111" s="70">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B111" s="70" t="s">
         <v>287</v>
@@ -13366,9 +13630,52 @@
       <c r="Z111" s="14"/>
       <c r="AA111" s="14"/>
     </row>
-    <row r="112" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F112" s="12"/>
-      <c r="M112" s="69"/>
+    <row r="112" spans="1:27" ht="44.25" x14ac:dyDescent="0.25">
+      <c r="A112" s="70">
+        <v>109</v>
+      </c>
+      <c r="B112" s="70" t="s">
+        <v>287</v>
+      </c>
+      <c r="C112" s="70" t="s">
+        <v>281</v>
+      </c>
+      <c r="D112" s="70"/>
+      <c r="E112" s="70" t="s">
+        <v>282</v>
+      </c>
+      <c r="F112" s="70"/>
+      <c r="G112" s="70" t="s">
+        <v>283</v>
+      </c>
+      <c r="H112" s="70" t="s">
+        <v>284</v>
+      </c>
+      <c r="I112" s="70" t="s">
+        <v>285</v>
+      </c>
+      <c r="J112" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="K112" s="70"/>
+      <c r="L112" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="M112" s="72"/>
+      <c r="N112" s="70"/>
+      <c r="O112" s="70"/>
+      <c r="P112" s="70"/>
+      <c r="Q112" s="70"/>
+      <c r="R112" s="70"/>
+      <c r="S112" s="70"/>
+      <c r="T112" s="70"/>
+      <c r="U112" s="14"/>
+      <c r="V112" s="14"/>
+      <c r="W112" s="14"/>
+      <c r="X112" s="14"/>
+      <c r="Y112" s="14"/>
+      <c r="Z112" s="14"/>
+      <c r="AA112" s="14"/>
     </row>
     <row r="113" spans="6:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F113" s="12"/>
@@ -13404,6 +13711,7 @@
     </row>
     <row r="121" spans="6:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F121" s="12"/>
+      <c r="M121" s="69"/>
     </row>
     <row r="122" spans="6:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F122" s="12"/>
@@ -16062,6 +16370,9 @@
     </row>
     <row r="1007" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F1007" s="12"/>
+    </row>
+    <row r="1008" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1008" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/TCs/Sơn_Testcase.xlsx
+++ b/TCs/Sơn_Testcase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KCPM\Project\Test Document\KCPM-Reports\TCs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C5FF05-F8E6-4DEE-B180-75EBB3720B79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B8C0D0-FB30-4E56-BE76-C3CC232F2C41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="613" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="613" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Function list" sheetId="1" r:id="rId1"/>
@@ -495,10 +495,6 @@
   </si>
   <si>
     <t>1. Trang web thông báo không đủ số lượng 556
-2. Sản phẩm không được thêm vào giỏ hàng</t>
-  </si>
-  <si>
-    <t>1. Trang web không thông báo số lượng sản phẩm không đủ
 2. Sản phẩm không được thêm vào giỏ hàng</t>
   </si>
   <si>
@@ -2484,17 +2480,6 @@
     <t>Không thể thêm một sản phẩm vào giỏ hàng với số lượng bằng số lượng còn lại trong kho của sản phẩm đó</t>
   </si>
   <si>
-    <t>1. Tại trang chủ, chọn sản phẩm "CV Chuck Taylor All Star Low Top Optical White (Classic)"
-2. Ở trang single product, nhập số lượng sản phẩm là 556 (lơn hơn số lượng trong kho của sản phẩm)
-3. Click nút "Thêm vào giỏ hàng"
-Expect:
-1. Trang web thông báo không đủ số lượng 556
-2. Sản phẩm không được thêm vào giỏ hàng
-Actual:
-1. Trang web không thông báo số lượng sản phẩm không đủ
-2. Sản phẩm không được thêm vào giỏ hàng</t>
-  </si>
-  <si>
     <t>Khi thêm sản phẩm vào giỏ hàng với số lượng lớn hơn số lượng còn trong kho, trang web không thông báo số lượng sản phẩm không đủ.</t>
   </si>
   <si>
@@ -3005,7 +2990,22 @@
     <t xml:space="preserve">Đăng nhập hệ thống </t>
   </si>
   <si>
-    <t>Đăng nhập tài khoản Admin ở trang đăng nhập người nhưng không thể đi tới URL dành cho Admin</t>
+    <t>1. Tại trang chủ, chọn sản phẩm "CV Chuck Taylor All Star Low Top Optical White (Classic)"
+2. Ở trang single product, nhập số lượng sản phẩm là 556 (lơn hơn số lượng trong kho của sản phẩm)
+3. Click nút "Thêm vào giỏ hàng"
+Expect:
+1. Trang web thông báo không đủ số lượng 556
+2. Sản phẩm không được thêm vào giỏ hàng
+Actual:
+1. Trang web không thông báo số lượng sản phẩm không đủ
+2. Sản phẩm được thêm vào giỏ hàng với số lượng 556</t>
+  </si>
+  <si>
+    <t>1. Trang web không thông báo số lượng sản phẩm không đủ
+2. Sản phẩm được thêm vào giỏ hàng với số lượng 556</t>
+  </si>
+  <si>
+    <t>Đăng nhập tài khoản Admin ở trang đăng nhập người dùng nhưng không thể đi tới URL dành cho Admin</t>
   </si>
 </sst>
 </file>
@@ -3729,6 +3729,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3756,18 +3768,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -9123,8 +9123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA1006"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9155,22 +9155,22 @@
       <c r="F1" s="58"/>
       <c r="G1" s="57"/>
       <c r="H1" s="57"/>
-      <c r="I1" s="89" t="s">
+      <c r="I1" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="92" t="s">
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="91"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="95"/>
     </row>
     <row r="2" spans="1:27" s="73" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="71" t="s">
@@ -9252,7 +9252,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E3" s="60" t="s">
         <v>45</v>
@@ -9322,7 +9322,7 @@
         <v>57</v>
       </c>
       <c r="K4" s="61" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L4" s="60" t="s">
         <v>50</v>
@@ -9426,7 +9426,7 @@
         <v>57</v>
       </c>
       <c r="K6" s="61" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L6" s="60" t="s">
         <v>50</v>
@@ -9460,7 +9460,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="61" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E7" s="60" t="s">
         <v>69</v>
@@ -9479,7 +9479,7 @@
         <v>57</v>
       </c>
       <c r="K7" s="61" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L7" s="60" t="s">
         <v>50</v>
@@ -9513,7 +9513,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="61" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E8" s="60" t="s">
         <v>74</v>
@@ -9687,7 +9687,7 @@
         <v>57</v>
       </c>
       <c r="K11" s="61" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L11" s="60" t="s">
         <v>50</v>
@@ -9740,7 +9740,7 @@
         <v>57</v>
       </c>
       <c r="K12" s="61" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L12" s="60" t="s">
         <v>50</v>
@@ -9793,7 +9793,7 @@
         <v>57</v>
       </c>
       <c r="K13" s="61" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="L13" s="60" t="s">
         <v>50</v>
@@ -9827,7 +9827,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="61" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E14" s="60" t="s">
         <v>101</v>
@@ -9846,7 +9846,7 @@
         <v>57</v>
       </c>
       <c r="K14" s="61" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L14" s="60" t="s">
         <v>50</v>
@@ -9880,7 +9880,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="61" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E15" s="60" t="s">
         <v>106</v>
@@ -9899,7 +9899,7 @@
         <v>57</v>
       </c>
       <c r="K15" s="61" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L15" s="60" t="s">
         <v>50</v>
@@ -9945,10 +9945,10 @@
         <v>114</v>
       </c>
       <c r="H16" s="61" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I16" s="61" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J16" s="64" t="s">
         <v>49</v>
@@ -10056,7 +10056,7 @@
         <v>57</v>
       </c>
       <c r="K18" s="61" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L18" s="60" t="s">
         <v>50</v>
@@ -10103,13 +10103,13 @@
         <v>128</v>
       </c>
       <c r="I19" s="60" t="s">
-        <v>129</v>
+        <v>667</v>
       </c>
       <c r="J19" s="74" t="s">
         <v>57</v>
       </c>
       <c r="K19" s="61" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L19" s="60" t="s">
         <v>50</v>
@@ -10137,7 +10137,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="60" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C20" s="60" t="s">
         <v>9</v>
@@ -10146,19 +10146,19 @@
         <v>52</v>
       </c>
       <c r="E20" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="F20" s="60" t="s">
+      <c r="G20" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="G20" s="60" t="s">
+      <c r="H20" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="H20" s="60" t="s">
-        <v>134</v>
-      </c>
       <c r="I20" s="60" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J20" s="60" t="s">
         <v>49</v>
@@ -10190,7 +10190,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C21" s="60" t="s">
         <v>9</v>
@@ -10199,19 +10199,19 @@
         <v>52</v>
       </c>
       <c r="E21" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="F21" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="F21" s="60" t="s">
-        <v>132</v>
-      </c>
-      <c r="G21" s="60" t="s">
+      <c r="H21" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="H21" s="60" t="s">
-        <v>138</v>
-      </c>
       <c r="I21" s="60" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J21" s="60" t="s">
         <v>49</v>
@@ -10243,7 +10243,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C22" s="60" t="s">
         <v>9</v>
@@ -10252,25 +10252,25 @@
         <v>52</v>
       </c>
       <c r="E22" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="F22" s="60" t="s">
-        <v>132</v>
-      </c>
-      <c r="G22" s="60" t="s">
+      <c r="H22" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="H22" s="60" t="s">
+      <c r="I22" s="60" t="s">
         <v>142</v>
-      </c>
-      <c r="I22" s="60" t="s">
-        <v>143</v>
       </c>
       <c r="J22" s="74" t="s">
         <v>57</v>
       </c>
       <c r="K22" s="61" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L22" s="60" t="s">
         <v>50</v>
@@ -10298,7 +10298,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C23" s="60" t="s">
         <v>9</v>
@@ -10307,25 +10307,25 @@
         <v>52</v>
       </c>
       <c r="E23" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="F23" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="F23" s="60" t="s">
-        <v>132</v>
-      </c>
-      <c r="G23" s="60" t="s">
+      <c r="H23" s="60" t="s">
+        <v>141</v>
+      </c>
+      <c r="I23" s="60" t="s">
         <v>146</v>
-      </c>
-      <c r="H23" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="I23" s="60" t="s">
-        <v>147</v>
       </c>
       <c r="J23" s="74" t="s">
         <v>57</v>
       </c>
       <c r="K23" s="61" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L23" s="60" t="s">
         <v>50</v>
@@ -10353,7 +10353,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="60" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C24" s="60" t="s">
         <v>9</v>
@@ -10362,19 +10362,19 @@
         <v>52</v>
       </c>
       <c r="E24" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="G24" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="F24" s="60" t="s">
-        <v>132</v>
-      </c>
-      <c r="G24" s="60" t="s">
+      <c r="H24" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="H24" s="60" t="s">
-        <v>151</v>
-      </c>
       <c r="I24" s="60" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J24" s="60" t="s">
         <v>49</v>
@@ -10406,7 +10406,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="60" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C25" s="60" t="s">
         <v>9</v>
@@ -10415,19 +10415,19 @@
         <v>52</v>
       </c>
       <c r="E25" s="60" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F25" s="60" t="s">
         <v>113</v>
       </c>
       <c r="G25" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="H25" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="H25" s="60" t="s">
-        <v>155</v>
-      </c>
       <c r="I25" s="60" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J25" s="64" t="s">
         <v>49</v>
@@ -10459,28 +10459,28 @@
         <v>24</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C26" s="60" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="E26" s="60" t="s">
         <v>157</v>
-      </c>
-      <c r="E26" s="60" t="s">
-        <v>158</v>
       </c>
       <c r="F26" s="60" t="s">
         <v>121</v>
       </c>
       <c r="G26" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="H26" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="H26" s="60" t="s">
-        <v>160</v>
-      </c>
       <c r="I26" s="60" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J26" s="60" t="s">
         <v>49</v>
@@ -10512,28 +10512,28 @@
         <v>25</v>
       </c>
       <c r="B27" s="60" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C27" s="60" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="60" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E27" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="F27" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="F27" s="60" t="s">
+      <c r="G27" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="G27" s="60" t="s">
+      <c r="H27" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="H27" s="60" t="s">
-        <v>165</v>
-      </c>
       <c r="I27" s="60" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J27" s="60" t="s">
         <v>49</v>
@@ -10565,28 +10565,28 @@
         <v>26</v>
       </c>
       <c r="B28" s="60" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C28" s="60" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="60" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E28" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="F28" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="G28" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="F28" s="60" t="s">
-        <v>163</v>
-      </c>
-      <c r="G28" s="60" t="s">
+      <c r="H28" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="H28" s="60" t="s">
-        <v>169</v>
-      </c>
       <c r="I28" s="60" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J28" s="60" t="s">
         <v>49</v>
@@ -10618,34 +10618,34 @@
         <v>27</v>
       </c>
       <c r="B29" s="60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C29" s="60" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="60" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E29" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="F29" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="G29" s="60" t="s">
         <v>171</v>
       </c>
-      <c r="F29" s="60" t="s">
-        <v>163</v>
-      </c>
-      <c r="G29" s="60" t="s">
+      <c r="H29" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="H29" s="60" t="s">
+      <c r="I29" s="60" t="s">
         <v>173</v>
-      </c>
-      <c r="I29" s="60" t="s">
-        <v>174</v>
       </c>
       <c r="J29" s="74" t="s">
         <v>57</v>
       </c>
       <c r="K29" s="61" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L29" s="60" t="s">
         <v>50</v>
@@ -10673,34 +10673,34 @@
         <v>28</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C30" s="60" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="60" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E30" s="60" t="s">
+        <v>175</v>
+      </c>
+      <c r="F30" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="G30" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="F30" s="60" t="s">
-        <v>163</v>
-      </c>
-      <c r="G30" s="60" t="s">
+      <c r="H30" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="H30" s="60" t="s">
+      <c r="I30" s="60" t="s">
         <v>178</v>
-      </c>
-      <c r="I30" s="60" t="s">
-        <v>179</v>
       </c>
       <c r="J30" s="74" t="s">
         <v>57</v>
       </c>
       <c r="K30" s="61" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="L30" s="60" t="s">
         <v>50</v>
@@ -10728,28 +10728,28 @@
         <v>29</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C31" s="60" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="60" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E31" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="F31" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="F31" s="60" t="s">
+      <c r="G31" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="G31" s="60" t="s">
+      <c r="H31" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="H31" s="60" t="s">
-        <v>184</v>
-      </c>
       <c r="I31" s="60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J31" s="60" t="s">
         <v>49</v>
@@ -10781,28 +10781,28 @@
         <v>30</v>
       </c>
       <c r="B32" s="60" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C32" s="60" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="60" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E32" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F32" s="60" t="s">
         <v>121</v>
       </c>
       <c r="G32" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="H32" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="H32" s="60" t="s">
-        <v>188</v>
-      </c>
       <c r="I32" s="60" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J32" s="60" t="s">
         <v>49</v>
@@ -10834,28 +10834,28 @@
         <v>30</v>
       </c>
       <c r="B33" s="60" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C33" s="60" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="E33" s="60" t="s">
         <v>190</v>
       </c>
-      <c r="E33" s="60" t="s">
+      <c r="F33" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="G33" s="60" t="s">
         <v>191</v>
       </c>
-      <c r="F33" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="G33" s="60" t="s">
+      <c r="H33" s="60" t="s">
         <v>192</v>
       </c>
-      <c r="H33" s="60" t="s">
-        <v>193</v>
-      </c>
       <c r="I33" s="60" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J33" s="60" t="s">
         <v>49</v>
@@ -10887,28 +10887,28 @@
         <v>31</v>
       </c>
       <c r="B34" s="60" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C34" s="60" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="60" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E34" s="60" t="s">
+        <v>194</v>
+      </c>
+      <c r="F34" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="G34" s="60" t="s">
         <v>195</v>
       </c>
-      <c r="F34" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="G34" s="60" t="s">
+      <c r="H34" s="60" t="s">
         <v>196</v>
       </c>
-      <c r="H34" s="60" t="s">
-        <v>197</v>
-      </c>
       <c r="I34" s="60" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J34" s="60" t="s">
         <v>49</v>
@@ -10940,28 +10940,28 @@
         <v>32</v>
       </c>
       <c r="B35" s="64" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C35" s="64" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="64" t="s">
+        <v>327</v>
+      </c>
+      <c r="E35" s="64" t="s">
         <v>328</v>
       </c>
-      <c r="E35" s="64" t="s">
+      <c r="F35" s="64" t="s">
         <v>329</v>
       </c>
-      <c r="F35" s="64" t="s">
+      <c r="G35" s="64" t="s">
         <v>330</v>
       </c>
-      <c r="G35" s="64" t="s">
+      <c r="H35" s="64" t="s">
         <v>331</v>
       </c>
-      <c r="H35" s="64" t="s">
-        <v>332</v>
-      </c>
       <c r="I35" s="64" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J35" s="63" t="s">
         <v>49</v>
@@ -10993,7 +10993,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="60" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C36" s="60" t="s">
         <v>14</v>
@@ -11002,17 +11002,17 @@
         <v>52</v>
       </c>
       <c r="E36" s="60" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F36" s="60"/>
       <c r="G36" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="H36" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="H36" s="60" t="s">
-        <v>201</v>
-      </c>
       <c r="I36" s="61" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J36" s="60" t="s">
         <v>49</v>
@@ -11044,7 +11044,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="60" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C37" s="60" t="s">
         <v>14</v>
@@ -11053,19 +11053,19 @@
         <v>52</v>
       </c>
       <c r="E37" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="F37" s="60" t="s">
         <v>203</v>
       </c>
-      <c r="F37" s="60" t="s">
+      <c r="G37" s="60" t="s">
         <v>204</v>
       </c>
-      <c r="G37" s="60" t="s">
+      <c r="H37" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="H37" s="60" t="s">
-        <v>206</v>
-      </c>
       <c r="I37" s="60" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J37" s="60" t="s">
         <v>49</v>
@@ -11097,34 +11097,34 @@
         <v>35</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C38" s="60" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="60" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E38" s="60" t="s">
+        <v>207</v>
+      </c>
+      <c r="F38" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="G38" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="H38" s="60" t="s">
         <v>208</v>
       </c>
-      <c r="F38" s="60" t="s">
-        <v>204</v>
-      </c>
-      <c r="G38" s="60" t="s">
-        <v>205</v>
-      </c>
-      <c r="H38" s="60" t="s">
+      <c r="I38" s="60" t="s">
         <v>209</v>
-      </c>
-      <c r="I38" s="60" t="s">
-        <v>210</v>
       </c>
       <c r="J38" s="74" t="s">
         <v>57</v>
       </c>
       <c r="K38" s="61" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="L38" s="60" t="s">
         <v>50</v>
@@ -11152,32 +11152,32 @@
         <v>36</v>
       </c>
       <c r="B39" s="60" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C39" s="60" t="s">
         <v>14</v>
       </c>
       <c r="D39" s="60" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E39" s="60" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F39" s="60"/>
       <c r="G39" s="60" t="s">
+        <v>212</v>
+      </c>
+      <c r="H39" s="60" t="s">
         <v>213</v>
       </c>
-      <c r="H39" s="60" t="s">
+      <c r="I39" s="60" t="s">
         <v>214</v>
-      </c>
-      <c r="I39" s="60" t="s">
-        <v>215</v>
       </c>
       <c r="J39" s="74" t="s">
         <v>57</v>
       </c>
       <c r="K39" s="61" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L39" s="60" t="s">
         <v>50</v>
@@ -11205,32 +11205,32 @@
         <v>37</v>
       </c>
       <c r="B40" s="60" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C40" s="60" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="60" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E40" s="60" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F40" s="60"/>
       <c r="G40" s="60" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H40" s="60" t="s">
+        <v>217</v>
+      </c>
+      <c r="I40" s="60" t="s">
         <v>218</v>
-      </c>
-      <c r="I40" s="60" t="s">
-        <v>219</v>
       </c>
       <c r="J40" s="74" t="s">
         <v>57</v>
       </c>
       <c r="K40" s="61" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L40" s="60" t="s">
         <v>50</v>
@@ -11258,7 +11258,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="60" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C41" s="60" t="s">
         <v>14</v>
@@ -11267,17 +11267,17 @@
         <v>52</v>
       </c>
       <c r="E41" s="60" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F41" s="60"/>
       <c r="G41" s="60" t="s">
+        <v>221</v>
+      </c>
+      <c r="H41" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="H41" s="60" t="s">
-        <v>223</v>
-      </c>
       <c r="I41" s="60" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J41" s="60" t="s">
         <v>49</v>
@@ -11309,7 +11309,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="60" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C42" s="60" t="s">
         <v>14</v>
@@ -11318,17 +11318,17 @@
         <v>52</v>
       </c>
       <c r="E42" s="60" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F42" s="60"/>
       <c r="G42" s="60" t="s">
+        <v>225</v>
+      </c>
+      <c r="H42" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="H42" s="60" t="s">
-        <v>227</v>
-      </c>
       <c r="I42" s="60" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J42" s="60" t="s">
         <v>49</v>
@@ -11360,7 +11360,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="60" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C43" s="60" t="s">
         <v>14</v>
@@ -11369,23 +11369,23 @@
         <v>52</v>
       </c>
       <c r="E43" s="60" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F43" s="60"/>
       <c r="G43" s="60" t="s">
+        <v>229</v>
+      </c>
+      <c r="H43" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="H43" s="60" t="s">
-        <v>231</v>
-      </c>
       <c r="I43" s="60" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J43" s="74" t="s">
         <v>57</v>
       </c>
       <c r="K43" s="61" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L43" s="60" t="s">
         <v>50</v>
@@ -11413,7 +11413,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="60" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C44" s="60" t="s">
         <v>14</v>
@@ -11422,17 +11422,17 @@
         <v>52</v>
       </c>
       <c r="E44" s="61" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F44" s="60"/>
       <c r="G44" s="61" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H44" s="60" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I44" s="60" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J44" s="61" t="s">
         <v>49</v>
@@ -11464,7 +11464,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="60" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C45" s="60" t="s">
         <v>14</v>
@@ -11473,17 +11473,17 @@
         <v>52</v>
       </c>
       <c r="E45" s="61" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F45" s="60"/>
       <c r="G45" s="61" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H45" s="60" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I45" s="60" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J45" s="61" t="s">
         <v>49</v>
@@ -11515,7 +11515,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="60" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C46" s="60" t="s">
         <v>14</v>
@@ -11524,17 +11524,17 @@
         <v>52</v>
       </c>
       <c r="E46" s="60" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F46" s="60"/>
       <c r="G46" s="60" t="s">
+        <v>233</v>
+      </c>
+      <c r="H46" s="60" t="s">
         <v>234</v>
       </c>
-      <c r="H46" s="60" t="s">
-        <v>235</v>
-      </c>
       <c r="I46" s="60" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J46" s="60" t="s">
         <v>49</v>
@@ -11566,7 +11566,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="60" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C47" s="60" t="s">
         <v>14</v>
@@ -11575,23 +11575,23 @@
         <v>52</v>
       </c>
       <c r="E47" s="60" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F47" s="60"/>
       <c r="G47" s="60" t="s">
+        <v>237</v>
+      </c>
+      <c r="H47" s="60" t="s">
+        <v>234</v>
+      </c>
+      <c r="I47" s="60" t="s">
         <v>238</v>
-      </c>
-      <c r="H47" s="60" t="s">
-        <v>235</v>
-      </c>
-      <c r="I47" s="60" t="s">
-        <v>239</v>
       </c>
       <c r="J47" s="74" t="s">
         <v>57</v>
       </c>
       <c r="K47" s="61" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="L47" s="60" t="s">
         <v>50</v>
@@ -11619,7 +11619,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="60" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C48" s="60" t="s">
         <v>14</v>
@@ -11628,17 +11628,17 @@
         <v>52</v>
       </c>
       <c r="E48" s="61" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F48" s="60"/>
       <c r="G48" s="61" t="s">
+        <v>429</v>
+      </c>
+      <c r="H48" s="61" t="s">
         <v>430</v>
       </c>
-      <c r="H48" s="61" t="s">
-        <v>431</v>
-      </c>
       <c r="I48" s="61" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J48" s="61" t="s">
         <v>49</v>
@@ -11670,7 +11670,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="60" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C49" s="60" t="s">
         <v>14</v>
@@ -11679,17 +11679,17 @@
         <v>52</v>
       </c>
       <c r="E49" s="61" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F49" s="60"/>
       <c r="G49" s="61" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H49" s="61" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I49" s="61" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J49" s="61" t="s">
         <v>49</v>
@@ -11721,7 +11721,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="60" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C50" s="60" t="s">
         <v>14</v>
@@ -11730,23 +11730,23 @@
         <v>52</v>
       </c>
       <c r="E50" s="61" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F50" s="60"/>
       <c r="G50" s="61" t="s">
+        <v>422</v>
+      </c>
+      <c r="H50" s="61" t="s">
+        <v>425</v>
+      </c>
+      <c r="I50" s="61" t="s">
         <v>423</v>
-      </c>
-      <c r="H50" s="61" t="s">
-        <v>426</v>
-      </c>
-      <c r="I50" s="61" t="s">
-        <v>424</v>
       </c>
       <c r="J50" s="75" t="s">
         <v>57</v>
       </c>
       <c r="K50" s="61" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L50" s="60" t="s">
         <v>50</v>
@@ -11774,7 +11774,7 @@
         <v>48</v>
       </c>
       <c r="B51" s="60" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C51" s="60" t="s">
         <v>14</v>
@@ -11783,17 +11783,17 @@
         <v>52</v>
       </c>
       <c r="E51" s="60" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F51" s="60"/>
       <c r="G51" s="60" t="s">
+        <v>241</v>
+      </c>
+      <c r="H51" s="60" t="s">
         <v>242</v>
       </c>
-      <c r="H51" s="60" t="s">
-        <v>243</v>
-      </c>
       <c r="I51" s="60" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J51" s="60" t="s">
         <v>49</v>
@@ -11825,7 +11825,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="60" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C52" s="60" t="s">
         <v>14</v>
@@ -11834,23 +11834,23 @@
         <v>52</v>
       </c>
       <c r="E52" s="60" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F52" s="60"/>
       <c r="G52" s="60" t="s">
+        <v>245</v>
+      </c>
+      <c r="H52" s="60" t="s">
         <v>246</v>
       </c>
-      <c r="H52" s="60" t="s">
-        <v>247</v>
-      </c>
       <c r="I52" s="60" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J52" s="74" t="s">
         <v>57</v>
       </c>
       <c r="K52" s="61" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="L52" s="60" t="s">
         <v>50</v>
@@ -11878,7 +11878,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="60" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C53" s="60" t="s">
         <v>14</v>
@@ -11887,23 +11887,23 @@
         <v>52</v>
       </c>
       <c r="E53" s="61" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F53" s="60"/>
       <c r="G53" s="61" t="s">
+        <v>410</v>
+      </c>
+      <c r="H53" s="61" t="s">
         <v>411</v>
       </c>
-      <c r="H53" s="61" t="s">
-        <v>412</v>
-      </c>
       <c r="I53" s="61" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J53" s="75" t="s">
         <v>57</v>
       </c>
       <c r="K53" s="61" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L53" s="60" t="s">
         <v>50</v>
@@ -11931,7 +11931,7 @@
         <v>51</v>
       </c>
       <c r="B54" s="60" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C54" s="60" t="s">
         <v>14</v>
@@ -11940,23 +11940,23 @@
         <v>52</v>
       </c>
       <c r="E54" s="61" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F54" s="60"/>
       <c r="G54" s="61" t="s">
+        <v>413</v>
+      </c>
+      <c r="H54" s="61" t="s">
         <v>414</v>
       </c>
-      <c r="H54" s="61" t="s">
+      <c r="I54" s="61" t="s">
         <v>415</v>
-      </c>
-      <c r="I54" s="61" t="s">
-        <v>416</v>
       </c>
       <c r="J54" s="75" t="s">
         <v>57</v>
       </c>
       <c r="K54" s="61" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="L54" s="60" t="s">
         <v>50</v>
@@ -11984,7 +11984,7 @@
         <v>52</v>
       </c>
       <c r="B55" s="60" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C55" s="60" t="s">
         <v>14</v>
@@ -11993,23 +11993,23 @@
         <v>52</v>
       </c>
       <c r="E55" s="60" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F55" s="60"/>
       <c r="G55" s="60" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H55" s="60" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I55" s="60" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J55" s="74" t="s">
         <v>57</v>
       </c>
       <c r="K55" s="61" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="L55" s="60" t="s">
         <v>50</v>
@@ -12037,7 +12037,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="60" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C56" s="60" t="s">
         <v>14</v>
@@ -12046,23 +12046,23 @@
         <v>111</v>
       </c>
       <c r="E56" s="60" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F56" s="60"/>
       <c r="G56" s="61" t="s">
+        <v>252</v>
+      </c>
+      <c r="H56" s="60" t="s">
         <v>253</v>
       </c>
-      <c r="H56" s="60" t="s">
-        <v>254</v>
-      </c>
       <c r="I56" s="60" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J56" s="74" t="s">
         <v>57</v>
       </c>
       <c r="K56" s="61" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L56" s="60" t="s">
         <v>50</v>
@@ -12090,7 +12090,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="60" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C57" s="60" t="s">
         <v>14</v>
@@ -12099,23 +12099,23 @@
         <v>111</v>
       </c>
       <c r="E57" s="61" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F57" s="60"/>
       <c r="G57" s="61" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H57" s="60" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I57" s="60" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J57" s="74" t="s">
         <v>57</v>
       </c>
       <c r="K57" s="61" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L57" s="60" t="s">
         <v>50</v>
@@ -12143,7 +12143,7 @@
         <v>55</v>
       </c>
       <c r="B58" s="60" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C58" s="60" t="s">
         <v>14</v>
@@ -12152,17 +12152,17 @@
         <v>52</v>
       </c>
       <c r="E58" s="60" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F58" s="60"/>
       <c r="G58" s="60" t="s">
+        <v>256</v>
+      </c>
+      <c r="H58" s="60" t="s">
         <v>257</v>
       </c>
-      <c r="H58" s="60" t="s">
-        <v>258</v>
-      </c>
       <c r="I58" s="60" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J58" s="60" t="s">
         <v>49</v>
@@ -12194,26 +12194,26 @@
         <v>56</v>
       </c>
       <c r="B59" s="60" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C59" s="60" t="s">
         <v>14</v>
       </c>
       <c r="D59" s="60" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E59" s="60" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F59" s="60"/>
       <c r="G59" s="60" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H59" s="61" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I59" s="61" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J59" s="60" t="s">
         <v>49</v>
@@ -12245,32 +12245,32 @@
         <v>57</v>
       </c>
       <c r="B60" s="60" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C60" s="60" t="s">
         <v>14</v>
       </c>
       <c r="D60" s="60" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E60" s="60" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F60" s="60"/>
       <c r="G60" s="60" t="s">
+        <v>263</v>
+      </c>
+      <c r="H60" s="60" t="s">
         <v>264</v>
       </c>
-      <c r="H60" s="60" t="s">
+      <c r="I60" s="60" t="s">
         <v>265</v>
-      </c>
-      <c r="I60" s="60" t="s">
-        <v>266</v>
       </c>
       <c r="J60" s="74" t="s">
         <v>57</v>
       </c>
       <c r="K60" s="61" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L60" s="60" t="s">
         <v>50</v>
@@ -12298,26 +12298,26 @@
         <v>58</v>
       </c>
       <c r="B61" s="60" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C61" s="60" t="s">
         <v>14</v>
       </c>
       <c r="D61" s="60" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E61" s="60" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F61" s="60"/>
       <c r="G61" s="60" t="s">
+        <v>268</v>
+      </c>
+      <c r="H61" s="60" t="s">
         <v>269</v>
       </c>
-      <c r="H61" s="60" t="s">
-        <v>270</v>
-      </c>
       <c r="I61" s="60" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J61" s="60" t="s">
         <v>49</v>
@@ -12349,26 +12349,26 @@
         <v>59</v>
       </c>
       <c r="B62" s="60" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C62" s="60" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="60" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E62" s="61" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F62" s="60"/>
       <c r="G62" s="61" t="s">
+        <v>320</v>
+      </c>
+      <c r="H62" s="61" t="s">
         <v>321</v>
       </c>
-      <c r="H62" s="61" t="s">
-        <v>322</v>
-      </c>
       <c r="I62" s="61" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J62" s="61" t="s">
         <v>49</v>
@@ -12400,26 +12400,26 @@
         <v>60</v>
       </c>
       <c r="B63" s="60" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C63" s="60" t="s">
         <v>14</v>
       </c>
       <c r="D63" s="60" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E63" s="61" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F63" s="60"/>
       <c r="G63" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="H63" s="61" t="s">
         <v>323</v>
       </c>
-      <c r="H63" s="61" t="s">
-        <v>324</v>
-      </c>
       <c r="I63" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J63" s="60" t="s">
         <v>49</v>
@@ -12451,26 +12451,26 @@
         <v>61</v>
       </c>
       <c r="B64" s="60" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C64" s="63" t="s">
         <v>14</v>
       </c>
       <c r="D64" s="64" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E64" s="60" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F64" s="60"/>
       <c r="G64" s="61" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H64" s="60" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I64" s="60" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J64" s="60" t="s">
         <v>49</v>
@@ -12502,7 +12502,7 @@
         <v>62</v>
       </c>
       <c r="B65" s="60" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C65" s="60" t="s">
         <v>16</v>
@@ -12511,19 +12511,19 @@
         <v>52</v>
       </c>
       <c r="E65" s="60" t="s">
+        <v>337</v>
+      </c>
+      <c r="F65" s="60" t="s">
+        <v>336</v>
+      </c>
+      <c r="G65" s="61" t="s">
+        <v>404</v>
+      </c>
+      <c r="H65" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="F65" s="60" t="s">
-        <v>337</v>
-      </c>
-      <c r="G65" s="61" t="s">
-        <v>405</v>
-      </c>
-      <c r="H65" s="60" t="s">
-        <v>339</v>
-      </c>
       <c r="I65" s="60" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J65" s="60" t="s">
         <v>49</v>
@@ -12555,28 +12555,28 @@
         <v>63</v>
       </c>
       <c r="B66" s="60" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C66" s="60" t="s">
         <v>16</v>
       </c>
       <c r="D66" s="60" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E66" s="60" t="s">
+        <v>339</v>
+      </c>
+      <c r="F66" s="60" t="s">
+        <v>336</v>
+      </c>
+      <c r="G66" s="61" t="s">
+        <v>404</v>
+      </c>
+      <c r="H66" s="60" t="s">
         <v>340</v>
       </c>
-      <c r="F66" s="60" t="s">
-        <v>337</v>
-      </c>
-      <c r="G66" s="61" t="s">
-        <v>405</v>
-      </c>
-      <c r="H66" s="60" t="s">
-        <v>341</v>
-      </c>
       <c r="I66" s="60" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J66" s="61" t="s">
         <v>49</v>
@@ -12608,32 +12608,32 @@
         <v>64</v>
       </c>
       <c r="B67" s="60" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C67" s="60" t="s">
         <v>16</v>
       </c>
       <c r="D67" s="60" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E67" s="69" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F67" s="60"/>
       <c r="G67" s="61" t="s">
+        <v>342</v>
+      </c>
+      <c r="H67" s="61" t="s">
         <v>343</v>
       </c>
-      <c r="H67" s="61" t="s">
+      <c r="I67" s="61" t="s">
         <v>344</v>
-      </c>
-      <c r="I67" s="61" t="s">
-        <v>345</v>
       </c>
       <c r="J67" s="74" t="s">
         <v>57</v>
       </c>
       <c r="K67" s="61" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L67" s="60" t="s">
         <v>50</v>
@@ -12661,26 +12661,26 @@
         <v>65</v>
       </c>
       <c r="B68" s="60" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C68" s="60" t="s">
         <v>16</v>
       </c>
       <c r="D68" s="60" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E68" s="61" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F68" s="60"/>
       <c r="G68" s="61" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H68" s="61" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I68" s="61" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J68" s="61" t="s">
         <v>49</v>
@@ -12712,7 +12712,7 @@
         <v>66</v>
       </c>
       <c r="B69" s="60" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C69" s="60" t="s">
         <v>16</v>
@@ -12721,19 +12721,19 @@
         <v>52</v>
       </c>
       <c r="E69" s="61" t="s">
+        <v>357</v>
+      </c>
+      <c r="F69" s="61" t="s">
         <v>358</v>
       </c>
-      <c r="F69" s="61" t="s">
+      <c r="G69" s="61" t="s">
+        <v>403</v>
+      </c>
+      <c r="H69" s="61" t="s">
         <v>359</v>
       </c>
-      <c r="G69" s="61" t="s">
-        <v>404</v>
-      </c>
-      <c r="H69" s="61" t="s">
-        <v>360</v>
-      </c>
       <c r="I69" s="61" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J69" s="61" t="s">
         <v>49</v>
@@ -12765,7 +12765,7 @@
         <v>67</v>
       </c>
       <c r="B70" s="60" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C70" s="60" t="s">
         <v>16</v>
@@ -12774,17 +12774,17 @@
         <v>52</v>
       </c>
       <c r="E70" s="61" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F70" s="60"/>
       <c r="G70" s="61" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H70" s="61" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I70" s="61" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J70" s="61" t="s">
         <v>49</v>
@@ -12816,7 +12816,7 @@
         <v>68</v>
       </c>
       <c r="B71" s="60" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C71" s="60" t="s">
         <v>16</v>
@@ -12825,17 +12825,17 @@
         <v>52</v>
       </c>
       <c r="E71" s="61" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F71" s="60"/>
       <c r="G71" s="61" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H71" s="61" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I71" s="61" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J71" s="61" t="s">
         <v>49</v>
@@ -12867,7 +12867,7 @@
         <v>69</v>
       </c>
       <c r="B72" s="60" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C72" s="60" t="s">
         <v>16</v>
@@ -12876,17 +12876,17 @@
         <v>52</v>
       </c>
       <c r="E72" s="61" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F72" s="60"/>
       <c r="G72" s="61" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H72" s="61" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I72" s="61" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J72" s="61" t="s">
         <v>49</v>
@@ -12918,32 +12918,32 @@
         <v>70</v>
       </c>
       <c r="B73" s="60" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C73" s="60" t="s">
         <v>16</v>
       </c>
       <c r="D73" s="61" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E73" s="61" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F73" s="60"/>
       <c r="G73" s="61" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H73" s="61" t="s">
+        <v>365</v>
+      </c>
+      <c r="I73" s="61" t="s">
         <v>366</v>
-      </c>
-      <c r="I73" s="61" t="s">
-        <v>367</v>
       </c>
       <c r="J73" s="74" t="s">
         <v>57</v>
       </c>
       <c r="K73" s="61" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L73" s="60" t="s">
         <v>50</v>
@@ -12971,26 +12971,26 @@
         <v>71</v>
       </c>
       <c r="B74" s="60" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C74" s="60" t="s">
         <v>16</v>
       </c>
       <c r="D74" s="61" t="s">
+        <v>367</v>
+      </c>
+      <c r="E74" s="61" t="s">
         <v>368</v>
-      </c>
-      <c r="E74" s="61" t="s">
-        <v>369</v>
       </c>
       <c r="F74" s="60"/>
       <c r="G74" s="61" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H74" s="61" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I74" s="61" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J74" s="61" t="s">
         <v>49</v>
@@ -13022,7 +13022,7 @@
         <v>72</v>
       </c>
       <c r="B75" s="60" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C75" s="60" t="s">
         <v>16</v>
@@ -13031,17 +13031,17 @@
         <v>52</v>
       </c>
       <c r="E75" s="61" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F75" s="60"/>
       <c r="G75" s="61" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H75" s="61" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I75" s="61" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J75" s="61" t="s">
         <v>49</v>
@@ -13073,7 +13073,7 @@
         <v>73</v>
       </c>
       <c r="B76" s="60" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C76" s="60" t="s">
         <v>16</v>
@@ -13082,17 +13082,17 @@
         <v>52</v>
       </c>
       <c r="E76" s="61" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F76" s="60"/>
       <c r="G76" s="61" t="s">
+        <v>372</v>
+      </c>
+      <c r="H76" s="61" t="s">
         <v>373</v>
       </c>
-      <c r="H76" s="61" t="s">
-        <v>374</v>
-      </c>
       <c r="I76" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J76" s="61" t="s">
         <v>49</v>
@@ -13124,7 +13124,7 @@
         <v>74</v>
       </c>
       <c r="B77" s="60" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C77" s="60" t="s">
         <v>16</v>
@@ -13133,17 +13133,17 @@
         <v>52</v>
       </c>
       <c r="E77" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F77" s="60"/>
       <c r="G77" s="61" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H77" s="61" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I77" s="61" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J77" s="61" t="s">
         <v>49</v>
@@ -13175,7 +13175,7 @@
         <v>75</v>
       </c>
       <c r="B78" s="60" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C78" s="60" t="s">
         <v>16</v>
@@ -13184,17 +13184,17 @@
         <v>52</v>
       </c>
       <c r="E78" s="61" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F78" s="60"/>
       <c r="G78" s="61" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H78" s="61" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I78" s="61" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J78" s="61" t="s">
         <v>49</v>
@@ -13226,7 +13226,7 @@
         <v>76</v>
       </c>
       <c r="B79" s="60" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C79" s="60" t="s">
         <v>16</v>
@@ -13235,17 +13235,17 @@
         <v>52</v>
       </c>
       <c r="E79" s="61" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F79" s="60"/>
       <c r="G79" s="61" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H79" s="61" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I79" s="61" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J79" s="61" t="s">
         <v>49</v>
@@ -13277,32 +13277,32 @@
         <v>77</v>
       </c>
       <c r="B80" s="60" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C80" s="60" t="s">
         <v>16</v>
       </c>
       <c r="D80" s="61" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E80" s="69" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F80" s="60"/>
       <c r="G80" s="61" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H80" s="61" t="s">
+        <v>343</v>
+      </c>
+      <c r="I80" s="61" t="s">
         <v>344</v>
-      </c>
-      <c r="I80" s="61" t="s">
-        <v>345</v>
       </c>
       <c r="J80" s="74" t="s">
         <v>57</v>
       </c>
       <c r="K80" s="61" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="L80" s="60" t="s">
         <v>50</v>
@@ -13330,32 +13330,32 @@
         <v>78</v>
       </c>
       <c r="B81" s="60" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C81" s="60" t="s">
         <v>16</v>
       </c>
       <c r="D81" s="61" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E81" s="61" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F81" s="60"/>
       <c r="G81" s="61" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H81" s="61" t="s">
+        <v>365</v>
+      </c>
+      <c r="I81" s="61" t="s">
         <v>366</v>
-      </c>
-      <c r="I81" s="61" t="s">
-        <v>367</v>
       </c>
       <c r="J81" s="74" t="s">
         <v>57</v>
       </c>
       <c r="K81" s="61" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L81" s="60" t="s">
         <v>50</v>
@@ -13383,7 +13383,7 @@
         <v>79</v>
       </c>
       <c r="B82" s="60" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C82" s="60" t="s">
         <v>16</v>
@@ -13392,17 +13392,17 @@
         <v>52</v>
       </c>
       <c r="E82" s="61" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F82" s="60"/>
       <c r="G82" s="61" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H82" s="61" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I82" s="61" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J82" s="61" t="s">
         <v>49</v>
@@ -13434,7 +13434,7 @@
         <v>80</v>
       </c>
       <c r="B83" s="60" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C83" s="60" t="s">
         <v>16</v>
@@ -13443,23 +13443,23 @@
         <v>52</v>
       </c>
       <c r="E83" s="61" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F83" s="60"/>
       <c r="G83" s="61" t="s">
+        <v>482</v>
+      </c>
+      <c r="H83" s="61" t="s">
         <v>483</v>
       </c>
-      <c r="H83" s="61" t="s">
-        <v>484</v>
-      </c>
       <c r="I83" s="61" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J83" s="75" t="s">
         <v>57</v>
       </c>
       <c r="K83" s="61" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L83" s="60" t="s">
         <v>50</v>
@@ -13487,7 +13487,7 @@
         <v>81</v>
       </c>
       <c r="B84" s="60" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C84" s="60" t="s">
         <v>16</v>
@@ -13496,17 +13496,17 @@
         <v>52</v>
       </c>
       <c r="E84" s="64" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F84" s="63"/>
       <c r="G84" s="64" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H84" s="64" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I84" s="64" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J84" s="64" t="s">
         <v>49</v>
@@ -13538,7 +13538,7 @@
         <v>82</v>
       </c>
       <c r="B85" s="60" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C85" s="60" t="s">
         <v>16</v>
@@ -13547,17 +13547,17 @@
         <v>52</v>
       </c>
       <c r="E85" s="61" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F85" s="60"/>
       <c r="G85" s="61" t="s">
+        <v>387</v>
+      </c>
+      <c r="H85" s="61" t="s">
         <v>388</v>
       </c>
-      <c r="H85" s="61" t="s">
-        <v>389</v>
-      </c>
       <c r="I85" s="61" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J85" s="64" t="s">
         <v>49</v>
@@ -13589,7 +13589,7 @@
         <v>83</v>
       </c>
       <c r="B86" s="60" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C86" s="60" t="s">
         <v>16</v>
@@ -13598,17 +13598,17 @@
         <v>52</v>
       </c>
       <c r="E86" s="61" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F86" s="60"/>
       <c r="G86" s="61" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H86" s="61" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I86" s="61" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J86" s="61" t="s">
         <v>49</v>
@@ -13640,7 +13640,7 @@
         <v>84</v>
       </c>
       <c r="B87" s="60" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C87" s="60" t="s">
         <v>16</v>
@@ -13649,17 +13649,17 @@
         <v>52</v>
       </c>
       <c r="E87" s="61" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F87" s="60"/>
       <c r="G87" s="61" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H87" s="61" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I87" s="61" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J87" s="61" t="s">
         <v>49</v>
@@ -13691,28 +13691,28 @@
         <v>85</v>
       </c>
       <c r="B88" s="61" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C88" s="61" t="s">
         <v>17</v>
       </c>
       <c r="D88" s="61" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E88" s="61" t="s">
+        <v>440</v>
+      </c>
+      <c r="F88" s="61" t="s">
+        <v>443</v>
+      </c>
+      <c r="G88" s="61" t="s">
         <v>441</v>
       </c>
-      <c r="F88" s="61" t="s">
-        <v>444</v>
-      </c>
-      <c r="G88" s="61" t="s">
-        <v>442</v>
-      </c>
       <c r="H88" s="61" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I88" s="61" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J88" s="61" t="s">
         <v>49</v>
@@ -13744,28 +13744,28 @@
         <v>86</v>
       </c>
       <c r="B89" s="61" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C89" s="61" t="s">
         <v>17</v>
       </c>
       <c r="D89" s="61" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E89" s="61" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F89" s="61" t="s">
         <v>121</v>
       </c>
       <c r="G89" s="61" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H89" s="61" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I89" s="61" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J89" s="61" t="s">
         <v>49</v>
@@ -13797,28 +13797,28 @@
         <v>87</v>
       </c>
       <c r="B90" s="61" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C90" s="61" t="s">
         <v>17</v>
       </c>
       <c r="D90" s="61" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E90" s="61" t="s">
+        <v>455</v>
+      </c>
+      <c r="F90" s="61" t="s">
+        <v>443</v>
+      </c>
+      <c r="G90" s="61" t="s">
         <v>456</v>
       </c>
-      <c r="F90" s="61" t="s">
-        <v>444</v>
-      </c>
-      <c r="G90" s="61" t="s">
+      <c r="H90" s="61" t="s">
         <v>457</v>
       </c>
-      <c r="H90" s="61" t="s">
-        <v>458</v>
-      </c>
       <c r="I90" s="61" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J90" s="61" t="s">
         <v>49</v>
@@ -13850,28 +13850,28 @@
         <v>88</v>
       </c>
       <c r="B91" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C91" s="61" t="s">
         <v>17</v>
       </c>
       <c r="D91" s="61" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E91" s="61" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F91" s="61" t="s">
         <v>121</v>
       </c>
       <c r="G91" s="61" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H91" s="61" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I91" s="61" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J91" s="61" t="s">
         <v>49</v>
@@ -13903,28 +13903,28 @@
         <v>89</v>
       </c>
       <c r="B92" s="61" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C92" s="61" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="61" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E92" s="61" t="s">
+        <v>460</v>
+      </c>
+      <c r="F92" s="61" t="s">
+        <v>443</v>
+      </c>
+      <c r="G92" s="61" t="s">
+        <v>462</v>
+      </c>
+      <c r="H92" s="61" t="s">
         <v>461</v>
       </c>
-      <c r="F92" s="61" t="s">
-        <v>444</v>
-      </c>
-      <c r="G92" s="61" t="s">
-        <v>463</v>
-      </c>
-      <c r="H92" s="61" t="s">
-        <v>462</v>
-      </c>
       <c r="I92" s="61" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J92" s="61" t="s">
         <v>49</v>
@@ -13956,28 +13956,28 @@
         <v>90</v>
       </c>
       <c r="B93" s="61" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C93" s="61" t="s">
         <v>17</v>
       </c>
       <c r="D93" s="61" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E93" s="61" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F93" s="61" t="s">
         <v>121</v>
       </c>
       <c r="G93" s="61" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H93" s="61" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I93" s="61" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J93" s="61" t="s">
         <v>49</v>
@@ -14009,32 +14009,32 @@
         <v>91</v>
       </c>
       <c r="B94" s="61" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C94" s="61" t="s">
         <v>17</v>
       </c>
       <c r="D94" s="61" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E94" s="61" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F94" s="60"/>
       <c r="G94" s="61" t="s">
+        <v>466</v>
+      </c>
+      <c r="H94" s="61" t="s">
         <v>467</v>
       </c>
-      <c r="H94" s="61" t="s">
+      <c r="I94" s="61" t="s">
         <v>468</v>
-      </c>
-      <c r="I94" s="61" t="s">
-        <v>469</v>
       </c>
       <c r="J94" s="74" t="s">
         <v>57</v>
       </c>
       <c r="K94" s="61" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="L94" s="60" t="s">
         <v>50</v>
@@ -14062,32 +14062,32 @@
         <v>92</v>
       </c>
       <c r="B95" s="61" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C95" s="61" t="s">
         <v>17</v>
       </c>
       <c r="D95" s="61" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E95" s="61" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F95" s="60"/>
       <c r="G95" s="61" t="s">
+        <v>470</v>
+      </c>
+      <c r="H95" s="61" t="s">
         <v>471</v>
       </c>
-      <c r="H95" s="61" t="s">
+      <c r="I95" s="61" t="s">
         <v>472</v>
-      </c>
-      <c r="I95" s="61" t="s">
-        <v>473</v>
       </c>
       <c r="J95" s="74" t="s">
         <v>57</v>
       </c>
       <c r="K95" s="61" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L95" s="60" t="s">
         <v>50</v>
@@ -14115,32 +14115,32 @@
         <v>93</v>
       </c>
       <c r="B96" s="61" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C96" s="61" t="s">
         <v>17</v>
       </c>
       <c r="D96" s="61" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E96" s="61" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F96" s="60"/>
       <c r="G96" s="61" t="s">
+        <v>474</v>
+      </c>
+      <c r="H96" s="61" t="s">
         <v>475</v>
       </c>
-      <c r="H96" s="61" t="s">
+      <c r="I96" s="61" t="s">
         <v>476</v>
-      </c>
-      <c r="I96" s="61" t="s">
-        <v>477</v>
       </c>
       <c r="J96" s="74" t="s">
         <v>57</v>
       </c>
       <c r="K96" s="61" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L96" s="60" t="s">
         <v>50</v>
@@ -14168,28 +14168,28 @@
         <v>94</v>
       </c>
       <c r="B97" s="61" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C97" s="61" t="s">
         <v>17</v>
       </c>
       <c r="D97" s="61" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E97" s="61" t="s">
+        <v>477</v>
+      </c>
+      <c r="F97" s="61" t="s">
         <v>478</v>
       </c>
-      <c r="F97" s="61" t="s">
+      <c r="G97" s="61" t="s">
         <v>479</v>
       </c>
-      <c r="G97" s="61" t="s">
+      <c r="H97" s="61" t="s">
         <v>480</v>
       </c>
-      <c r="H97" s="61" t="s">
-        <v>481</v>
-      </c>
       <c r="I97" s="61" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J97" s="61" t="s">
         <v>49</v>
@@ -14221,32 +14221,32 @@
         <v>95</v>
       </c>
       <c r="B98" s="60" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C98" s="60" t="s">
         <v>19</v>
       </c>
       <c r="D98" s="60" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E98" s="60" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F98" s="60"/>
       <c r="G98" s="61" t="s">
+        <v>488</v>
+      </c>
+      <c r="H98" s="60" t="s">
         <v>489</v>
       </c>
-      <c r="H98" s="60" t="s">
+      <c r="I98" s="60" t="s">
         <v>490</v>
-      </c>
-      <c r="I98" s="60" t="s">
-        <v>491</v>
       </c>
       <c r="J98" s="74" t="s">
         <v>57</v>
       </c>
       <c r="K98" s="61" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L98" s="60" t="s">
         <v>50</v>
@@ -14274,7 +14274,7 @@
         <v>96</v>
       </c>
       <c r="B99" s="60" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C99" s="60" t="s">
         <v>19</v>
@@ -14283,19 +14283,19 @@
         <v>52</v>
       </c>
       <c r="E99" s="60" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F99" s="60" t="s">
         <v>121</v>
       </c>
       <c r="G99" s="61" t="s">
+        <v>493</v>
+      </c>
+      <c r="H99" s="60" t="s">
         <v>494</v>
       </c>
-      <c r="H99" s="60" t="s">
-        <v>495</v>
-      </c>
       <c r="I99" s="60" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J99" s="60" t="s">
         <v>49</v>
@@ -14327,7 +14327,7 @@
         <v>97</v>
       </c>
       <c r="B100" s="60" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C100" s="60" t="s">
         <v>19</v>
@@ -14336,19 +14336,19 @@
         <v>52</v>
       </c>
       <c r="E100" s="60" t="s">
+        <v>495</v>
+      </c>
+      <c r="F100" s="60" t="s">
         <v>496</v>
       </c>
-      <c r="F100" s="60" t="s">
+      <c r="G100" s="60" t="s">
         <v>497</v>
       </c>
-      <c r="G100" s="60" t="s">
+      <c r="H100" s="60" t="s">
         <v>498</v>
       </c>
-      <c r="H100" s="60" t="s">
-        <v>499</v>
-      </c>
       <c r="I100" s="60" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J100" s="60" t="s">
         <v>49</v>
@@ -14380,7 +14380,7 @@
         <v>98</v>
       </c>
       <c r="B101" s="60" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C101" s="60" t="s">
         <v>19</v>
@@ -14389,19 +14389,19 @@
         <v>52</v>
       </c>
       <c r="E101" s="60" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F101" s="60" t="s">
         <v>121</v>
       </c>
       <c r="G101" s="61" t="s">
+        <v>500</v>
+      </c>
+      <c r="H101" s="60" t="s">
         <v>501</v>
       </c>
-      <c r="H101" s="60" t="s">
-        <v>502</v>
-      </c>
       <c r="I101" s="60" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J101" s="60" t="s">
         <v>49</v>
@@ -14433,7 +14433,7 @@
         <v>99</v>
       </c>
       <c r="B102" s="60" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C102" s="60" t="s">
         <v>19</v>
@@ -14442,19 +14442,19 @@
         <v>52</v>
       </c>
       <c r="E102" s="60" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F102" s="60" t="s">
         <v>121</v>
       </c>
       <c r="G102" s="61" t="s">
+        <v>503</v>
+      </c>
+      <c r="H102" s="60" t="s">
         <v>504</v>
       </c>
-      <c r="H102" s="60" t="s">
-        <v>505</v>
-      </c>
       <c r="I102" s="60" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J102" s="60" t="s">
         <v>49</v>
@@ -14486,7 +14486,7 @@
         <v>100</v>
       </c>
       <c r="B103" s="60" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C103" s="60" t="s">
         <v>19</v>
@@ -14495,19 +14495,19 @@
         <v>52</v>
       </c>
       <c r="E103" s="60" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F103" s="60" t="s">
         <v>121</v>
       </c>
       <c r="G103" s="61" t="s">
+        <v>506</v>
+      </c>
+      <c r="H103" s="60" t="s">
         <v>507</v>
       </c>
-      <c r="H103" s="60" t="s">
-        <v>508</v>
-      </c>
       <c r="I103" s="60" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J103" s="60" t="s">
         <v>49</v>
@@ -14539,7 +14539,7 @@
         <v>101</v>
       </c>
       <c r="B104" s="60" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C104" s="60" t="s">
         <v>19</v>
@@ -14548,19 +14548,19 @@
         <v>52</v>
       </c>
       <c r="E104" s="60" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F104" s="60" t="s">
         <v>121</v>
       </c>
       <c r="G104" s="61" t="s">
+        <v>512</v>
+      </c>
+      <c r="H104" s="60" t="s">
         <v>513</v>
       </c>
-      <c r="H104" s="60" t="s">
-        <v>514</v>
-      </c>
       <c r="I104" s="60" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J104" s="60" t="s">
         <v>49</v>
@@ -14592,7 +14592,7 @@
         <v>102</v>
       </c>
       <c r="B105" s="60" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C105" s="60" t="s">
         <v>19</v>
@@ -14601,19 +14601,19 @@
         <v>52</v>
       </c>
       <c r="E105" s="60" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F105" s="60" t="s">
         <v>121</v>
       </c>
       <c r="G105" s="61" t="s">
+        <v>514</v>
+      </c>
+      <c r="H105" s="60" t="s">
         <v>515</v>
       </c>
-      <c r="H105" s="60" t="s">
-        <v>516</v>
-      </c>
       <c r="I105" s="60" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J105" s="60" t="s">
         <v>49</v>
@@ -14645,7 +14645,7 @@
         <v>103</v>
       </c>
       <c r="B106" s="60" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C106" s="60" t="s">
         <v>19</v>
@@ -14654,25 +14654,25 @@
         <v>52</v>
       </c>
       <c r="E106" s="60" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F106" s="60" t="s">
         <v>121</v>
       </c>
       <c r="G106" s="61" t="s">
+        <v>516</v>
+      </c>
+      <c r="H106" s="60" t="s">
         <v>517</v>
       </c>
-      <c r="H106" s="60" t="s">
+      <c r="I106" s="60" t="s">
         <v>518</v>
-      </c>
-      <c r="I106" s="60" t="s">
-        <v>519</v>
       </c>
       <c r="J106" s="74" t="s">
         <v>57</v>
       </c>
       <c r="K106" s="61" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="L106" s="60" t="s">
         <v>50</v>
@@ -14700,7 +14700,7 @@
         <v>104</v>
       </c>
       <c r="B107" s="60" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C107" s="60" t="s">
         <v>19</v>
@@ -14709,25 +14709,25 @@
         <v>52</v>
       </c>
       <c r="E107" s="60" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F107" s="60" t="s">
         <v>121</v>
       </c>
       <c r="G107" s="61" t="s">
+        <v>519</v>
+      </c>
+      <c r="H107" s="60" t="s">
         <v>520</v>
       </c>
-      <c r="H107" s="60" t="s">
+      <c r="I107" s="60" t="s">
         <v>521</v>
-      </c>
-      <c r="I107" s="60" t="s">
-        <v>522</v>
       </c>
       <c r="J107" s="74" t="s">
         <v>57</v>
       </c>
       <c r="K107" s="61" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L107" s="60" t="s">
         <v>50</v>
@@ -14755,7 +14755,7 @@
         <v>105</v>
       </c>
       <c r="B108" s="60" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C108" s="60" t="s">
         <v>19</v>
@@ -14764,19 +14764,19 @@
         <v>52</v>
       </c>
       <c r="E108" s="60" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F108" s="60" t="s">
         <v>121</v>
       </c>
       <c r="G108" s="61" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H108" s="60" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I108" s="60" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J108" s="60" t="s">
         <v>49</v>
@@ -14808,7 +14808,7 @@
         <v>106</v>
       </c>
       <c r="B109" s="60" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C109" s="60" t="s">
         <v>21</v>
@@ -14817,19 +14817,19 @@
         <v>52</v>
       </c>
       <c r="E109" s="60" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F109" s="60" t="s">
         <v>121</v>
       </c>
       <c r="G109" s="60" t="s">
+        <v>525</v>
+      </c>
+      <c r="H109" s="60" t="s">
         <v>526</v>
       </c>
-      <c r="H109" s="60" t="s">
-        <v>527</v>
-      </c>
       <c r="I109" s="60" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J109" s="60" t="s">
         <v>49</v>
@@ -14861,7 +14861,7 @@
         <v>107</v>
       </c>
       <c r="B110" s="60" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C110" s="60" t="s">
         <v>21</v>
@@ -14870,19 +14870,19 @@
         <v>52</v>
       </c>
       <c r="E110" s="60" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F110" s="60" t="s">
         <v>121</v>
       </c>
       <c r="G110" s="60" t="s">
+        <v>528</v>
+      </c>
+      <c r="H110" s="60" t="s">
         <v>529</v>
       </c>
-      <c r="H110" s="60" t="s">
-        <v>530</v>
-      </c>
       <c r="I110" s="60" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="J110" s="60" t="s">
         <v>49</v>
@@ -17624,8 +17624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N1035"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:C39"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17655,40 +17655,40 @@
         <v>35</v>
       </c>
       <c r="C1" s="79" t="s">
+        <v>271</v>
+      </c>
+      <c r="D1" s="79" t="s">
         <v>272</v>
-      </c>
-      <c r="D1" s="79" t="s">
-        <v>273</v>
       </c>
       <c r="E1" s="80" t="s">
         <v>30</v>
       </c>
       <c r="F1" s="79" t="s">
+        <v>273</v>
+      </c>
+      <c r="G1" s="79" t="s">
         <v>274</v>
       </c>
-      <c r="G1" s="79" t="s">
+      <c r="H1" s="79" t="s">
         <v>275</v>
       </c>
-      <c r="H1" s="79" t="s">
+      <c r="I1" s="79" t="s">
         <v>276</v>
-      </c>
-      <c r="I1" s="79" t="s">
-        <v>277</v>
       </c>
       <c r="J1" s="79" t="s">
         <v>34</v>
       </c>
       <c r="K1" s="79" t="s">
+        <v>277</v>
+      </c>
+      <c r="L1" s="79" t="s">
         <v>278</v>
       </c>
-      <c r="L1" s="79" t="s">
+      <c r="M1" s="80" t="s">
+        <v>569</v>
+      </c>
+      <c r="N1" s="79" t="s">
         <v>279</v>
-      </c>
-      <c r="M1" s="80" t="s">
-        <v>570</v>
-      </c>
-      <c r="N1" s="79" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="70" customFormat="1" ht="150" x14ac:dyDescent="0.25">
@@ -17696,17 +17696,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="82" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C2" s="83" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="84" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E2" s="84"/>
       <c r="F2" s="83" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G2" s="83" t="s">
         <v>50</v>
@@ -17716,10 +17716,10 @@
       </c>
       <c r="I2" s="84"/>
       <c r="J2" s="83" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K2" s="83" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L2" s="84"/>
       <c r="M2" s="84"/>
@@ -17730,17 +17730,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="82" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C3" s="83" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="83" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E3" s="84"/>
       <c r="F3" s="61" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G3" s="83" t="s">
         <v>50</v>
@@ -17750,10 +17750,10 @@
       </c>
       <c r="I3" s="84"/>
       <c r="J3" s="83" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K3" s="83" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L3" s="84"/>
       <c r="M3" s="84"/>
@@ -17764,17 +17764,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="82" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C4" s="83" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="83" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E4" s="86"/>
       <c r="F4" s="61" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G4" s="83" t="s">
         <v>50</v>
@@ -17784,10 +17784,10 @@
       </c>
       <c r="I4" s="84"/>
       <c r="J4" s="83" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K4" s="86" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L4" s="84"/>
       <c r="M4" s="84"/>
@@ -17798,17 +17798,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="82" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C5" s="83" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="61" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E5" s="60"/>
       <c r="F5" s="61" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G5" s="83" t="s">
         <v>50</v>
@@ -17818,10 +17818,10 @@
       </c>
       <c r="I5" s="84"/>
       <c r="J5" s="83" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K5" s="83" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L5" s="84"/>
       <c r="M5" s="84"/>
@@ -17832,17 +17832,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="82" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C6" s="83" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="61" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E6" s="60"/>
       <c r="F6" s="61" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G6" s="83" t="s">
         <v>50</v>
@@ -17852,10 +17852,10 @@
       </c>
       <c r="I6" s="84"/>
       <c r="J6" s="83" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K6" s="86" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L6" s="84"/>
       <c r="M6" s="84"/>
@@ -17866,17 +17866,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="82" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C7" s="83" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="61" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E7" s="60"/>
       <c r="F7" s="61" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G7" s="83" t="s">
         <v>50</v>
@@ -17886,10 +17886,10 @@
       </c>
       <c r="I7" s="84"/>
       <c r="J7" s="83" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K7" s="83" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L7" s="84"/>
       <c r="M7" s="84"/>
@@ -17900,17 +17900,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="82" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C8" s="83" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="61" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E8" s="60"/>
       <c r="F8" s="61" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G8" s="83" t="s">
         <v>50</v>
@@ -17920,10 +17920,10 @@
       </c>
       <c r="I8" s="84"/>
       <c r="J8" s="83" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K8" s="83" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L8" s="84"/>
       <c r="M8" s="84"/>
@@ -17934,17 +17934,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="82" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C9" s="83" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="61" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E9" s="60"/>
       <c r="F9" s="61" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G9" s="83" t="s">
         <v>50</v>
@@ -17954,10 +17954,10 @@
       </c>
       <c r="I9" s="84"/>
       <c r="J9" s="83" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K9" s="83" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L9" s="84"/>
       <c r="M9" s="84"/>
@@ -17968,30 +17968,30 @@
         <v>9</v>
       </c>
       <c r="B10" s="82" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C10" s="83" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="61" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E10" s="60"/>
       <c r="F10" s="61" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G10" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="102">
+      <c r="H10" s="89">
         <v>44287</v>
       </c>
       <c r="I10" s="84"/>
       <c r="J10" s="83" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K10" s="83" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L10" s="84"/>
       <c r="M10" s="84"/>
@@ -18002,30 +18002,30 @@
         <v>10</v>
       </c>
       <c r="B11" s="82" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C11" s="83" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="61" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E11" s="60"/>
       <c r="F11" s="61" t="s">
-        <v>588</v>
+        <v>666</v>
       </c>
       <c r="G11" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="102">
+      <c r="H11" s="89">
         <v>44287</v>
       </c>
       <c r="I11" s="84"/>
       <c r="J11" s="83" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K11" s="86" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L11" s="84"/>
       <c r="M11" s="84"/>
@@ -18036,32 +18036,32 @@
         <v>11</v>
       </c>
       <c r="B12" s="82" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C12" s="83" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="61" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E12" s="61" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F12" s="61" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G12" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="102">
+      <c r="H12" s="89">
         <v>44287</v>
       </c>
       <c r="I12" s="84"/>
       <c r="J12" s="83" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K12" s="83" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L12" s="84"/>
       <c r="M12" s="84"/>
@@ -18072,32 +18072,32 @@
         <v>12</v>
       </c>
       <c r="B13" s="82" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C13" s="83" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="61" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E13" s="60" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F13" s="61" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G13" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="102">
+      <c r="H13" s="89">
         <v>44287</v>
       </c>
       <c r="I13" s="84"/>
       <c r="J13" s="83" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K13" s="83" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L13" s="84"/>
       <c r="M13" s="84"/>
@@ -18108,32 +18108,32 @@
         <v>13</v>
       </c>
       <c r="B14" s="82" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C14" s="83" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="61" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E14" s="60" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F14" s="61" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G14" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="102">
+      <c r="H14" s="89">
         <v>44348</v>
       </c>
       <c r="I14" s="84"/>
       <c r="J14" s="83" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K14" s="83" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L14" s="84"/>
       <c r="M14" s="84"/>
@@ -18144,32 +18144,32 @@
         <v>14</v>
       </c>
       <c r="B15" s="82" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C15" s="83" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="61" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E15" s="60" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F15" s="61" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G15" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="102">
+      <c r="H15" s="89">
         <v>44348</v>
       </c>
       <c r="I15" s="84"/>
       <c r="J15" s="83" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K15" s="83" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L15" s="84"/>
       <c r="M15" s="84"/>
@@ -18180,32 +18180,32 @@
         <v>15</v>
       </c>
       <c r="B16" s="82" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C16" s="83" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="61" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E16" s="60" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F16" s="61" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G16" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H16" s="102">
+      <c r="H16" s="89">
         <v>44348</v>
       </c>
       <c r="I16" s="84"/>
       <c r="J16" s="83" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K16" s="83" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L16" s="84"/>
       <c r="M16" s="84"/>
@@ -18216,30 +18216,30 @@
         <v>16</v>
       </c>
       <c r="B17" s="82" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C17" s="83" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="61" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E17" s="60"/>
       <c r="F17" s="61" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G17" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H17" s="102">
+      <c r="H17" s="89">
         <v>44348</v>
       </c>
       <c r="I17" s="84"/>
       <c r="J17" s="83" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K17" s="83" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L17" s="84"/>
       <c r="M17" s="84"/>
@@ -18250,30 +18250,30 @@
         <v>17</v>
       </c>
       <c r="B18" s="82" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C18" s="83" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="61" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E18" s="60"/>
       <c r="F18" s="61" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G18" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H18" s="102">
+      <c r="H18" s="89">
         <v>44348</v>
       </c>
       <c r="I18" s="84"/>
       <c r="J18" s="83" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K18" s="83" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L18" s="84"/>
       <c r="M18" s="84"/>
@@ -18284,30 +18284,30 @@
         <v>18</v>
       </c>
       <c r="B19" s="82" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C19" s="83" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="61" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E19" s="60"/>
       <c r="F19" s="61" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G19" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="102">
+      <c r="H19" s="89">
         <v>44348</v>
       </c>
       <c r="I19" s="84"/>
       <c r="J19" s="83" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K19" s="83" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L19" s="84"/>
       <c r="M19" s="84"/>
@@ -18318,30 +18318,30 @@
         <v>19</v>
       </c>
       <c r="B20" s="82" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C20" s="83" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="61" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E20" s="60"/>
       <c r="F20" s="61" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G20" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H20" s="102">
+      <c r="H20" s="89">
         <v>44348</v>
       </c>
       <c r="I20" s="84"/>
       <c r="J20" s="83" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K20" s="83" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L20" s="84"/>
       <c r="M20" s="84"/>
@@ -18352,30 +18352,30 @@
         <v>20</v>
       </c>
       <c r="B21" s="82" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C21" s="83" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="61" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E21" s="60"/>
       <c r="F21" s="61" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G21" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="102">
+      <c r="H21" s="89">
         <v>44348</v>
       </c>
       <c r="I21" s="84"/>
       <c r="J21" s="83" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K21" s="83" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L21" s="84"/>
       <c r="M21" s="84"/>
@@ -18386,30 +18386,30 @@
         <v>21</v>
       </c>
       <c r="B22" s="82" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C22" s="83" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="61" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E22" s="60"/>
       <c r="F22" s="61" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G22" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="102">
+      <c r="H22" s="89">
         <v>44348</v>
       </c>
       <c r="I22" s="84"/>
       <c r="J22" s="83" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K22" s="83" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L22" s="84"/>
       <c r="M22" s="84"/>
@@ -18420,30 +18420,30 @@
         <v>22</v>
       </c>
       <c r="B23" s="82" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C23" s="83" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="61" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E23" s="60"/>
       <c r="F23" s="61" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G23" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H23" s="102">
+      <c r="H23" s="89">
         <v>44348</v>
       </c>
       <c r="I23" s="84"/>
       <c r="J23" s="83" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K23" s="83" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L23" s="84"/>
       <c r="M23" s="84"/>
@@ -18454,30 +18454,30 @@
         <v>23</v>
       </c>
       <c r="B24" s="82" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C24" s="83" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="61" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E24" s="60"/>
       <c r="F24" s="61" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G24" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="102">
+      <c r="H24" s="89">
         <v>44348</v>
       </c>
       <c r="I24" s="84"/>
       <c r="J24" s="83" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K24" s="83" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L24" s="84"/>
       <c r="M24" s="84"/>
@@ -18488,30 +18488,30 @@
         <v>24</v>
       </c>
       <c r="B25" s="82" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C25" s="83" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="60" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E25" s="60"/>
       <c r="F25" s="60" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G25" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="H25" s="102">
+      <c r="H25" s="89">
         <v>44348</v>
       </c>
       <c r="I25" s="84"/>
       <c r="J25" s="83" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K25" s="86" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L25" s="84"/>
       <c r="M25" s="84"/>
@@ -18522,30 +18522,30 @@
         <v>25</v>
       </c>
       <c r="B26" s="82" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C26" s="83" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="86" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E26" s="86"/>
       <c r="F26" s="86" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G26" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="H26" s="102">
+      <c r="H26" s="89">
         <v>44348</v>
       </c>
       <c r="I26" s="84"/>
       <c r="J26" s="83" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K26" s="86" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L26" s="84"/>
       <c r="M26" s="84"/>
@@ -18556,30 +18556,30 @@
         <v>26</v>
       </c>
       <c r="B27" s="82" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C27" s="83" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="86" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E27" s="60"/>
       <c r="F27" s="61" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G27" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="102">
+      <c r="H27" s="89">
         <v>44348</v>
       </c>
       <c r="I27" s="84"/>
       <c r="J27" s="83" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K27" s="86" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L27" s="84"/>
       <c r="M27" s="84"/>
@@ -18590,30 +18590,30 @@
         <v>27</v>
       </c>
       <c r="B28" s="82" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C28" s="83" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="60" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E28" s="60"/>
       <c r="F28" s="60" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G28" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="H28" s="102">
+      <c r="H28" s="89">
         <v>44378</v>
       </c>
       <c r="I28" s="84"/>
       <c r="J28" s="83" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K28" s="86" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L28" s="84"/>
       <c r="M28" s="84"/>
@@ -18624,30 +18624,30 @@
         <v>28</v>
       </c>
       <c r="B29" s="82" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D29" s="69" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E29" s="60"/>
       <c r="F29" s="61" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="G29" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H29" s="102">
+      <c r="H29" s="89">
         <v>44378</v>
       </c>
       <c r="I29" s="84"/>
       <c r="J29" s="83" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K29" s="86" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L29" s="84"/>
       <c r="M29" s="84"/>
@@ -18658,30 +18658,30 @@
         <v>29</v>
       </c>
       <c r="B30" s="82" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D30" s="61" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E30" s="60"/>
       <c r="F30" s="61" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="G30" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H30" s="102">
+      <c r="H30" s="89">
         <v>44378</v>
       </c>
       <c r="I30" s="84"/>
       <c r="J30" s="83" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K30" s="86" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L30" s="84"/>
       <c r="M30" s="84"/>
@@ -18692,30 +18692,30 @@
         <v>30</v>
       </c>
       <c r="B31" s="82" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D31" s="69" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E31" s="60"/>
       <c r="F31" s="61" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G31" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H31" s="102">
+      <c r="H31" s="89">
         <v>44378</v>
       </c>
       <c r="I31" s="84"/>
       <c r="J31" s="83" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K31" s="86" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L31" s="84"/>
       <c r="M31" s="84"/>
@@ -18726,30 +18726,30 @@
         <v>31</v>
       </c>
       <c r="B32" s="82" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D32" s="61" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E32" s="60"/>
       <c r="F32" s="61" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G32" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H32" s="102">
+      <c r="H32" s="89">
         <v>44378</v>
       </c>
       <c r="I32" s="84"/>
       <c r="J32" s="83" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K32" s="86" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L32" s="84"/>
       <c r="M32" s="84"/>
@@ -18760,30 +18760,30 @@
         <v>32</v>
       </c>
       <c r="B33" s="82" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D33" s="61" t="s">
         <v>668</v>
       </c>
       <c r="E33" s="60"/>
       <c r="F33" s="61" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="G33" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H33" s="102">
+      <c r="H33" s="89">
         <v>44409</v>
       </c>
       <c r="I33" s="84"/>
       <c r="J33" s="83" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K33" s="86" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L33" s="84"/>
       <c r="M33" s="84"/>
@@ -18794,30 +18794,30 @@
         <v>33</v>
       </c>
       <c r="B34" s="82" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="61" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E34" s="60"/>
       <c r="F34" s="61" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G34" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H34" s="103">
+      <c r="H34" s="90">
         <v>44440</v>
       </c>
       <c r="I34" s="84"/>
       <c r="J34" s="83" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K34" s="86" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L34" s="84"/>
       <c r="M34" s="84"/>
@@ -18828,30 +18828,30 @@
         <v>34</v>
       </c>
       <c r="B35" s="82" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D35" s="61" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E35" s="60"/>
       <c r="F35" s="61" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G35" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H35" s="103">
+      <c r="H35" s="90">
         <v>44440</v>
       </c>
       <c r="I35" s="84"/>
       <c r="J35" s="83" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K35" s="86" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L35" s="84"/>
       <c r="M35" s="84"/>
@@ -18862,30 +18862,30 @@
         <v>35</v>
       </c>
       <c r="B36" s="82" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D36" s="61" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E36" s="60"/>
       <c r="F36" s="61" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G36" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H36" s="103">
+      <c r="H36" s="90">
         <v>44440</v>
       </c>
       <c r="I36" s="84"/>
       <c r="J36" s="83" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K36" s="86" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L36" s="84"/>
       <c r="M36" s="84"/>
@@ -18896,30 +18896,30 @@
         <v>36</v>
       </c>
       <c r="B37" s="82" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="60" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E37" s="60"/>
       <c r="F37" s="61" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="G37" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="H37" s="103">
+      <c r="H37" s="90">
         <v>44440</v>
       </c>
       <c r="I37" s="84"/>
       <c r="J37" s="83" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K37" s="86" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L37" s="84"/>
       <c r="M37" s="84"/>
@@ -18930,32 +18930,32 @@
         <v>37</v>
       </c>
       <c r="B38" s="82" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D38" s="60" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E38" s="60" t="s">
         <v>121</v>
       </c>
       <c r="F38" s="61" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="G38" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="H38" s="103">
+      <c r="H38" s="90">
         <v>44440</v>
       </c>
       <c r="I38" s="84"/>
       <c r="J38" s="83" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K38" s="86" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L38" s="84"/>
       <c r="M38" s="84"/>
@@ -18966,32 +18966,32 @@
         <v>38</v>
       </c>
       <c r="B39" s="82" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D39" s="60" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E39" s="60" t="s">
         <v>121</v>
       </c>
       <c r="F39" s="61" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G39" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="H39" s="103">
+      <c r="H39" s="90">
         <v>44440</v>
       </c>
       <c r="I39" s="84"/>
       <c r="J39" s="83" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K39" s="86" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L39" s="84"/>
       <c r="M39" s="84"/>
@@ -20050,13 +20050,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="17"/>
-      <c r="B1" s="93" t="s">
-        <v>287</v>
-      </c>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
+      <c r="B1" s="97" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
@@ -20114,25 +20114,25 @@
         <v>2</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D3" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="F3" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="G3" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="G3" s="19" t="s">
+      <c r="H3" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="I3" s="19" t="s">
         <v>290</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>291</v>
       </c>
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
@@ -20633,34 +20633,34 @@
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C13" s="19">
-        <f>SUM(C4:C12)</f>
+        <f t="shared" ref="C13:I13" si="6">SUM(C4:C12)</f>
         <v>0</v>
       </c>
       <c r="D13" s="19">
-        <f>SUM(D4:D12)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E13" s="19">
-        <f>SUM(E4:E12)</f>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="F13" s="19">
-        <f>SUM(F4:F12)</f>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="G13" s="19">
-        <f>SUM(G4:G12)</f>
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
       <c r="H13" s="19">
-        <f>SUM(H4:H12)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I13" s="19">
-        <f>SUM(I4:I12)</f>
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
       <c r="J13" s="26"/>
@@ -48526,7 +48526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
@@ -48541,81 +48541,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="105" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="100"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="99" t="s">
         <v>292</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="96"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="101" t="s">
         <v>293</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="97" t="s">
+      <c r="D2" s="102"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="99" t="s">
         <v>294</v>
       </c>
-      <c r="D2" s="98"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="95" t="s">
+      <c r="G2" s="100"/>
+      <c r="H2" s="101" t="s">
         <v>295</v>
       </c>
-      <c r="G2" s="96"/>
-      <c r="H2" s="97" t="s">
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="100"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="99" t="s">
         <v>296</v>
       </c>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="96"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="95" t="s">
+      <c r="B3" s="100"/>
+      <c r="C3" s="101" t="s">
         <v>297</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="97" t="s">
+      <c r="D3" s="102"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="99" t="s">
         <v>298</v>
       </c>
-      <c r="D3" s="98"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="95" t="s">
+      <c r="G3" s="100"/>
+      <c r="H3" s="101" t="s">
         <v>299</v>
       </c>
-      <c r="G3" s="96"/>
-      <c r="H3" s="97" t="s">
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="100"/>
+    </row>
+    <row r="4" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="103" t="s">
         <v>300</v>
       </c>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="96"/>
-    </row>
-    <row r="4" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="99" t="s">
-        <v>301</v>
-      </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="96"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="100"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C5" s="30">
         <f>D18/J18</f>
@@ -48633,7 +48633,7 @@
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="31" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C6" s="30">
         <f>E18/J18</f>
@@ -48646,9 +48646,9 @@
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="29" t="s">
-        <v>304</v>
-      </c>
-      <c r="K6" s="105">
+        <v>303</v>
+      </c>
+      <c r="K6" s="92">
         <v>44470</v>
       </c>
     </row>
@@ -48667,16 +48667,16 @@
     </row>
     <row r="8" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="34" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B8" s="34" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E8" s="34" t="s">
         <v>49</v>
@@ -48685,19 +48685,19 @@
         <v>57</v>
       </c>
       <c r="G8" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="I8" s="36" t="s">
         <v>307</v>
       </c>
-      <c r="H8" s="34" t="s">
-        <v>271</v>
-      </c>
-      <c r="I8" s="36" t="s">
+      <c r="J8" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="K8" s="36" t="s">
         <v>308</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>290</v>
-      </c>
-      <c r="K8" s="36" t="s">
-        <v>309</v>
       </c>
       <c r="L8" s="37"/>
       <c r="M8" s="37"/>
@@ -48723,7 +48723,7 @@
         <f>'Function list'!B2</f>
         <v>F011</v>
       </c>
-      <c r="C9" s="104" t="str">
+      <c r="C9" s="91" t="str">
         <f>'Function list'!C2</f>
         <v>Phân trang tìm kiếm</v>
       </c>
@@ -48765,7 +48765,7 @@
         <f>'Function list'!B3</f>
         <v>F012</v>
       </c>
-      <c r="C10" s="104" t="str">
+      <c r="C10" s="91" t="str">
         <f>'Function list'!C3</f>
         <v>Chọn sản phẩm vào giỏ hàng</v>
       </c>
@@ -48807,7 +48807,7 @@
         <f>'Function list'!B4</f>
         <v>F013</v>
       </c>
-      <c r="C11" s="104" t="str">
+      <c r="C11" s="91" t="str">
         <f>'Function list'!C4</f>
         <v>Quản lý giỏ hàng</v>
       </c>
@@ -48849,7 +48849,7 @@
         <f>'Function list'!B5</f>
         <v>F014</v>
       </c>
-      <c r="C12" s="104" t="str">
+      <c r="C12" s="91" t="str">
         <f>'Function list'!C5</f>
         <v>Sử dụng một thư viện chuyên về
 authentication</v>
@@ -48893,7 +48893,7 @@
         <f>'Function list'!B6</f>
         <v>F015</v>
       </c>
-      <c r="C13" s="104" t="str">
+      <c r="C13" s="91" t="str">
         <f>'Function list'!C6</f>
         <v>Đăng ký tài khoản</v>
       </c>
@@ -48935,7 +48935,7 @@
         <f>'Function list'!B7</f>
         <v>F016</v>
       </c>
-      <c r="C14" s="104" t="str">
+      <c r="C14" s="91" t="str">
         <f>'Function list'!C7</f>
         <v>Đăng nhập hệ thống</v>
       </c>
@@ -48977,7 +48977,7 @@
         <f>'Function list'!B8</f>
         <v>F017</v>
       </c>
-      <c r="C15" s="104" t="str">
+      <c r="C15" s="91" t="str">
         <f>'Function list'!C8</f>
         <v>Ngăn cấm người chưa đăng nhập sử
 dụng các chức năng bắt buộc đăng
@@ -49021,7 +49021,7 @@
         <f>'Function list'!B9</f>
         <v>F018</v>
       </c>
-      <c r="C16" s="104" t="str">
+      <c r="C16" s="91" t="str">
         <f>'Function list'!C9</f>
         <v>Quên mật khẩu và làm mới mật khẩu
 bằng email</v>
@@ -49064,7 +49064,7 @@
         <f>'Function list'!B10</f>
         <v>F019</v>
       </c>
-      <c r="C17" s="104" t="str">
+      <c r="C17" s="91" t="str">
         <f>'Function list'!C10</f>
         <v>Cập nhật thông tin cá nhân của tài
 khoản</v>
@@ -49104,34 +49104,34 @@
       <c r="A18" s="40"/>
       <c r="B18" s="40"/>
       <c r="C18" s="40" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D18" s="40">
-        <f>SUM(D9:D17)</f>
+        <f t="shared" ref="D18:J18" si="0">SUM(D9:D17)</f>
         <v>112</v>
       </c>
       <c r="E18" s="40">
-        <f>SUM(E9:E17)</f>
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
       <c r="F18" s="40">
-        <f>SUM(F9:F17)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="G18" s="40">
-        <f>SUM(G9:G17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H18" s="40">
-        <f>SUM(H9:H17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I18" s="40">
-        <f>SUM(I9:I17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J18" s="40">
-        <f>SUM(J9:J17)</f>
+        <f t="shared" si="0"/>
         <v>112</v>
       </c>
       <c r="K18" s="41">
@@ -61048,7 +61048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -61062,57 +61062,57 @@
   <sheetData>
     <row r="1" spans="1:3" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A1" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="B1" s="44" t="s">
         <v>310</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="C1" s="45" t="s">
         <v>311</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="46" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B2" s="47">
         <v>10</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="49" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B3" s="50">
         <v>5</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B4" s="53">
         <v>3</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="55" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B5" s="50">
         <v>1</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -61123,25 +61123,25 @@
     </row>
     <row r="8" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A8" s="56" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B8" s="11"/>
     </row>
     <row r="9" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A9" s="56" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B9" s="11"/>
     </row>
     <row r="10" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A10" s="56" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B10" s="11"/>
     </row>
     <row r="11" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A11" s="56" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B11" s="11"/>
     </row>
